--- a/christmas-markt.xlsx
+++ b/christmas-markt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\christmas-markt-vienna-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0071D9E-5D55-409A-99BA-87E14DFAB6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61464743-0865-4034-A40C-4357CA769228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -624,6 +624,31 @@
   <si>
     <t>Please check the website for the time/date</t>
   </si>
+  <si>
+    <t>Floridsdorfer Christkindlmarkt</t>
+  </si>
+  <si>
+    <t>https://www.wissenswertes.at/advent-floridsdorf</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/F5bE8GRoDBsUq8xF9</t>
+  </si>
+  <si>
+    <t>09.11  - 24.12</t>
+  </si>
+  <si>
+    <t>08.30 bis 20.00 Uhr</t>
+  </si>
+  <si>
+    <t>Bahnhof Wien-Floridsdorf</t>
+  </si>
+  <si>
+    <t>https://vienna-christmas-markets.unmanagedvisio.com/photos/floridsdorf.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near the Floridsdorf train station, Franz Jonas Platz serves annually as the site for the Floridsdorf Christkindlmarkt, open daily from mid-November until Christmas Eve. The Advent market includes 15 stalls, with four offering culinary options. Many commuters can combine their work journey with a visit to the Christkindlmarkt, but the Advent market is available to all visitors, not just those traveling for work.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +739,13 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -772,10 +804,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,8 +866,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1016,8 +1053,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I20" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I21" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF0C0E72-B274-4A05-AD71-9FFBFB3BE74B}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{164038C6-D656-4E65-9010-4033A07FAD9E}" name="Name" dataDxfId="7"/>
@@ -2449,7 +2486,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3042,9 +3079,33 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="20"/>
@@ -7993,11 +8054,14 @@
     <hyperlink ref="D20" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
     <hyperlink ref="E20" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
     <hyperlink ref="I20" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D21" r:id="rId51" xr:uid="{2A849EFA-3BBB-4311-A394-52D4CF41A966}"/>
+    <hyperlink ref="E21" r:id="rId52" xr:uid="{8BE07054-0B56-4EA8-BAEE-410AB32B05DC}"/>
+    <hyperlink ref="I21" r:id="rId53" xr:uid="{A8C95E2A-F697-4CEE-8D42-77F87A017BCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
--- a/christmas-markt.xlsx
+++ b/christmas-markt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\christmas-markt-vienna-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61464743-0865-4034-A40C-4357CA769228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00307675-3B7F-43EA-A97A-AA81541436BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -648,6 +648,27 @@
   <si>
     <t xml:space="preserve">Near the Floridsdorf train station, Franz Jonas Platz serves annually as the site for the Floridsdorf Christkindlmarkt, open daily from mid-November until Christmas Eve. The Advent market includes 15 stalls, with four offering culinary options. Many commuters can combine their work journey with a visit to the Christkindlmarkt, but the Advent market is available to all visitors, not just those traveling for work.
 </t>
+  </si>
+  <si>
+    <t>Adventmarkt in der Meidlinger Hauptstraße</t>
+  </si>
+  <si>
+    <t>10.11 - 24.11</t>
+  </si>
+  <si>
+    <t>10.00 bis 20.30</t>
+  </si>
+  <si>
+    <t>The Advent market on Meidlinger Hauptstraße kicks off in mid-November and runs until December 24th. Daily after work, colleagues or families can gather to spend a cozy evening with warm drinks and pastries. The Advent market features a total of 13 stalls, with three offering culinary options. Warm drinks such as punch and mulled wine are available to help warm up while looking for one or two gift ideas that might be needed for the Christmas celebration</t>
+  </si>
+  <si>
+    <t>https://www.adventguide.at/de/maerkte/details/meidlinger-christkindlmarkt.html</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ty4gwbYqfK1c9Ccy5</t>
+  </si>
+  <si>
+    <t>Meidlinger Platzl</t>
   </si>
 </sst>
 </file>
@@ -808,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,6 +888,9 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1077,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I21" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I22" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF0C0E72-B274-4A05-AD71-9FFBFB3BE74B}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{164038C6-D656-4E65-9010-4033A07FAD9E}" name="Name" dataDxfId="7"/>
@@ -2485,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3078,7 +3102,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3107,12 +3131,37 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -8057,11 +8106,13 @@
     <hyperlink ref="D21" r:id="rId51" xr:uid="{2A849EFA-3BBB-4311-A394-52D4CF41A966}"/>
     <hyperlink ref="E21" r:id="rId52" xr:uid="{8BE07054-0B56-4EA8-BAEE-410AB32B05DC}"/>
     <hyperlink ref="I21" r:id="rId53" xr:uid="{A8C95E2A-F697-4CEE-8D42-77F87A017BCB}"/>
+    <hyperlink ref="D22" r:id="rId54" xr:uid="{5CE8673B-9500-46B0-90D8-01FFDC2E7EE7}"/>
+    <hyperlink ref="E22" r:id="rId55" xr:uid="{619E85E2-0FEA-429B-B9CB-64E4983549A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/christmas-markt.xlsx
+++ b/christmas-markt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\christmas-markt-vienna-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00307675-3B7F-43EA-A97A-AA81541436BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D6D4F-CFAF-44DA-8FF7-133F57A418E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -619,9 +619,6 @@
     <t>From November 23rd to December 23rd, 2023, the Ottakringer Brewery transforms every Thursday to Sunday into a unique and unmistakable Christmas landscape</t>
   </si>
   <si>
-    <t>Behind the Army History Museum, parents and children can experience our unique Medieval Advent Market in a festive atmosphere with a very special mood. After the break due to COVID, craftsmen and traders, hearty medieval gastronomy, market criers, music, jugglers, fencing demonstrations, and delicious Christmas punch made from old recipes are attracting visitors again this year. A spectacular fire show marks the festive conclusion each evening!</t>
-  </si>
-  <si>
     <t>Please check the website for the time/date</t>
   </si>
   <si>
@@ -646,10 +643,6 @@
     <t>https://vienna-christmas-markets.unmanagedvisio.com/photos/floridsdorf.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Near the Floridsdorf train station, Franz Jonas Platz serves annually as the site for the Floridsdorf Christkindlmarkt, open daily from mid-November until Christmas Eve. The Advent market includes 15 stalls, with four offering culinary options. Many commuters can combine their work journey with a visit to the Christkindlmarkt, but the Advent market is available to all visitors, not just those traveling for work.
-</t>
-  </si>
-  <si>
     <t>Adventmarkt in der Meidlinger Hauptstraße</t>
   </si>
   <si>
@@ -669,6 +662,82 @@
   </si>
   <si>
     <t>Meidlinger Platzl</t>
+  </si>
+  <si>
+    <t>Adventmarkt in Favoriten</t>
+  </si>
+  <si>
+    <t>The Advent market on Favoritenstraße is a slightly smaller market with 17 stalls, including three with gastronomic offerings. It also opens in mid-November and is open daily until Christmas Eve. Starting at 9:00 AM each day, you can look for gift ideas in the early morning or enjoy a warm punch in the evening. It is also open for eight hours on Christmas Eve.</t>
+  </si>
+  <si>
+    <t>https://www.wissenswertes.at/advent-favoriten</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/YhQVQSJjibeB1mnc7</t>
+  </si>
+  <si>
+    <t>Klimmt Villa</t>
+  </si>
+  <si>
+    <t>Neugebäude Palace</t>
+  </si>
+  <si>
+    <t>https://www.schlossneugebaeude.wien/</t>
+  </si>
+  <si>
+    <t>https://www.adventguide.at/media/maerkte/Bild%20%20132.jpg</t>
+  </si>
+  <si>
+    <t>Schloss Neugebäude</t>
+  </si>
+  <si>
+    <t>Fußgängerzone Favoriten</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/bV1EmwreM9v5bikt9</t>
+  </si>
+  <si>
+    <t>03.12, 10.12, 17.12</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/SuotHjAakwnP4yDb9</t>
+  </si>
+  <si>
+    <t>täglich von 09.00 bis 20.00 Uhr</t>
+  </si>
+  <si>
+    <t>10.11 - 24.12</t>
+  </si>
+  <si>
+    <t>01.12 - 22.12</t>
+  </si>
+  <si>
+    <t>Montag bis Donnerstag, Sonntag 14.00 - 20.00 Uhr
+Freitag und Samstag 14.00 - 22.00 Uhr</t>
+  </si>
+  <si>
+    <t>The Christmas market is not purely an Advent market, as it combines elements of a cultural market and an art market, offering various program points, with Schloss Neugebäude itself also playing a role. In total, there are about 100 exhibitors inside the castle, presenting their products and thus contributing to the cultural market. In front of the castle, there are gastronomic offerings to warm up and socialize, focusing on entertainment.</t>
+  </si>
+  <si>
+    <t>Vorfreude ist bekanntlich die schönste Freude und somit freuen wir uns auf den Klimt Villa Adventzauber 2023, der an den ersten drei Adventsonntagen von 13-20 Uhr stattfindet.
+PROGRAMM:
+Um 14 Uhr, 15 Uhr, 16 Uhr, 17 Uhr finden kurze Einführungen über die Geschichte der Klimt Villa und die Sonderausstellung „Klimt lost“ statt (Dauer ca. 15min/ eine Anmeldung ist nicht erforderlich).
+Zusätzlich findet im Salon der Klimt Villa ein kleiner, aber feiner Kunstmarkt statt und bietet kreative und einzigartige Geschenkeideen für Weihnachten.
+Vor der wunderbaren Freitreppe der Klimt Villa könnt ihr euren Besuch mit hausgemachtem Punsch, Glühwein, Snacks und Live-Musik ausklingen lassen.
+Ticket: 8,- EUR (inkl. Eintritt Museum, Kunstmarkt, Einführungen und ein Glas Glühwein oder Punsch)</t>
+  </si>
+  <si>
+    <t>https://www.klimtvilla.at/wp-content/uploads/2023/09/Adventzauber-2023.jpg</t>
+  </si>
+  <si>
+    <t>https://www.klimtvilla.at/events/adventzauber-sonntag-3-12-2023/?occurrence=2023-12-03</t>
+  </si>
+  <si>
+    <t>Near the Floridsdorf train station, Franz Jonas Platz serves annually as the site for the Floridsdorf Christkindlmarkt, open daily from mid-November until Christmas Eve. The Advent market includes 15 stalls, with four offering culinary options. Many commuters can combine their work journey with a visit to the Christkindlmarkt, but the Advent market is available to all visitors, not just those traveling for work.</t>
+  </si>
+  <si>
+    <t>Behind the Army History Museum, parents and children can experience our unique Medieval Advent Market in a festive atmosphere with a very special mood. After the break due to COVID, craftsmen and traders, hearty medieval gastronomy, market criers, music, jugglers, fencing demonstrations, and delicious Christmas punch made from old recipes are attracting visitors again this year. A spectacular fire show marks the festive conclusion each evening!
+ACHTUNG: Wir bitten um Ihr Verständnis, dass der Eintritt mit Hunden nicht möglich ist. Außerdem möchten wir Sie darauf hinweisen, dass es dieses Jahr einen Eintritt gibt: 7€ (Normalpreis), 5 € (ermäßigt). Freier Eintritt für historisch Gewandete.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +833,11 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1077,8 +1151,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I22" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}" name="Table2" displayName="Table2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I25" xr:uid="{983BA208-8473-4226-AA58-3D6AC5999806}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF0C0E72-B274-4A05-AD71-9FFBFB3BE74B}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{164038C6-D656-4E65-9010-4033A07FAD9E}" name="Name" dataDxfId="7"/>
@@ -1296,14 +1370,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="3" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1319,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1327,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1335,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1343,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1351,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1359,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1367,7 +1441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1375,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1383,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1391,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1399,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1407,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1415,7 +1489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1423,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1431,7 +1505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1439,7 +1513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1447,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1455,7 +1529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1463,7 +1537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1471,7 +1545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1479,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1487,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1495,982 +1569,982 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2509,22 +2583,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="4" width="62.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
     <col min="7" max="8" width="35" customWidth="1"/>
     <col min="9" max="9" width="89" customWidth="1"/>
-    <col min="10" max="27" width="8.7109375" customWidth="1"/>
+    <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2582,7 +2656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2611,7 +2685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2640,7 +2714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2669,7 +2743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2698,7 +2772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2727,7 +2801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2756,7 +2830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="80.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2785,7 +2859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2814,7 +2888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="92" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2843,7 +2917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2872,7 +2946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2901,7 +2975,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2930,7 +3004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2957,7 +3031,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2986,7 +3060,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3015,7 +3089,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3035,7 +3109,7 @@
         <v>139</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>140</v>
@@ -3044,7 +3118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3073,7 +3147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3081,7 +3155,7 @@
         <v>148</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>149</v>
@@ -3102,4956 +3176,5024 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="H22" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
     </row>
-    <row r="142" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
-    <row r="143" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
     </row>
-    <row r="144" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
     </row>
-    <row r="145" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
     </row>
-    <row r="146" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
     </row>
-    <row r="147" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
     </row>
-    <row r="148" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
     </row>
-    <row r="149" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
     </row>
-    <row r="150" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
     </row>
-    <row r="151" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
     </row>
-    <row r="152" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
     </row>
-    <row r="154" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
     </row>
-    <row r="155" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
     </row>
-    <row r="156" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
     </row>
-    <row r="157" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
     </row>
-    <row r="158" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
     </row>
-    <row r="159" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
     </row>
-    <row r="160" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
     </row>
-    <row r="161" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
     </row>
-    <row r="162" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
-    <row r="163" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
     </row>
-    <row r="164" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
     </row>
-    <row r="165" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
     </row>
-    <row r="166" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
     </row>
-    <row r="167" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
     </row>
-    <row r="168" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
     </row>
-    <row r="169" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
     </row>
-    <row r="170" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
     </row>
-    <row r="171" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
     </row>
-    <row r="172" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
     </row>
-    <row r="174" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
       <c r="H174" s="20"/>
     </row>
-    <row r="175" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="20"/>
     </row>
-    <row r="176" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
     </row>
-    <row r="177" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
       <c r="H177" s="20"/>
     </row>
-    <row r="178" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
       <c r="H178" s="20"/>
     </row>
-    <row r="179" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="H179" s="20"/>
     </row>
-    <row r="180" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" s="20"/>
     </row>
-    <row r="181" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
     </row>
-    <row r="182" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
     </row>
-    <row r="183" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
     </row>
-    <row r="184" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
       <c r="H184" s="20"/>
     </row>
-    <row r="185" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" s="20"/>
     </row>
-    <row r="186" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
       <c r="H186" s="20"/>
     </row>
-    <row r="187" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="20"/>
     </row>
-    <row r="188" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
     </row>
-    <row r="189" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
     </row>
-    <row r="190" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" s="20"/>
     </row>
-    <row r="191" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
     </row>
-    <row r="192" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
     </row>
-    <row r="193" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
       <c r="H193" s="20"/>
     </row>
-    <row r="194" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
     </row>
-    <row r="195" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
     </row>
-    <row r="196" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="20"/>
     </row>
-    <row r="197" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
       <c r="H197" s="20"/>
     </row>
-    <row r="198" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
       <c r="H198" s="20"/>
     </row>
-    <row r="199" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
       <c r="H199" s="20"/>
     </row>
-    <row r="200" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
     </row>
-    <row r="201" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
       <c r="H201" s="20"/>
     </row>
-    <row r="202" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
       <c r="H202" s="20"/>
     </row>
-    <row r="203" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
       <c r="H203" s="20"/>
     </row>
-    <row r="204" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
     </row>
-    <row r="205" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
     </row>
-    <row r="206" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
     </row>
-    <row r="207" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
     </row>
-    <row r="208" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
     </row>
-    <row r="209" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
     </row>
-    <row r="210" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
       <c r="H210" s="20"/>
     </row>
-    <row r="211" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
     </row>
-    <row r="212" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
       <c r="H212" s="20"/>
     </row>
-    <row r="213" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
       <c r="H213" s="20"/>
     </row>
-    <row r="214" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
       <c r="H214" s="20"/>
     </row>
-    <row r="215" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
       <c r="H215" s="20"/>
     </row>
-    <row r="216" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F216" s="20"/>
       <c r="G216" s="20"/>
       <c r="H216" s="20"/>
     </row>
-    <row r="217" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
       <c r="H217" s="20"/>
     </row>
-    <row r="218" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F218" s="20"/>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
     </row>
-    <row r="219" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
       <c r="H219" s="20"/>
     </row>
-    <row r="220" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
       <c r="H220" s="20"/>
     </row>
-    <row r="221" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
       <c r="H221" s="20"/>
     </row>
-    <row r="222" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
       <c r="H222" s="20"/>
     </row>
-    <row r="223" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
       <c r="H223" s="20"/>
     </row>
-    <row r="224" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
       <c r="H224" s="20"/>
     </row>
-    <row r="225" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
       <c r="H225" s="20"/>
     </row>
-    <row r="226" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
       <c r="H226" s="20"/>
     </row>
-    <row r="227" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
       <c r="H227" s="20"/>
     </row>
-    <row r="228" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
       <c r="H228" s="20"/>
     </row>
-    <row r="229" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
       <c r="H229" s="20"/>
     </row>
-    <row r="230" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
       <c r="H230" s="20"/>
     </row>
-    <row r="231" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
       <c r="H231" s="20"/>
     </row>
-    <row r="232" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
       <c r="H232" s="20"/>
     </row>
-    <row r="233" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
       <c r="H233" s="20"/>
     </row>
-    <row r="234" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
       <c r="H234" s="20"/>
     </row>
-    <row r="235" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
     </row>
-    <row r="236" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
       <c r="H236" s="20"/>
     </row>
-    <row r="237" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
       <c r="H237" s="20"/>
     </row>
-    <row r="238" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F238" s="20"/>
       <c r="G238" s="20"/>
       <c r="H238" s="20"/>
     </row>
-    <row r="239" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
       <c r="H239" s="20"/>
     </row>
-    <row r="240" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F240" s="20"/>
       <c r="G240" s="20"/>
       <c r="H240" s="20"/>
     </row>
-    <row r="241" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
       <c r="H241" s="20"/>
     </row>
-    <row r="242" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
       <c r="H242" s="20"/>
     </row>
-    <row r="243" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
       <c r="H243" s="20"/>
     </row>
-    <row r="244" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
       <c r="H244" s="20"/>
     </row>
-    <row r="245" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
       <c r="H245" s="20"/>
     </row>
-    <row r="246" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
       <c r="H246" s="20"/>
     </row>
-    <row r="247" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
       <c r="H247" s="20"/>
     </row>
-    <row r="248" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
       <c r="H248" s="20"/>
     </row>
-    <row r="249" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
       <c r="H249" s="20"/>
     </row>
-    <row r="250" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
       <c r="H250" s="20"/>
     </row>
-    <row r="251" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
       <c r="H251" s="20"/>
     </row>
-    <row r="252" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
       <c r="H252" s="20"/>
     </row>
-    <row r="253" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
       <c r="H253" s="20"/>
     </row>
-    <row r="254" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
       <c r="H254" s="20"/>
     </row>
-    <row r="255" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
       <c r="H255" s="20"/>
     </row>
-    <row r="256" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
       <c r="H256" s="20"/>
     </row>
-    <row r="257" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
       <c r="H257" s="20"/>
     </row>
-    <row r="258" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
       <c r="H258" s="20"/>
     </row>
-    <row r="259" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
       <c r="H259" s="20"/>
     </row>
-    <row r="260" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
       <c r="H260" s="20"/>
     </row>
-    <row r="261" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
       <c r="H261" s="20"/>
     </row>
-    <row r="262" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
       <c r="H262" s="20"/>
     </row>
-    <row r="263" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
     </row>
-    <row r="264" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
       <c r="H264" s="20"/>
     </row>
-    <row r="265" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
       <c r="H265" s="20"/>
     </row>
-    <row r="266" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
       <c r="H266" s="20"/>
     </row>
-    <row r="267" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
       <c r="H267" s="20"/>
     </row>
-    <row r="268" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
       <c r="H268" s="20"/>
     </row>
-    <row r="269" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
       <c r="H269" s="20"/>
     </row>
-    <row r="270" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
       <c r="H270" s="20"/>
     </row>
-    <row r="271" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
       <c r="H271" s="20"/>
     </row>
-    <row r="272" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
       <c r="H272" s="20"/>
     </row>
-    <row r="273" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
       <c r="H273" s="20"/>
     </row>
-    <row r="274" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
       <c r="H274" s="20"/>
     </row>
-    <row r="275" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
       <c r="H275" s="20"/>
     </row>
-    <row r="276" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
       <c r="H276" s="20"/>
     </row>
-    <row r="277" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
       <c r="H277" s="20"/>
     </row>
-    <row r="278" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F278" s="20"/>
       <c r="G278" s="20"/>
       <c r="H278" s="20"/>
     </row>
-    <row r="279" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
       <c r="H279" s="20"/>
     </row>
-    <row r="280" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
       <c r="H280" s="20"/>
     </row>
-    <row r="281" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
       <c r="H281" s="20"/>
     </row>
-    <row r="282" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
       <c r="H282" s="20"/>
     </row>
-    <row r="283" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
       <c r="H283" s="20"/>
     </row>
-    <row r="284" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F284" s="20"/>
       <c r="G284" s="20"/>
       <c r="H284" s="20"/>
     </row>
-    <row r="285" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
       <c r="H285" s="20"/>
     </row>
-    <row r="286" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F286" s="20"/>
       <c r="G286" s="20"/>
       <c r="H286" s="20"/>
     </row>
-    <row r="287" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
       <c r="H287" s="20"/>
     </row>
-    <row r="288" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
       <c r="H288" s="20"/>
     </row>
-    <row r="289" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
       <c r="H289" s="20"/>
     </row>
-    <row r="290" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
       <c r="H290" s="20"/>
     </row>
-    <row r="291" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
     </row>
-    <row r="292" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
       <c r="H292" s="20"/>
     </row>
-    <row r="293" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
     </row>
-    <row r="294" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
       <c r="H294" s="20"/>
     </row>
-    <row r="295" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
     </row>
-    <row r="296" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
       <c r="H296" s="20"/>
     </row>
-    <row r="297" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
       <c r="H297" s="20"/>
     </row>
-    <row r="298" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
       <c r="H298" s="20"/>
     </row>
-    <row r="299" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
       <c r="H299" s="20"/>
     </row>
-    <row r="300" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
       <c r="H300" s="20"/>
     </row>
-    <row r="301" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
       <c r="H301" s="20"/>
     </row>
-    <row r="302" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
       <c r="H302" s="20"/>
     </row>
-    <row r="303" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
       <c r="H303" s="20"/>
     </row>
-    <row r="304" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F304" s="20"/>
       <c r="G304" s="20"/>
       <c r="H304" s="20"/>
     </row>
-    <row r="305" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
       <c r="H305" s="20"/>
     </row>
-    <row r="306" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
       <c r="H306" s="20"/>
     </row>
-    <row r="307" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
       <c r="H307" s="20"/>
     </row>
-    <row r="308" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
       <c r="H308" s="20"/>
     </row>
-    <row r="309" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
       <c r="H309" s="20"/>
     </row>
-    <row r="310" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F310" s="20"/>
       <c r="G310" s="20"/>
       <c r="H310" s="20"/>
     </row>
-    <row r="311" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
       <c r="H311" s="20"/>
     </row>
-    <row r="312" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
       <c r="H312" s="20"/>
     </row>
-    <row r="313" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
       <c r="H313" s="20"/>
     </row>
-    <row r="314" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
       <c r="H314" s="20"/>
     </row>
-    <row r="315" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
       <c r="H315" s="20"/>
     </row>
-    <row r="316" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
       <c r="H316" s="20"/>
     </row>
-    <row r="317" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
       <c r="H317" s="20"/>
     </row>
-    <row r="318" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
       <c r="H318" s="20"/>
     </row>
-    <row r="319" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
       <c r="H319" s="20"/>
     </row>
-    <row r="320" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
       <c r="H320" s="20"/>
     </row>
-    <row r="321" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
     </row>
-    <row r="322" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
     </row>
-    <row r="323" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
       <c r="H323" s="20"/>
     </row>
-    <row r="324" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
       <c r="H324" s="20"/>
     </row>
-    <row r="325" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F325" s="20"/>
       <c r="G325" s="20"/>
       <c r="H325" s="20"/>
     </row>
-    <row r="326" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
       <c r="H326" s="20"/>
     </row>
-    <row r="327" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
       <c r="H327" s="20"/>
     </row>
-    <row r="328" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F328" s="20"/>
       <c r="G328" s="20"/>
       <c r="H328" s="20"/>
     </row>
-    <row r="329" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
       <c r="H329" s="20"/>
     </row>
-    <row r="330" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
       <c r="H330" s="20"/>
     </row>
-    <row r="331" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
       <c r="H331" s="20"/>
     </row>
-    <row r="332" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
       <c r="H332" s="20"/>
     </row>
-    <row r="333" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
       <c r="H333" s="20"/>
     </row>
-    <row r="334" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
       <c r="H334" s="20"/>
     </row>
-    <row r="335" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
       <c r="H335" s="20"/>
     </row>
-    <row r="336" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
       <c r="H336" s="20"/>
     </row>
-    <row r="337" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
       <c r="H337" s="20"/>
     </row>
-    <row r="338" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
       <c r="H338" s="20"/>
     </row>
-    <row r="339" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
       <c r="H339" s="20"/>
     </row>
-    <row r="340" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
       <c r="H340" s="20"/>
     </row>
-    <row r="341" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
       <c r="H341" s="20"/>
     </row>
-    <row r="342" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
       <c r="H342" s="20"/>
     </row>
-    <row r="343" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
       <c r="H343" s="20"/>
     </row>
-    <row r="344" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
       <c r="H344" s="20"/>
     </row>
-    <row r="345" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
       <c r="H345" s="20"/>
     </row>
-    <row r="346" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F346" s="20"/>
       <c r="G346" s="20"/>
       <c r="H346" s="20"/>
     </row>
-    <row r="347" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
       <c r="H347" s="20"/>
     </row>
-    <row r="348" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F348" s="20"/>
       <c r="G348" s="20"/>
       <c r="H348" s="20"/>
     </row>
-    <row r="349" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F349" s="20"/>
       <c r="G349" s="20"/>
       <c r="H349" s="20"/>
     </row>
-    <row r="350" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
       <c r="H350" s="20"/>
     </row>
-    <row r="351" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
       <c r="H351" s="20"/>
     </row>
-    <row r="352" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F352" s="20"/>
       <c r="G352" s="20"/>
       <c r="H352" s="20"/>
     </row>
-    <row r="353" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
       <c r="H353" s="20"/>
     </row>
-    <row r="354" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F354" s="20"/>
       <c r="G354" s="20"/>
       <c r="H354" s="20"/>
     </row>
-    <row r="355" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
       <c r="H355" s="20"/>
     </row>
-    <row r="356" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F356" s="20"/>
       <c r="G356" s="20"/>
       <c r="H356" s="20"/>
     </row>
-    <row r="357" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
       <c r="H357" s="20"/>
     </row>
-    <row r="358" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
       <c r="H358" s="20"/>
     </row>
-    <row r="359" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F359" s="20"/>
       <c r="G359" s="20"/>
       <c r="H359" s="20"/>
     </row>
-    <row r="360" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F360" s="20"/>
       <c r="G360" s="20"/>
       <c r="H360" s="20"/>
     </row>
-    <row r="361" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F361" s="20"/>
       <c r="G361" s="20"/>
       <c r="H361" s="20"/>
     </row>
-    <row r="362" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F362" s="20"/>
       <c r="G362" s="20"/>
       <c r="H362" s="20"/>
     </row>
-    <row r="363" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F363" s="20"/>
       <c r="G363" s="20"/>
       <c r="H363" s="20"/>
     </row>
-    <row r="364" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F364" s="20"/>
       <c r="G364" s="20"/>
       <c r="H364" s="20"/>
     </row>
-    <row r="365" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F365" s="20"/>
       <c r="G365" s="20"/>
       <c r="H365" s="20"/>
     </row>
-    <row r="366" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
       <c r="H366" s="20"/>
     </row>
-    <row r="367" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F367" s="20"/>
       <c r="G367" s="20"/>
       <c r="H367" s="20"/>
     </row>
-    <row r="368" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F368" s="20"/>
       <c r="G368" s="20"/>
       <c r="H368" s="20"/>
     </row>
-    <row r="369" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
       <c r="H369" s="20"/>
     </row>
-    <row r="370" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F370" s="20"/>
       <c r="G370" s="20"/>
       <c r="H370" s="20"/>
     </row>
-    <row r="371" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
       <c r="H371" s="20"/>
     </row>
-    <row r="372" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
       <c r="H372" s="20"/>
     </row>
-    <row r="373" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
       <c r="H373" s="20"/>
     </row>
-    <row r="374" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F374" s="20"/>
       <c r="G374" s="20"/>
       <c r="H374" s="20"/>
     </row>
-    <row r="375" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F375" s="20"/>
       <c r="G375" s="20"/>
       <c r="H375" s="20"/>
     </row>
-    <row r="376" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F376" s="20"/>
       <c r="G376" s="20"/>
       <c r="H376" s="20"/>
     </row>
-    <row r="377" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F377" s="20"/>
       <c r="G377" s="20"/>
       <c r="H377" s="20"/>
     </row>
-    <row r="378" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F378" s="20"/>
       <c r="G378" s="20"/>
       <c r="H378" s="20"/>
     </row>
-    <row r="379" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
       <c r="H379" s="20"/>
     </row>
-    <row r="380" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F380" s="20"/>
       <c r="G380" s="20"/>
       <c r="H380" s="20"/>
     </row>
-    <row r="381" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F381" s="20"/>
       <c r="G381" s="20"/>
       <c r="H381" s="20"/>
     </row>
-    <row r="382" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F382" s="20"/>
       <c r="G382" s="20"/>
       <c r="H382" s="20"/>
     </row>
-    <row r="383" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F383" s="20"/>
       <c r="G383" s="20"/>
       <c r="H383" s="20"/>
     </row>
-    <row r="384" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F384" s="20"/>
       <c r="G384" s="20"/>
       <c r="H384" s="20"/>
     </row>
-    <row r="385" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
       <c r="H385" s="20"/>
     </row>
-    <row r="386" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F386" s="20"/>
       <c r="G386" s="20"/>
       <c r="H386" s="20"/>
     </row>
-    <row r="387" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F387" s="20"/>
       <c r="G387" s="20"/>
       <c r="H387" s="20"/>
     </row>
-    <row r="388" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F388" s="20"/>
       <c r="G388" s="20"/>
       <c r="H388" s="20"/>
     </row>
-    <row r="389" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F389" s="20"/>
       <c r="G389" s="20"/>
       <c r="H389" s="20"/>
     </row>
-    <row r="390" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F390" s="20"/>
       <c r="G390" s="20"/>
       <c r="H390" s="20"/>
     </row>
-    <row r="391" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F391" s="20"/>
       <c r="G391" s="20"/>
       <c r="H391" s="20"/>
     </row>
-    <row r="392" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F392" s="20"/>
       <c r="G392" s="20"/>
       <c r="H392" s="20"/>
     </row>
-    <row r="393" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F393" s="20"/>
       <c r="G393" s="20"/>
       <c r="H393" s="20"/>
     </row>
-    <row r="394" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F394" s="20"/>
       <c r="G394" s="20"/>
       <c r="H394" s="20"/>
     </row>
-    <row r="395" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F395" s="20"/>
       <c r="G395" s="20"/>
       <c r="H395" s="20"/>
     </row>
-    <row r="396" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F396" s="20"/>
       <c r="G396" s="20"/>
       <c r="H396" s="20"/>
     </row>
-    <row r="397" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F397" s="20"/>
       <c r="G397" s="20"/>
       <c r="H397" s="20"/>
     </row>
-    <row r="398" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F398" s="20"/>
       <c r="G398" s="20"/>
       <c r="H398" s="20"/>
     </row>
-    <row r="399" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F399" s="20"/>
       <c r="G399" s="20"/>
       <c r="H399" s="20"/>
     </row>
-    <row r="400" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F400" s="20"/>
       <c r="G400" s="20"/>
       <c r="H400" s="20"/>
     </row>
-    <row r="401" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
       <c r="H401" s="20"/>
     </row>
-    <row r="402" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F402" s="20"/>
       <c r="G402" s="20"/>
       <c r="H402" s="20"/>
     </row>
-    <row r="403" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F403" s="20"/>
       <c r="G403" s="20"/>
       <c r="H403" s="20"/>
     </row>
-    <row r="404" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F404" s="20"/>
       <c r="G404" s="20"/>
       <c r="H404" s="20"/>
     </row>
-    <row r="405" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
       <c r="H405" s="20"/>
     </row>
-    <row r="406" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F406" s="20"/>
       <c r="G406" s="20"/>
       <c r="H406" s="20"/>
     </row>
-    <row r="407" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F407" s="20"/>
       <c r="G407" s="20"/>
       <c r="H407" s="20"/>
     </row>
-    <row r="408" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F408" s="20"/>
       <c r="G408" s="20"/>
       <c r="H408" s="20"/>
     </row>
-    <row r="409" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
       <c r="H409" s="20"/>
     </row>
-    <row r="410" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F410" s="20"/>
       <c r="G410" s="20"/>
       <c r="H410" s="20"/>
     </row>
-    <row r="411" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F411" s="20"/>
       <c r="G411" s="20"/>
       <c r="H411" s="20"/>
     </row>
-    <row r="412" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F412" s="20"/>
       <c r="G412" s="20"/>
       <c r="H412" s="20"/>
     </row>
-    <row r="413" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F413" s="20"/>
       <c r="G413" s="20"/>
       <c r="H413" s="20"/>
     </row>
-    <row r="414" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F414" s="20"/>
       <c r="G414" s="20"/>
       <c r="H414" s="20"/>
     </row>
-    <row r="415" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F415" s="20"/>
       <c r="G415" s="20"/>
       <c r="H415" s="20"/>
     </row>
-    <row r="416" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F416" s="20"/>
       <c r="G416" s="20"/>
       <c r="H416" s="20"/>
     </row>
-    <row r="417" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
       <c r="H417" s="20"/>
     </row>
-    <row r="418" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F418" s="20"/>
       <c r="G418" s="20"/>
       <c r="H418" s="20"/>
     </row>
-    <row r="419" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
       <c r="H419" s="20"/>
     </row>
-    <row r="420" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F420" s="20"/>
       <c r="G420" s="20"/>
       <c r="H420" s="20"/>
     </row>
-    <row r="421" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
       <c r="H421" s="20"/>
     </row>
-    <row r="422" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F422" s="20"/>
       <c r="G422" s="20"/>
       <c r="H422" s="20"/>
     </row>
-    <row r="423" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
       <c r="H423" s="20"/>
     </row>
-    <row r="424" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F424" s="20"/>
       <c r="G424" s="20"/>
       <c r="H424" s="20"/>
     </row>
-    <row r="425" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
       <c r="H425" s="20"/>
     </row>
-    <row r="426" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F426" s="20"/>
       <c r="G426" s="20"/>
       <c r="H426" s="20"/>
     </row>
-    <row r="427" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
       <c r="H427" s="20"/>
     </row>
-    <row r="428" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F428" s="20"/>
       <c r="G428" s="20"/>
       <c r="H428" s="20"/>
     </row>
-    <row r="429" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
       <c r="H429" s="20"/>
     </row>
-    <row r="430" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F430" s="20"/>
       <c r="G430" s="20"/>
       <c r="H430" s="20"/>
     </row>
-    <row r="431" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
       <c r="H431" s="20"/>
     </row>
-    <row r="432" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F432" s="20"/>
       <c r="G432" s="20"/>
       <c r="H432" s="20"/>
     </row>
-    <row r="433" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
       <c r="H433" s="20"/>
     </row>
-    <row r="434" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F434" s="20"/>
       <c r="G434" s="20"/>
       <c r="H434" s="20"/>
     </row>
-    <row r="435" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
       <c r="H435" s="20"/>
     </row>
-    <row r="436" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F436" s="20"/>
       <c r="G436" s="20"/>
       <c r="H436" s="20"/>
     </row>
-    <row r="437" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F437" s="20"/>
       <c r="G437" s="20"/>
       <c r="H437" s="20"/>
     </row>
-    <row r="438" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F438" s="20"/>
       <c r="G438" s="20"/>
       <c r="H438" s="20"/>
     </row>
-    <row r="439" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F439" s="20"/>
       <c r="G439" s="20"/>
       <c r="H439" s="20"/>
     </row>
-    <row r="440" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F440" s="20"/>
       <c r="G440" s="20"/>
       <c r="H440" s="20"/>
     </row>
-    <row r="441" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F441" s="20"/>
       <c r="G441" s="20"/>
       <c r="H441" s="20"/>
     </row>
-    <row r="442" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F442" s="20"/>
       <c r="G442" s="20"/>
       <c r="H442" s="20"/>
     </row>
-    <row r="443" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F443" s="20"/>
       <c r="G443" s="20"/>
       <c r="H443" s="20"/>
     </row>
-    <row r="444" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F444" s="20"/>
       <c r="G444" s="20"/>
       <c r="H444" s="20"/>
     </row>
-    <row r="445" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F445" s="20"/>
       <c r="G445" s="20"/>
       <c r="H445" s="20"/>
     </row>
-    <row r="446" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F446" s="20"/>
       <c r="G446" s="20"/>
       <c r="H446" s="20"/>
     </row>
-    <row r="447" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F447" s="20"/>
       <c r="G447" s="20"/>
       <c r="H447" s="20"/>
     </row>
-    <row r="448" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F448" s="20"/>
       <c r="G448" s="20"/>
       <c r="H448" s="20"/>
     </row>
-    <row r="449" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F449" s="20"/>
       <c r="G449" s="20"/>
       <c r="H449" s="20"/>
     </row>
-    <row r="450" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F450" s="20"/>
       <c r="G450" s="20"/>
       <c r="H450" s="20"/>
     </row>
-    <row r="451" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F451" s="20"/>
       <c r="G451" s="20"/>
       <c r="H451" s="20"/>
     </row>
-    <row r="452" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F452" s="20"/>
       <c r="G452" s="20"/>
       <c r="H452" s="20"/>
     </row>
-    <row r="453" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F453" s="20"/>
       <c r="G453" s="20"/>
       <c r="H453" s="20"/>
     </row>
-    <row r="454" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F454" s="20"/>
       <c r="G454" s="20"/>
       <c r="H454" s="20"/>
     </row>
-    <row r="455" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F455" s="20"/>
       <c r="G455" s="20"/>
       <c r="H455" s="20"/>
     </row>
-    <row r="456" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F456" s="20"/>
       <c r="G456" s="20"/>
       <c r="H456" s="20"/>
     </row>
-    <row r="457" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F457" s="20"/>
       <c r="G457" s="20"/>
       <c r="H457" s="20"/>
     </row>
-    <row r="458" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F458" s="20"/>
       <c r="G458" s="20"/>
       <c r="H458" s="20"/>
     </row>
-    <row r="459" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F459" s="20"/>
       <c r="G459" s="20"/>
       <c r="H459" s="20"/>
     </row>
-    <row r="460" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F460" s="20"/>
       <c r="G460" s="20"/>
       <c r="H460" s="20"/>
     </row>
-    <row r="461" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F461" s="20"/>
       <c r="G461" s="20"/>
       <c r="H461" s="20"/>
     </row>
-    <row r="462" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F462" s="20"/>
       <c r="G462" s="20"/>
       <c r="H462" s="20"/>
     </row>
-    <row r="463" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F463" s="20"/>
       <c r="G463" s="20"/>
       <c r="H463" s="20"/>
     </row>
-    <row r="464" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F464" s="20"/>
       <c r="G464" s="20"/>
       <c r="H464" s="20"/>
     </row>
-    <row r="465" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F465" s="20"/>
       <c r="G465" s="20"/>
       <c r="H465" s="20"/>
     </row>
-    <row r="466" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F466" s="20"/>
       <c r="G466" s="20"/>
       <c r="H466" s="20"/>
     </row>
-    <row r="467" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F467" s="20"/>
       <c r="G467" s="20"/>
       <c r="H467" s="20"/>
     </row>
-    <row r="468" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F468" s="20"/>
       <c r="G468" s="20"/>
       <c r="H468" s="20"/>
     </row>
-    <row r="469" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F469" s="20"/>
       <c r="G469" s="20"/>
       <c r="H469" s="20"/>
     </row>
-    <row r="470" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F470" s="20"/>
       <c r="G470" s="20"/>
       <c r="H470" s="20"/>
     </row>
-    <row r="471" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F471" s="20"/>
       <c r="G471" s="20"/>
       <c r="H471" s="20"/>
     </row>
-    <row r="472" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F472" s="20"/>
       <c r="G472" s="20"/>
       <c r="H472" s="20"/>
     </row>
-    <row r="473" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F473" s="20"/>
       <c r="G473" s="20"/>
       <c r="H473" s="20"/>
     </row>
-    <row r="474" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F474" s="20"/>
       <c r="G474" s="20"/>
       <c r="H474" s="20"/>
     </row>
-    <row r="475" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F475" s="20"/>
       <c r="G475" s="20"/>
       <c r="H475" s="20"/>
     </row>
-    <row r="476" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F476" s="20"/>
       <c r="G476" s="20"/>
       <c r="H476" s="20"/>
     </row>
-    <row r="477" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F477" s="20"/>
       <c r="G477" s="20"/>
       <c r="H477" s="20"/>
     </row>
-    <row r="478" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F478" s="20"/>
       <c r="G478" s="20"/>
       <c r="H478" s="20"/>
     </row>
-    <row r="479" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
       <c r="H479" s="20"/>
     </row>
-    <row r="480" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F480" s="20"/>
       <c r="G480" s="20"/>
       <c r="H480" s="20"/>
     </row>
-    <row r="481" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F481" s="20"/>
       <c r="G481" s="20"/>
       <c r="H481" s="20"/>
     </row>
-    <row r="482" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F482" s="20"/>
       <c r="G482" s="20"/>
       <c r="H482" s="20"/>
     </row>
-    <row r="483" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F483" s="20"/>
       <c r="G483" s="20"/>
       <c r="H483" s="20"/>
     </row>
-    <row r="484" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F484" s="20"/>
       <c r="G484" s="20"/>
       <c r="H484" s="20"/>
     </row>
-    <row r="485" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F485" s="20"/>
       <c r="G485" s="20"/>
       <c r="H485" s="20"/>
     </row>
-    <row r="486" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F486" s="20"/>
       <c r="G486" s="20"/>
       <c r="H486" s="20"/>
     </row>
-    <row r="487" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F487" s="20"/>
       <c r="G487" s="20"/>
       <c r="H487" s="20"/>
     </row>
-    <row r="488" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F488" s="20"/>
       <c r="G488" s="20"/>
       <c r="H488" s="20"/>
     </row>
-    <row r="489" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F489" s="20"/>
       <c r="G489" s="20"/>
       <c r="H489" s="20"/>
     </row>
-    <row r="490" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F490" s="20"/>
       <c r="G490" s="20"/>
       <c r="H490" s="20"/>
     </row>
-    <row r="491" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F491" s="20"/>
       <c r="G491" s="20"/>
       <c r="H491" s="20"/>
     </row>
-    <row r="492" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F492" s="20"/>
       <c r="G492" s="20"/>
       <c r="H492" s="20"/>
     </row>
-    <row r="493" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F493" s="20"/>
       <c r="G493" s="20"/>
       <c r="H493" s="20"/>
     </row>
-    <row r="494" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F494" s="20"/>
       <c r="G494" s="20"/>
       <c r="H494" s="20"/>
     </row>
-    <row r="495" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F495" s="20"/>
       <c r="G495" s="20"/>
       <c r="H495" s="20"/>
     </row>
-    <row r="496" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F496" s="20"/>
       <c r="G496" s="20"/>
       <c r="H496" s="20"/>
     </row>
-    <row r="497" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F497" s="20"/>
       <c r="G497" s="20"/>
       <c r="H497" s="20"/>
     </row>
-    <row r="498" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F498" s="20"/>
       <c r="G498" s="20"/>
       <c r="H498" s="20"/>
     </row>
-    <row r="499" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F499" s="20"/>
       <c r="G499" s="20"/>
       <c r="H499" s="20"/>
     </row>
-    <row r="500" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F500" s="20"/>
       <c r="G500" s="20"/>
       <c r="H500" s="20"/>
     </row>
-    <row r="501" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F501" s="20"/>
       <c r="G501" s="20"/>
       <c r="H501" s="20"/>
     </row>
-    <row r="502" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F502" s="20"/>
       <c r="G502" s="20"/>
       <c r="H502" s="20"/>
     </row>
-    <row r="503" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F503" s="20"/>
       <c r="G503" s="20"/>
       <c r="H503" s="20"/>
     </row>
-    <row r="504" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F504" s="20"/>
       <c r="G504" s="20"/>
       <c r="H504" s="20"/>
     </row>
-    <row r="505" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F505" s="20"/>
       <c r="G505" s="20"/>
       <c r="H505" s="20"/>
     </row>
-    <row r="506" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F506" s="20"/>
       <c r="G506" s="20"/>
       <c r="H506" s="20"/>
     </row>
-    <row r="507" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F507" s="20"/>
       <c r="G507" s="20"/>
       <c r="H507" s="20"/>
     </row>
-    <row r="508" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F508" s="20"/>
       <c r="G508" s="20"/>
       <c r="H508" s="20"/>
     </row>
-    <row r="509" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F509" s="20"/>
       <c r="G509" s="20"/>
       <c r="H509" s="20"/>
     </row>
-    <row r="510" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F510" s="20"/>
       <c r="G510" s="20"/>
       <c r="H510" s="20"/>
     </row>
-    <row r="511" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F511" s="20"/>
       <c r="G511" s="20"/>
       <c r="H511" s="20"/>
     </row>
-    <row r="512" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F512" s="20"/>
       <c r="G512" s="20"/>
       <c r="H512" s="20"/>
     </row>
-    <row r="513" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F513" s="20"/>
       <c r="G513" s="20"/>
       <c r="H513" s="20"/>
     </row>
-    <row r="514" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F514" s="20"/>
       <c r="G514" s="20"/>
       <c r="H514" s="20"/>
     </row>
-    <row r="515" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F515" s="20"/>
       <c r="G515" s="20"/>
       <c r="H515" s="20"/>
     </row>
-    <row r="516" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F516" s="20"/>
       <c r="G516" s="20"/>
       <c r="H516" s="20"/>
     </row>
-    <row r="517" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F517" s="20"/>
       <c r="G517" s="20"/>
       <c r="H517" s="20"/>
     </row>
-    <row r="518" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F518" s="20"/>
       <c r="G518" s="20"/>
       <c r="H518" s="20"/>
     </row>
-    <row r="519" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F519" s="20"/>
       <c r="G519" s="20"/>
       <c r="H519" s="20"/>
     </row>
-    <row r="520" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F520" s="20"/>
       <c r="G520" s="20"/>
       <c r="H520" s="20"/>
     </row>
-    <row r="521" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F521" s="20"/>
       <c r="G521" s="20"/>
       <c r="H521" s="20"/>
     </row>
-    <row r="522" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F522" s="20"/>
       <c r="G522" s="20"/>
       <c r="H522" s="20"/>
     </row>
-    <row r="523" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F523" s="20"/>
       <c r="G523" s="20"/>
       <c r="H523" s="20"/>
     </row>
-    <row r="524" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F524" s="20"/>
       <c r="G524" s="20"/>
       <c r="H524" s="20"/>
     </row>
-    <row r="525" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F525" s="20"/>
       <c r="G525" s="20"/>
       <c r="H525" s="20"/>
     </row>
-    <row r="526" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F526" s="20"/>
       <c r="G526" s="20"/>
       <c r="H526" s="20"/>
     </row>
-    <row r="527" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F527" s="20"/>
       <c r="G527" s="20"/>
       <c r="H527" s="20"/>
     </row>
-    <row r="528" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F528" s="20"/>
       <c r="G528" s="20"/>
       <c r="H528" s="20"/>
     </row>
-    <row r="529" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F529" s="20"/>
       <c r="G529" s="20"/>
       <c r="H529" s="20"/>
     </row>
-    <row r="530" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F530" s="20"/>
       <c r="G530" s="20"/>
       <c r="H530" s="20"/>
     </row>
-    <row r="531" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F531" s="20"/>
       <c r="G531" s="20"/>
       <c r="H531" s="20"/>
     </row>
-    <row r="532" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F532" s="20"/>
       <c r="G532" s="20"/>
       <c r="H532" s="20"/>
     </row>
-    <row r="533" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F533" s="20"/>
       <c r="G533" s="20"/>
       <c r="H533" s="20"/>
     </row>
-    <row r="534" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F534" s="20"/>
       <c r="G534" s="20"/>
       <c r="H534" s="20"/>
     </row>
-    <row r="535" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F535" s="20"/>
       <c r="G535" s="20"/>
       <c r="H535" s="20"/>
     </row>
-    <row r="536" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F536" s="20"/>
       <c r="G536" s="20"/>
       <c r="H536" s="20"/>
     </row>
-    <row r="537" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F537" s="20"/>
       <c r="G537" s="20"/>
       <c r="H537" s="20"/>
     </row>
-    <row r="538" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F538" s="20"/>
       <c r="G538" s="20"/>
       <c r="H538" s="20"/>
     </row>
-    <row r="539" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F539" s="20"/>
       <c r="G539" s="20"/>
       <c r="H539" s="20"/>
     </row>
-    <row r="540" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F540" s="20"/>
       <c r="G540" s="20"/>
       <c r="H540" s="20"/>
     </row>
-    <row r="541" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F541" s="20"/>
       <c r="G541" s="20"/>
       <c r="H541" s="20"/>
     </row>
-    <row r="542" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F542" s="20"/>
       <c r="G542" s="20"/>
       <c r="H542" s="20"/>
     </row>
-    <row r="543" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F543" s="20"/>
       <c r="G543" s="20"/>
       <c r="H543" s="20"/>
     </row>
-    <row r="544" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F544" s="20"/>
       <c r="G544" s="20"/>
       <c r="H544" s="20"/>
     </row>
-    <row r="545" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F545" s="20"/>
       <c r="G545" s="20"/>
       <c r="H545" s="20"/>
     </row>
-    <row r="546" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F546" s="20"/>
       <c r="G546" s="20"/>
       <c r="H546" s="20"/>
     </row>
-    <row r="547" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F547" s="20"/>
       <c r="G547" s="20"/>
       <c r="H547" s="20"/>
     </row>
-    <row r="548" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F548" s="20"/>
       <c r="G548" s="20"/>
       <c r="H548" s="20"/>
     </row>
-    <row r="549" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F549" s="20"/>
       <c r="G549" s="20"/>
       <c r="H549" s="20"/>
     </row>
-    <row r="550" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F550" s="20"/>
       <c r="G550" s="20"/>
       <c r="H550" s="20"/>
     </row>
-    <row r="551" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F551" s="20"/>
       <c r="G551" s="20"/>
       <c r="H551" s="20"/>
     </row>
-    <row r="552" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F552" s="20"/>
       <c r="G552" s="20"/>
       <c r="H552" s="20"/>
     </row>
-    <row r="553" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F553" s="20"/>
       <c r="G553" s="20"/>
       <c r="H553" s="20"/>
     </row>
-    <row r="554" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F554" s="20"/>
       <c r="G554" s="20"/>
       <c r="H554" s="20"/>
     </row>
-    <row r="555" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F555" s="20"/>
       <c r="G555" s="20"/>
       <c r="H555" s="20"/>
     </row>
-    <row r="556" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F556" s="20"/>
       <c r="G556" s="20"/>
       <c r="H556" s="20"/>
     </row>
-    <row r="557" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F557" s="20"/>
       <c r="G557" s="20"/>
       <c r="H557" s="20"/>
     </row>
-    <row r="558" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F558" s="20"/>
       <c r="G558" s="20"/>
       <c r="H558" s="20"/>
     </row>
-    <row r="559" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F559" s="20"/>
       <c r="G559" s="20"/>
       <c r="H559" s="20"/>
     </row>
-    <row r="560" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F560" s="20"/>
       <c r="G560" s="20"/>
       <c r="H560" s="20"/>
     </row>
-    <row r="561" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F561" s="20"/>
       <c r="G561" s="20"/>
       <c r="H561" s="20"/>
     </row>
-    <row r="562" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F562" s="20"/>
       <c r="G562" s="20"/>
       <c r="H562" s="20"/>
     </row>
-    <row r="563" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F563" s="20"/>
       <c r="G563" s="20"/>
       <c r="H563" s="20"/>
     </row>
-    <row r="564" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F564" s="20"/>
       <c r="G564" s="20"/>
       <c r="H564" s="20"/>
     </row>
-    <row r="565" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F565" s="20"/>
       <c r="G565" s="20"/>
       <c r="H565" s="20"/>
     </row>
-    <row r="566" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F566" s="20"/>
       <c r="G566" s="20"/>
       <c r="H566" s="20"/>
     </row>
-    <row r="567" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F567" s="20"/>
       <c r="G567" s="20"/>
       <c r="H567" s="20"/>
     </row>
-    <row r="568" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F568" s="20"/>
       <c r="G568" s="20"/>
       <c r="H568" s="20"/>
     </row>
-    <row r="569" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F569" s="20"/>
       <c r="G569" s="20"/>
       <c r="H569" s="20"/>
     </row>
-    <row r="570" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F570" s="20"/>
       <c r="G570" s="20"/>
       <c r="H570" s="20"/>
     </row>
-    <row r="571" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F571" s="20"/>
       <c r="G571" s="20"/>
       <c r="H571" s="20"/>
     </row>
-    <row r="572" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F572" s="20"/>
       <c r="G572" s="20"/>
       <c r="H572" s="20"/>
     </row>
-    <row r="573" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F573" s="20"/>
       <c r="G573" s="20"/>
       <c r="H573" s="20"/>
     </row>
-    <row r="574" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F574" s="20"/>
       <c r="G574" s="20"/>
       <c r="H574" s="20"/>
     </row>
-    <row r="575" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F575" s="20"/>
       <c r="G575" s="20"/>
       <c r="H575" s="20"/>
     </row>
-    <row r="576" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F576" s="20"/>
       <c r="G576" s="20"/>
       <c r="H576" s="20"/>
     </row>
-    <row r="577" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F577" s="20"/>
       <c r="G577" s="20"/>
       <c r="H577" s="20"/>
     </row>
-    <row r="578" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F578" s="20"/>
       <c r="G578" s="20"/>
       <c r="H578" s="20"/>
     </row>
-    <row r="579" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F579" s="20"/>
       <c r="G579" s="20"/>
       <c r="H579" s="20"/>
     </row>
-    <row r="580" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F580" s="20"/>
       <c r="G580" s="20"/>
       <c r="H580" s="20"/>
     </row>
-    <row r="581" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F581" s="20"/>
       <c r="G581" s="20"/>
       <c r="H581" s="20"/>
     </row>
-    <row r="582" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F582" s="20"/>
       <c r="G582" s="20"/>
       <c r="H582" s="20"/>
     </row>
-    <row r="583" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F583" s="20"/>
       <c r="G583" s="20"/>
       <c r="H583" s="20"/>
     </row>
-    <row r="584" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F584" s="20"/>
       <c r="G584" s="20"/>
       <c r="H584" s="20"/>
     </row>
-    <row r="585" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F585" s="20"/>
       <c r="G585" s="20"/>
       <c r="H585" s="20"/>
     </row>
-    <row r="586" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F586" s="20"/>
       <c r="G586" s="20"/>
       <c r="H586" s="20"/>
     </row>
-    <row r="587" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F587" s="20"/>
       <c r="G587" s="20"/>
       <c r="H587" s="20"/>
     </row>
-    <row r="588" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F588" s="20"/>
       <c r="G588" s="20"/>
       <c r="H588" s="20"/>
     </row>
-    <row r="589" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F589" s="20"/>
       <c r="G589" s="20"/>
       <c r="H589" s="20"/>
     </row>
-    <row r="590" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F590" s="20"/>
       <c r="G590" s="20"/>
       <c r="H590" s="20"/>
     </row>
-    <row r="591" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F591" s="20"/>
       <c r="G591" s="20"/>
       <c r="H591" s="20"/>
     </row>
-    <row r="592" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F592" s="20"/>
       <c r="G592" s="20"/>
       <c r="H592" s="20"/>
     </row>
-    <row r="593" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F593" s="20"/>
       <c r="G593" s="20"/>
       <c r="H593" s="20"/>
     </row>
-    <row r="594" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F594" s="20"/>
       <c r="G594" s="20"/>
       <c r="H594" s="20"/>
     </row>
-    <row r="595" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F595" s="20"/>
       <c r="G595" s="20"/>
       <c r="H595" s="20"/>
     </row>
-    <row r="596" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F596" s="20"/>
       <c r="G596" s="20"/>
       <c r="H596" s="20"/>
     </row>
-    <row r="597" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F597" s="20"/>
       <c r="G597" s="20"/>
       <c r="H597" s="20"/>
     </row>
-    <row r="598" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F598" s="20"/>
       <c r="G598" s="20"/>
       <c r="H598" s="20"/>
     </row>
-    <row r="599" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F599" s="20"/>
       <c r="G599" s="20"/>
       <c r="H599" s="20"/>
     </row>
-    <row r="600" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F600" s="20"/>
       <c r="G600" s="20"/>
       <c r="H600" s="20"/>
     </row>
-    <row r="601" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F601" s="20"/>
       <c r="G601" s="20"/>
       <c r="H601" s="20"/>
     </row>
-    <row r="602" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F602" s="20"/>
       <c r="G602" s="20"/>
       <c r="H602" s="20"/>
     </row>
-    <row r="603" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F603" s="20"/>
       <c r="G603" s="20"/>
       <c r="H603" s="20"/>
     </row>
-    <row r="604" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F604" s="20"/>
       <c r="G604" s="20"/>
       <c r="H604" s="20"/>
     </row>
-    <row r="605" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F605" s="20"/>
       <c r="G605" s="20"/>
       <c r="H605" s="20"/>
     </row>
-    <row r="606" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F606" s="20"/>
       <c r="G606" s="20"/>
       <c r="H606" s="20"/>
     </row>
-    <row r="607" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F607" s="20"/>
       <c r="G607" s="20"/>
       <c r="H607" s="20"/>
     </row>
-    <row r="608" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F608" s="20"/>
       <c r="G608" s="20"/>
       <c r="H608" s="20"/>
     </row>
-    <row r="609" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F609" s="20"/>
       <c r="G609" s="20"/>
       <c r="H609" s="20"/>
     </row>
-    <row r="610" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F610" s="20"/>
       <c r="G610" s="20"/>
       <c r="H610" s="20"/>
     </row>
-    <row r="611" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F611" s="20"/>
       <c r="G611" s="20"/>
       <c r="H611" s="20"/>
     </row>
-    <row r="612" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F612" s="20"/>
       <c r="G612" s="20"/>
       <c r="H612" s="20"/>
     </row>
-    <row r="613" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F613" s="20"/>
       <c r="G613" s="20"/>
       <c r="H613" s="20"/>
     </row>
-    <row r="614" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F614" s="20"/>
       <c r="G614" s="20"/>
       <c r="H614" s="20"/>
     </row>
-    <row r="615" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F615" s="20"/>
       <c r="G615" s="20"/>
       <c r="H615" s="20"/>
     </row>
-    <row r="616" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F616" s="20"/>
       <c r="G616" s="20"/>
       <c r="H616" s="20"/>
     </row>
-    <row r="617" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F617" s="20"/>
       <c r="G617" s="20"/>
       <c r="H617" s="20"/>
     </row>
-    <row r="618" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F618" s="20"/>
       <c r="G618" s="20"/>
       <c r="H618" s="20"/>
     </row>
-    <row r="619" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F619" s="20"/>
       <c r="G619" s="20"/>
       <c r="H619" s="20"/>
     </row>
-    <row r="620" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F620" s="20"/>
       <c r="G620" s="20"/>
       <c r="H620" s="20"/>
     </row>
-    <row r="621" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F621" s="20"/>
       <c r="G621" s="20"/>
       <c r="H621" s="20"/>
     </row>
-    <row r="622" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F622" s="20"/>
       <c r="G622" s="20"/>
       <c r="H622" s="20"/>
     </row>
-    <row r="623" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F623" s="20"/>
       <c r="G623" s="20"/>
       <c r="H623" s="20"/>
     </row>
-    <row r="624" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F624" s="20"/>
       <c r="G624" s="20"/>
       <c r="H624" s="20"/>
     </row>
-    <row r="625" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F625" s="20"/>
       <c r="G625" s="20"/>
       <c r="H625" s="20"/>
     </row>
-    <row r="626" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F626" s="20"/>
       <c r="G626" s="20"/>
       <c r="H626" s="20"/>
     </row>
-    <row r="627" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F627" s="20"/>
       <c r="G627" s="20"/>
       <c r="H627" s="20"/>
     </row>
-    <row r="628" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F628" s="20"/>
       <c r="G628" s="20"/>
       <c r="H628" s="20"/>
     </row>
-    <row r="629" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F629" s="20"/>
       <c r="G629" s="20"/>
       <c r="H629" s="20"/>
     </row>
-    <row r="630" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F630" s="20"/>
       <c r="G630" s="20"/>
       <c r="H630" s="20"/>
     </row>
-    <row r="631" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F631" s="20"/>
       <c r="G631" s="20"/>
       <c r="H631" s="20"/>
     </row>
-    <row r="632" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F632" s="20"/>
       <c r="G632" s="20"/>
       <c r="H632" s="20"/>
     </row>
-    <row r="633" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F633" s="20"/>
       <c r="G633" s="20"/>
       <c r="H633" s="20"/>
     </row>
-    <row r="634" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F634" s="20"/>
       <c r="G634" s="20"/>
       <c r="H634" s="20"/>
     </row>
-    <row r="635" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F635" s="20"/>
       <c r="G635" s="20"/>
       <c r="H635" s="20"/>
     </row>
-    <row r="636" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F636" s="20"/>
       <c r="G636" s="20"/>
       <c r="H636" s="20"/>
     </row>
-    <row r="637" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F637" s="20"/>
       <c r="G637" s="20"/>
       <c r="H637" s="20"/>
     </row>
-    <row r="638" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F638" s="20"/>
       <c r="G638" s="20"/>
       <c r="H638" s="20"/>
     </row>
-    <row r="639" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F639" s="20"/>
       <c r="G639" s="20"/>
       <c r="H639" s="20"/>
     </row>
-    <row r="640" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F640" s="20"/>
       <c r="G640" s="20"/>
       <c r="H640" s="20"/>
     </row>
-    <row r="641" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F641" s="20"/>
       <c r="G641" s="20"/>
       <c r="H641" s="20"/>
     </row>
-    <row r="642" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F642" s="20"/>
       <c r="G642" s="20"/>
       <c r="H642" s="20"/>
     </row>
-    <row r="643" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F643" s="20"/>
       <c r="G643" s="20"/>
       <c r="H643" s="20"/>
     </row>
-    <row r="644" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F644" s="20"/>
       <c r="G644" s="20"/>
       <c r="H644" s="20"/>
     </row>
-    <row r="645" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F645" s="20"/>
       <c r="G645" s="20"/>
       <c r="H645" s="20"/>
     </row>
-    <row r="646" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F646" s="20"/>
       <c r="G646" s="20"/>
       <c r="H646" s="20"/>
     </row>
-    <row r="647" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F647" s="20"/>
       <c r="G647" s="20"/>
       <c r="H647" s="20"/>
     </row>
-    <row r="648" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F648" s="20"/>
       <c r="G648" s="20"/>
       <c r="H648" s="20"/>
     </row>
-    <row r="649" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F649" s="20"/>
       <c r="G649" s="20"/>
       <c r="H649" s="20"/>
     </row>
-    <row r="650" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F650" s="20"/>
       <c r="G650" s="20"/>
       <c r="H650" s="20"/>
     </row>
-    <row r="651" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F651" s="20"/>
       <c r="G651" s="20"/>
       <c r="H651" s="20"/>
     </row>
-    <row r="652" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F652" s="20"/>
       <c r="G652" s="20"/>
       <c r="H652" s="20"/>
     </row>
-    <row r="653" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F653" s="20"/>
       <c r="G653" s="20"/>
       <c r="H653" s="20"/>
     </row>
-    <row r="654" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F654" s="20"/>
       <c r="G654" s="20"/>
       <c r="H654" s="20"/>
     </row>
-    <row r="655" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F655" s="20"/>
       <c r="G655" s="20"/>
       <c r="H655" s="20"/>
     </row>
-    <row r="656" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F656" s="20"/>
       <c r="G656" s="20"/>
       <c r="H656" s="20"/>
     </row>
-    <row r="657" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F657" s="20"/>
       <c r="G657" s="20"/>
       <c r="H657" s="20"/>
     </row>
-    <row r="658" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F658" s="20"/>
       <c r="G658" s="20"/>
       <c r="H658" s="20"/>
     </row>
-    <row r="659" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F659" s="20"/>
       <c r="G659" s="20"/>
       <c r="H659" s="20"/>
     </row>
-    <row r="660" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F660" s="20"/>
       <c r="G660" s="20"/>
       <c r="H660" s="20"/>
     </row>
-    <row r="661" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F661" s="20"/>
       <c r="G661" s="20"/>
       <c r="H661" s="20"/>
     </row>
-    <row r="662" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F662" s="20"/>
       <c r="G662" s="20"/>
       <c r="H662" s="20"/>
     </row>
-    <row r="663" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F663" s="20"/>
       <c r="G663" s="20"/>
       <c r="H663" s="20"/>
     </row>
-    <row r="664" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F664" s="20"/>
       <c r="G664" s="20"/>
       <c r="H664" s="20"/>
     </row>
-    <row r="665" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F665" s="20"/>
       <c r="G665" s="20"/>
       <c r="H665" s="20"/>
     </row>
-    <row r="666" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F666" s="20"/>
       <c r="G666" s="20"/>
       <c r="H666" s="20"/>
     </row>
-    <row r="667" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F667" s="20"/>
       <c r="G667" s="20"/>
       <c r="H667" s="20"/>
     </row>
-    <row r="668" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F668" s="20"/>
       <c r="G668" s="20"/>
       <c r="H668" s="20"/>
     </row>
-    <row r="669" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F669" s="20"/>
       <c r="G669" s="20"/>
       <c r="H669" s="20"/>
     </row>
-    <row r="670" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F670" s="20"/>
       <c r="G670" s="20"/>
       <c r="H670" s="20"/>
     </row>
-    <row r="671" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F671" s="20"/>
       <c r="G671" s="20"/>
       <c r="H671" s="20"/>
     </row>
-    <row r="672" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F672" s="20"/>
       <c r="G672" s="20"/>
       <c r="H672" s="20"/>
     </row>
-    <row r="673" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F673" s="20"/>
       <c r="G673" s="20"/>
       <c r="H673" s="20"/>
     </row>
-    <row r="674" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F674" s="20"/>
       <c r="G674" s="20"/>
       <c r="H674" s="20"/>
     </row>
-    <row r="675" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F675" s="20"/>
       <c r="G675" s="20"/>
       <c r="H675" s="20"/>
     </row>
-    <row r="676" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F676" s="20"/>
       <c r="G676" s="20"/>
       <c r="H676" s="20"/>
     </row>
-    <row r="677" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F677" s="20"/>
       <c r="G677" s="20"/>
       <c r="H677" s="20"/>
     </row>
-    <row r="678" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F678" s="20"/>
       <c r="G678" s="20"/>
       <c r="H678" s="20"/>
     </row>
-    <row r="679" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F679" s="20"/>
       <c r="G679" s="20"/>
       <c r="H679" s="20"/>
     </row>
-    <row r="680" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F680" s="20"/>
       <c r="G680" s="20"/>
       <c r="H680" s="20"/>
     </row>
-    <row r="681" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F681" s="20"/>
       <c r="G681" s="20"/>
       <c r="H681" s="20"/>
     </row>
-    <row r="682" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F682" s="20"/>
       <c r="G682" s="20"/>
       <c r="H682" s="20"/>
     </row>
-    <row r="683" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F683" s="20"/>
       <c r="G683" s="20"/>
       <c r="H683" s="20"/>
     </row>
-    <row r="684" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F684" s="20"/>
       <c r="G684" s="20"/>
       <c r="H684" s="20"/>
     </row>
-    <row r="685" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F685" s="20"/>
       <c r="G685" s="20"/>
       <c r="H685" s="20"/>
     </row>
-    <row r="686" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F686" s="20"/>
       <c r="G686" s="20"/>
       <c r="H686" s="20"/>
     </row>
-    <row r="687" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F687" s="20"/>
       <c r="G687" s="20"/>
       <c r="H687" s="20"/>
     </row>
-    <row r="688" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F688" s="20"/>
       <c r="G688" s="20"/>
       <c r="H688" s="20"/>
     </row>
-    <row r="689" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F689" s="20"/>
       <c r="G689" s="20"/>
       <c r="H689" s="20"/>
     </row>
-    <row r="690" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F690" s="20"/>
       <c r="G690" s="20"/>
       <c r="H690" s="20"/>
     </row>
-    <row r="691" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F691" s="20"/>
       <c r="G691" s="20"/>
       <c r="H691" s="20"/>
     </row>
-    <row r="692" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F692" s="20"/>
       <c r="G692" s="20"/>
       <c r="H692" s="20"/>
     </row>
-    <row r="693" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F693" s="20"/>
       <c r="G693" s="20"/>
       <c r="H693" s="20"/>
     </row>
-    <row r="694" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F694" s="20"/>
       <c r="G694" s="20"/>
       <c r="H694" s="20"/>
     </row>
-    <row r="695" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F695" s="20"/>
       <c r="G695" s="20"/>
       <c r="H695" s="20"/>
     </row>
-    <row r="696" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F696" s="20"/>
       <c r="G696" s="20"/>
       <c r="H696" s="20"/>
     </row>
-    <row r="697" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F697" s="20"/>
       <c r="G697" s="20"/>
       <c r="H697" s="20"/>
     </row>
-    <row r="698" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F698" s="20"/>
       <c r="G698" s="20"/>
       <c r="H698" s="20"/>
     </row>
-    <row r="699" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F699" s="20"/>
       <c r="G699" s="20"/>
       <c r="H699" s="20"/>
     </row>
-    <row r="700" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F700" s="20"/>
       <c r="G700" s="20"/>
       <c r="H700" s="20"/>
     </row>
-    <row r="701" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F701" s="20"/>
       <c r="G701" s="20"/>
       <c r="H701" s="20"/>
     </row>
-    <row r="702" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F702" s="20"/>
       <c r="G702" s="20"/>
       <c r="H702" s="20"/>
     </row>
-    <row r="703" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F703" s="20"/>
       <c r="G703" s="20"/>
       <c r="H703" s="20"/>
     </row>
-    <row r="704" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F704" s="20"/>
       <c r="G704" s="20"/>
       <c r="H704" s="20"/>
     </row>
-    <row r="705" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F705" s="20"/>
       <c r="G705" s="20"/>
       <c r="H705" s="20"/>
     </row>
-    <row r="706" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F706" s="20"/>
       <c r="G706" s="20"/>
       <c r="H706" s="20"/>
     </row>
-    <row r="707" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F707" s="20"/>
       <c r="G707" s="20"/>
       <c r="H707" s="20"/>
     </row>
-    <row r="708" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F708" s="20"/>
       <c r="G708" s="20"/>
       <c r="H708" s="20"/>
     </row>
-    <row r="709" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F709" s="20"/>
       <c r="G709" s="20"/>
       <c r="H709" s="20"/>
     </row>
-    <row r="710" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F710" s="20"/>
       <c r="G710" s="20"/>
       <c r="H710" s="20"/>
     </row>
-    <row r="711" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F711" s="20"/>
       <c r="G711" s="20"/>
       <c r="H711" s="20"/>
     </row>
-    <row r="712" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F712" s="20"/>
       <c r="G712" s="20"/>
       <c r="H712" s="20"/>
     </row>
-    <row r="713" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F713" s="20"/>
       <c r="G713" s="20"/>
       <c r="H713" s="20"/>
     </row>
-    <row r="714" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F714" s="20"/>
       <c r="G714" s="20"/>
       <c r="H714" s="20"/>
     </row>
-    <row r="715" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F715" s="20"/>
       <c r="G715" s="20"/>
       <c r="H715" s="20"/>
     </row>
-    <row r="716" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F716" s="20"/>
       <c r="G716" s="20"/>
       <c r="H716" s="20"/>
     </row>
-    <row r="717" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F717" s="20"/>
       <c r="G717" s="20"/>
       <c r="H717" s="20"/>
     </row>
-    <row r="718" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F718" s="20"/>
       <c r="G718" s="20"/>
       <c r="H718" s="20"/>
     </row>
-    <row r="719" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F719" s="20"/>
       <c r="G719" s="20"/>
       <c r="H719" s="20"/>
     </row>
-    <row r="720" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F720" s="20"/>
       <c r="G720" s="20"/>
       <c r="H720" s="20"/>
     </row>
-    <row r="721" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F721" s="20"/>
       <c r="G721" s="20"/>
       <c r="H721" s="20"/>
     </row>
-    <row r="722" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F722" s="20"/>
       <c r="G722" s="20"/>
       <c r="H722" s="20"/>
     </row>
-    <row r="723" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F723" s="20"/>
       <c r="G723" s="20"/>
       <c r="H723" s="20"/>
     </row>
-    <row r="724" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F724" s="20"/>
       <c r="G724" s="20"/>
       <c r="H724" s="20"/>
     </row>
-    <row r="725" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F725" s="20"/>
       <c r="G725" s="20"/>
       <c r="H725" s="20"/>
     </row>
-    <row r="726" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F726" s="20"/>
       <c r="G726" s="20"/>
       <c r="H726" s="20"/>
     </row>
-    <row r="727" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F727" s="20"/>
       <c r="G727" s="20"/>
       <c r="H727" s="20"/>
     </row>
-    <row r="728" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F728" s="20"/>
       <c r="G728" s="20"/>
       <c r="H728" s="20"/>
     </row>
-    <row r="729" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F729" s="20"/>
       <c r="G729" s="20"/>
       <c r="H729" s="20"/>
     </row>
-    <row r="730" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F730" s="20"/>
       <c r="G730" s="20"/>
       <c r="H730" s="20"/>
     </row>
-    <row r="731" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F731" s="20"/>
       <c r="G731" s="20"/>
       <c r="H731" s="20"/>
     </row>
-    <row r="732" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F732" s="20"/>
       <c r="G732" s="20"/>
       <c r="H732" s="20"/>
     </row>
-    <row r="733" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F733" s="20"/>
       <c r="G733" s="20"/>
       <c r="H733" s="20"/>
     </row>
-    <row r="734" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F734" s="20"/>
       <c r="G734" s="20"/>
       <c r="H734" s="20"/>
     </row>
-    <row r="735" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F735" s="20"/>
       <c r="G735" s="20"/>
       <c r="H735" s="20"/>
     </row>
-    <row r="736" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F736" s="20"/>
       <c r="G736" s="20"/>
       <c r="H736" s="20"/>
     </row>
-    <row r="737" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F737" s="20"/>
       <c r="G737" s="20"/>
       <c r="H737" s="20"/>
     </row>
-    <row r="738" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F738" s="20"/>
       <c r="G738" s="20"/>
       <c r="H738" s="20"/>
     </row>
-    <row r="739" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F739" s="20"/>
       <c r="G739" s="20"/>
       <c r="H739" s="20"/>
     </row>
-    <row r="740" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F740" s="20"/>
       <c r="G740" s="20"/>
       <c r="H740" s="20"/>
     </row>
-    <row r="741" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F741" s="20"/>
       <c r="G741" s="20"/>
       <c r="H741" s="20"/>
     </row>
-    <row r="742" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F742" s="20"/>
       <c r="G742" s="20"/>
       <c r="H742" s="20"/>
     </row>
-    <row r="743" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F743" s="20"/>
       <c r="G743" s="20"/>
       <c r="H743" s="20"/>
     </row>
-    <row r="744" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F744" s="20"/>
       <c r="G744" s="20"/>
       <c r="H744" s="20"/>
     </row>
-    <row r="745" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F745" s="20"/>
       <c r="G745" s="20"/>
       <c r="H745" s="20"/>
     </row>
-    <row r="746" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F746" s="20"/>
       <c r="G746" s="20"/>
       <c r="H746" s="20"/>
     </row>
-    <row r="747" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F747" s="20"/>
       <c r="G747" s="20"/>
       <c r="H747" s="20"/>
     </row>
-    <row r="748" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F748" s="20"/>
       <c r="G748" s="20"/>
       <c r="H748" s="20"/>
     </row>
-    <row r="749" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F749" s="20"/>
       <c r="G749" s="20"/>
       <c r="H749" s="20"/>
     </row>
-    <row r="750" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F750" s="20"/>
       <c r="G750" s="20"/>
       <c r="H750" s="20"/>
     </row>
-    <row r="751" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F751" s="20"/>
       <c r="G751" s="20"/>
       <c r="H751" s="20"/>
     </row>
-    <row r="752" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F752" s="20"/>
       <c r="G752" s="20"/>
       <c r="H752" s="20"/>
     </row>
-    <row r="753" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F753" s="20"/>
       <c r="G753" s="20"/>
       <c r="H753" s="20"/>
     </row>
-    <row r="754" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F754" s="20"/>
       <c r="G754" s="20"/>
       <c r="H754" s="20"/>
     </row>
-    <row r="755" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F755" s="20"/>
       <c r="G755" s="20"/>
       <c r="H755" s="20"/>
     </row>
-    <row r="756" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F756" s="20"/>
       <c r="G756" s="20"/>
       <c r="H756" s="20"/>
     </row>
-    <row r="757" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F757" s="20"/>
       <c r="G757" s="20"/>
       <c r="H757" s="20"/>
     </row>
-    <row r="758" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F758" s="20"/>
       <c r="G758" s="20"/>
       <c r="H758" s="20"/>
     </row>
-    <row r="759" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F759" s="20"/>
       <c r="G759" s="20"/>
       <c r="H759" s="20"/>
     </row>
-    <row r="760" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F760" s="20"/>
       <c r="G760" s="20"/>
       <c r="H760" s="20"/>
     </row>
-    <row r="761" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F761" s="20"/>
       <c r="G761" s="20"/>
       <c r="H761" s="20"/>
     </row>
-    <row r="762" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F762" s="20"/>
       <c r="G762" s="20"/>
       <c r="H762" s="20"/>
     </row>
-    <row r="763" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F763" s="20"/>
       <c r="G763" s="20"/>
       <c r="H763" s="20"/>
     </row>
-    <row r="764" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F764" s="20"/>
       <c r="G764" s="20"/>
       <c r="H764" s="20"/>
     </row>
-    <row r="765" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F765" s="20"/>
       <c r="G765" s="20"/>
       <c r="H765" s="20"/>
     </row>
-    <row r="766" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F766" s="20"/>
       <c r="G766" s="20"/>
       <c r="H766" s="20"/>
     </row>
-    <row r="767" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F767" s="20"/>
       <c r="G767" s="20"/>
       <c r="H767" s="20"/>
     </row>
-    <row r="768" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F768" s="20"/>
       <c r="G768" s="20"/>
       <c r="H768" s="20"/>
     </row>
-    <row r="769" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F769" s="20"/>
       <c r="G769" s="20"/>
       <c r="H769" s="20"/>
     </row>
-    <row r="770" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F770" s="20"/>
       <c r="G770" s="20"/>
       <c r="H770" s="20"/>
     </row>
-    <row r="771" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F771" s="20"/>
       <c r="G771" s="20"/>
       <c r="H771" s="20"/>
     </row>
-    <row r="772" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F772" s="20"/>
       <c r="G772" s="20"/>
       <c r="H772" s="20"/>
     </row>
-    <row r="773" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F773" s="20"/>
       <c r="G773" s="20"/>
       <c r="H773" s="20"/>
     </row>
-    <row r="774" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F774" s="20"/>
       <c r="G774" s="20"/>
       <c r="H774" s="20"/>
     </row>
-    <row r="775" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F775" s="20"/>
       <c r="G775" s="20"/>
       <c r="H775" s="20"/>
     </row>
-    <row r="776" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F776" s="20"/>
       <c r="G776" s="20"/>
       <c r="H776" s="20"/>
     </row>
-    <row r="777" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F777" s="20"/>
       <c r="G777" s="20"/>
       <c r="H777" s="20"/>
     </row>
-    <row r="778" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F778" s="20"/>
       <c r="G778" s="20"/>
       <c r="H778" s="20"/>
     </row>
-    <row r="779" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F779" s="20"/>
       <c r="G779" s="20"/>
       <c r="H779" s="20"/>
     </row>
-    <row r="780" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F780" s="20"/>
       <c r="G780" s="20"/>
       <c r="H780" s="20"/>
     </row>
-    <row r="781" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F781" s="20"/>
       <c r="G781" s="20"/>
       <c r="H781" s="20"/>
     </row>
-    <row r="782" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F782" s="20"/>
       <c r="G782" s="20"/>
       <c r="H782" s="20"/>
     </row>
-    <row r="783" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F783" s="20"/>
       <c r="G783" s="20"/>
       <c r="H783" s="20"/>
     </row>
-    <row r="784" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F784" s="20"/>
       <c r="G784" s="20"/>
       <c r="H784" s="20"/>
     </row>
-    <row r="785" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F785" s="20"/>
       <c r="G785" s="20"/>
       <c r="H785" s="20"/>
     </row>
-    <row r="786" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F786" s="20"/>
       <c r="G786" s="20"/>
       <c r="H786" s="20"/>
     </row>
-    <row r="787" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F787" s="20"/>
       <c r="G787" s="20"/>
       <c r="H787" s="20"/>
     </row>
-    <row r="788" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F788" s="20"/>
       <c r="G788" s="20"/>
       <c r="H788" s="20"/>
     </row>
-    <row r="789" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F789" s="20"/>
       <c r="G789" s="20"/>
       <c r="H789" s="20"/>
     </row>
-    <row r="790" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F790" s="20"/>
       <c r="G790" s="20"/>
       <c r="H790" s="20"/>
     </row>
-    <row r="791" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F791" s="20"/>
       <c r="G791" s="20"/>
       <c r="H791" s="20"/>
     </row>
-    <row r="792" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F792" s="20"/>
       <c r="G792" s="20"/>
       <c r="H792" s="20"/>
     </row>
-    <row r="793" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F793" s="20"/>
       <c r="G793" s="20"/>
       <c r="H793" s="20"/>
     </row>
-    <row r="794" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F794" s="20"/>
       <c r="G794" s="20"/>
       <c r="H794" s="20"/>
     </row>
-    <row r="795" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F795" s="20"/>
       <c r="G795" s="20"/>
       <c r="H795" s="20"/>
     </row>
-    <row r="796" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F796" s="20"/>
       <c r="G796" s="20"/>
       <c r="H796" s="20"/>
     </row>
-    <row r="797" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F797" s="20"/>
       <c r="G797" s="20"/>
       <c r="H797" s="20"/>
     </row>
-    <row r="798" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F798" s="20"/>
       <c r="G798" s="20"/>
       <c r="H798" s="20"/>
     </row>
-    <row r="799" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F799" s="20"/>
       <c r="G799" s="20"/>
       <c r="H799" s="20"/>
     </row>
-    <row r="800" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F800" s="20"/>
       <c r="G800" s="20"/>
       <c r="H800" s="20"/>
     </row>
-    <row r="801" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F801" s="20"/>
       <c r="G801" s="20"/>
       <c r="H801" s="20"/>
     </row>
-    <row r="802" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F802" s="20"/>
       <c r="G802" s="20"/>
       <c r="H802" s="20"/>
     </row>
-    <row r="803" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F803" s="20"/>
       <c r="G803" s="20"/>
       <c r="H803" s="20"/>
     </row>
-    <row r="804" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F804" s="20"/>
       <c r="G804" s="20"/>
       <c r="H804" s="20"/>
     </row>
-    <row r="805" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F805" s="20"/>
       <c r="G805" s="20"/>
       <c r="H805" s="20"/>
     </row>
-    <row r="806" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F806" s="20"/>
       <c r="G806" s="20"/>
       <c r="H806" s="20"/>
     </row>
-    <row r="807" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F807" s="20"/>
       <c r="G807" s="20"/>
       <c r="H807" s="20"/>
     </row>
-    <row r="808" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F808" s="20"/>
       <c r="G808" s="20"/>
       <c r="H808" s="20"/>
     </row>
-    <row r="809" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F809" s="20"/>
       <c r="G809" s="20"/>
       <c r="H809" s="20"/>
     </row>
-    <row r="810" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F810" s="20"/>
       <c r="G810" s="20"/>
       <c r="H810" s="20"/>
     </row>
-    <row r="811" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F811" s="20"/>
       <c r="G811" s="20"/>
       <c r="H811" s="20"/>
     </row>
-    <row r="812" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F812" s="20"/>
       <c r="G812" s="20"/>
       <c r="H812" s="20"/>
     </row>
-    <row r="813" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F813" s="20"/>
       <c r="G813" s="20"/>
       <c r="H813" s="20"/>
     </row>
-    <row r="814" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F814" s="20"/>
       <c r="G814" s="20"/>
       <c r="H814" s="20"/>
     </row>
-    <row r="815" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F815" s="20"/>
       <c r="G815" s="20"/>
       <c r="H815" s="20"/>
     </row>
-    <row r="816" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F816" s="20"/>
       <c r="G816" s="20"/>
       <c r="H816" s="20"/>
     </row>
-    <row r="817" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F817" s="20"/>
       <c r="G817" s="20"/>
       <c r="H817" s="20"/>
     </row>
-    <row r="818" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F818" s="20"/>
       <c r="G818" s="20"/>
       <c r="H818" s="20"/>
     </row>
-    <row r="819" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F819" s="20"/>
       <c r="G819" s="20"/>
       <c r="H819" s="20"/>
     </row>
-    <row r="820" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F820" s="20"/>
       <c r="G820" s="20"/>
       <c r="H820" s="20"/>
     </row>
-    <row r="821" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F821" s="20"/>
       <c r="G821" s="20"/>
       <c r="H821" s="20"/>
     </row>
-    <row r="822" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F822" s="20"/>
       <c r="G822" s="20"/>
       <c r="H822" s="20"/>
     </row>
-    <row r="823" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F823" s="20"/>
       <c r="G823" s="20"/>
       <c r="H823" s="20"/>
     </row>
-    <row r="824" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F824" s="20"/>
       <c r="G824" s="20"/>
       <c r="H824" s="20"/>
     </row>
-    <row r="825" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F825" s="20"/>
       <c r="G825" s="20"/>
       <c r="H825" s="20"/>
     </row>
-    <row r="826" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F826" s="20"/>
       <c r="G826" s="20"/>
       <c r="H826" s="20"/>
     </row>
-    <row r="827" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F827" s="20"/>
       <c r="G827" s="20"/>
       <c r="H827" s="20"/>
     </row>
-    <row r="828" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F828" s="20"/>
       <c r="G828" s="20"/>
       <c r="H828" s="20"/>
     </row>
-    <row r="829" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F829" s="20"/>
       <c r="G829" s="20"/>
       <c r="H829" s="20"/>
     </row>
-    <row r="830" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F830" s="20"/>
       <c r="G830" s="20"/>
       <c r="H830" s="20"/>
     </row>
-    <row r="831" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F831" s="20"/>
       <c r="G831" s="20"/>
       <c r="H831" s="20"/>
     </row>
-    <row r="832" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F832" s="20"/>
       <c r="G832" s="20"/>
       <c r="H832" s="20"/>
     </row>
-    <row r="833" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F833" s="20"/>
       <c r="G833" s="20"/>
       <c r="H833" s="20"/>
     </row>
-    <row r="834" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F834" s="20"/>
       <c r="G834" s="20"/>
       <c r="H834" s="20"/>
     </row>
-    <row r="835" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F835" s="20"/>
       <c r="G835" s="20"/>
       <c r="H835" s="20"/>
     </row>
-    <row r="836" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F836" s="20"/>
       <c r="G836" s="20"/>
       <c r="H836" s="20"/>
     </row>
-    <row r="837" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F837" s="20"/>
       <c r="G837" s="20"/>
       <c r="H837" s="20"/>
     </row>
-    <row r="838" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F838" s="20"/>
       <c r="G838" s="20"/>
       <c r="H838" s="20"/>
     </row>
-    <row r="839" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F839" s="20"/>
       <c r="G839" s="20"/>
       <c r="H839" s="20"/>
     </row>
-    <row r="840" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F840" s="20"/>
       <c r="G840" s="20"/>
       <c r="H840" s="20"/>
     </row>
-    <row r="841" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F841" s="20"/>
       <c r="G841" s="20"/>
       <c r="H841" s="20"/>
     </row>
-    <row r="842" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F842" s="20"/>
       <c r="G842" s="20"/>
       <c r="H842" s="20"/>
     </row>
-    <row r="843" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F843" s="20"/>
       <c r="G843" s="20"/>
       <c r="H843" s="20"/>
     </row>
-    <row r="844" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F844" s="20"/>
       <c r="G844" s="20"/>
       <c r="H844" s="20"/>
     </row>
-    <row r="845" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F845" s="20"/>
       <c r="G845" s="20"/>
       <c r="H845" s="20"/>
     </row>
-    <row r="846" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F846" s="20"/>
       <c r="G846" s="20"/>
       <c r="H846" s="20"/>
     </row>
-    <row r="847" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F847" s="20"/>
       <c r="G847" s="20"/>
       <c r="H847" s="20"/>
     </row>
-    <row r="848" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F848" s="20"/>
       <c r="G848" s="20"/>
       <c r="H848" s="20"/>
     </row>
-    <row r="849" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F849" s="20"/>
       <c r="G849" s="20"/>
       <c r="H849" s="20"/>
     </row>
-    <row r="850" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F850" s="20"/>
       <c r="G850" s="20"/>
       <c r="H850" s="20"/>
     </row>
-    <row r="851" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F851" s="20"/>
       <c r="G851" s="20"/>
       <c r="H851" s="20"/>
     </row>
-    <row r="852" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F852" s="20"/>
       <c r="G852" s="20"/>
       <c r="H852" s="20"/>
     </row>
-    <row r="853" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F853" s="20"/>
       <c r="G853" s="20"/>
       <c r="H853" s="20"/>
     </row>
-    <row r="854" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F854" s="20"/>
       <c r="G854" s="20"/>
       <c r="H854" s="20"/>
     </row>
-    <row r="855" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F855" s="20"/>
       <c r="G855" s="20"/>
       <c r="H855" s="20"/>
     </row>
-    <row r="856" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F856" s="20"/>
       <c r="G856" s="20"/>
       <c r="H856" s="20"/>
     </row>
-    <row r="857" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F857" s="20"/>
       <c r="G857" s="20"/>
       <c r="H857" s="20"/>
     </row>
-    <row r="858" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F858" s="20"/>
       <c r="G858" s="20"/>
       <c r="H858" s="20"/>
     </row>
-    <row r="859" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F859" s="20"/>
       <c r="G859" s="20"/>
       <c r="H859" s="20"/>
     </row>
-    <row r="860" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F860" s="20"/>
       <c r="G860" s="20"/>
       <c r="H860" s="20"/>
     </row>
-    <row r="861" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F861" s="20"/>
       <c r="G861" s="20"/>
       <c r="H861" s="20"/>
     </row>
-    <row r="862" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F862" s="20"/>
       <c r="G862" s="20"/>
       <c r="H862" s="20"/>
     </row>
-    <row r="863" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F863" s="20"/>
       <c r="G863" s="20"/>
       <c r="H863" s="20"/>
     </row>
-    <row r="864" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F864" s="20"/>
       <c r="G864" s="20"/>
       <c r="H864" s="20"/>
     </row>
-    <row r="865" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F865" s="20"/>
       <c r="G865" s="20"/>
       <c r="H865" s="20"/>
     </row>
-    <row r="866" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F866" s="20"/>
       <c r="G866" s="20"/>
       <c r="H866" s="20"/>
     </row>
-    <row r="867" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F867" s="20"/>
       <c r="G867" s="20"/>
       <c r="H867" s="20"/>
     </row>
-    <row r="868" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F868" s="20"/>
       <c r="G868" s="20"/>
       <c r="H868" s="20"/>
     </row>
-    <row r="869" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F869" s="20"/>
       <c r="G869" s="20"/>
       <c r="H869" s="20"/>
     </row>
-    <row r="870" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F870" s="20"/>
       <c r="G870" s="20"/>
       <c r="H870" s="20"/>
     </row>
-    <row r="871" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F871" s="20"/>
       <c r="G871" s="20"/>
       <c r="H871" s="20"/>
     </row>
-    <row r="872" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F872" s="20"/>
       <c r="G872" s="20"/>
       <c r="H872" s="20"/>
     </row>
-    <row r="873" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F873" s="20"/>
       <c r="G873" s="20"/>
       <c r="H873" s="20"/>
     </row>
-    <row r="874" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F874" s="20"/>
       <c r="G874" s="20"/>
       <c r="H874" s="20"/>
     </row>
-    <row r="875" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F875" s="20"/>
       <c r="G875" s="20"/>
       <c r="H875" s="20"/>
     </row>
-    <row r="876" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F876" s="20"/>
       <c r="G876" s="20"/>
       <c r="H876" s="20"/>
     </row>
-    <row r="877" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F877" s="20"/>
       <c r="G877" s="20"/>
       <c r="H877" s="20"/>
     </row>
-    <row r="878" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F878" s="20"/>
       <c r="G878" s="20"/>
       <c r="H878" s="20"/>
     </row>
-    <row r="879" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F879" s="20"/>
       <c r="G879" s="20"/>
       <c r="H879" s="20"/>
     </row>
-    <row r="880" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F880" s="20"/>
       <c r="G880" s="20"/>
       <c r="H880" s="20"/>
     </row>
-    <row r="881" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F881" s="20"/>
       <c r="G881" s="20"/>
       <c r="H881" s="20"/>
     </row>
-    <row r="882" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F882" s="20"/>
       <c r="G882" s="20"/>
       <c r="H882" s="20"/>
     </row>
-    <row r="883" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F883" s="20"/>
       <c r="G883" s="20"/>
       <c r="H883" s="20"/>
     </row>
-    <row r="884" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F884" s="20"/>
       <c r="G884" s="20"/>
       <c r="H884" s="20"/>
     </row>
-    <row r="885" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F885" s="20"/>
       <c r="G885" s="20"/>
       <c r="H885" s="20"/>
     </row>
-    <row r="886" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F886" s="20"/>
       <c r="G886" s="20"/>
       <c r="H886" s="20"/>
     </row>
-    <row r="887" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F887" s="20"/>
       <c r="G887" s="20"/>
       <c r="H887" s="20"/>
     </row>
-    <row r="888" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F888" s="20"/>
       <c r="G888" s="20"/>
       <c r="H888" s="20"/>
     </row>
-    <row r="889" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F889" s="20"/>
       <c r="G889" s="20"/>
       <c r="H889" s="20"/>
     </row>
-    <row r="890" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F890" s="20"/>
       <c r="G890" s="20"/>
       <c r="H890" s="20"/>
     </row>
-    <row r="891" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F891" s="20"/>
       <c r="G891" s="20"/>
       <c r="H891" s="20"/>
     </row>
-    <row r="892" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F892" s="20"/>
       <c r="G892" s="20"/>
       <c r="H892" s="20"/>
     </row>
-    <row r="893" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F893" s="20"/>
       <c r="G893" s="20"/>
       <c r="H893" s="20"/>
     </row>
-    <row r="894" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F894" s="20"/>
       <c r="G894" s="20"/>
       <c r="H894" s="20"/>
     </row>
-    <row r="895" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F895" s="20"/>
       <c r="G895" s="20"/>
       <c r="H895" s="20"/>
     </row>
-    <row r="896" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F896" s="20"/>
       <c r="G896" s="20"/>
       <c r="H896" s="20"/>
     </row>
-    <row r="897" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F897" s="20"/>
       <c r="G897" s="20"/>
       <c r="H897" s="20"/>
     </row>
-    <row r="898" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F898" s="20"/>
       <c r="G898" s="20"/>
       <c r="H898" s="20"/>
     </row>
-    <row r="899" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F899" s="20"/>
       <c r="G899" s="20"/>
       <c r="H899" s="20"/>
     </row>
-    <row r="900" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F900" s="20"/>
       <c r="G900" s="20"/>
       <c r="H900" s="20"/>
     </row>
-    <row r="901" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F901" s="20"/>
       <c r="G901" s="20"/>
       <c r="H901" s="20"/>
     </row>
-    <row r="902" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F902" s="20"/>
       <c r="G902" s="20"/>
       <c r="H902" s="20"/>
     </row>
-    <row r="903" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F903" s="20"/>
       <c r="G903" s="20"/>
       <c r="H903" s="20"/>
     </row>
-    <row r="904" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F904" s="20"/>
       <c r="G904" s="20"/>
       <c r="H904" s="20"/>
     </row>
-    <row r="905" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F905" s="20"/>
       <c r="G905" s="20"/>
       <c r="H905" s="20"/>
     </row>
-    <row r="906" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F906" s="20"/>
       <c r="G906" s="20"/>
       <c r="H906" s="20"/>
     </row>
-    <row r="907" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F907" s="20"/>
       <c r="G907" s="20"/>
       <c r="H907" s="20"/>
     </row>
-    <row r="908" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F908" s="20"/>
       <c r="G908" s="20"/>
       <c r="H908" s="20"/>
     </row>
-    <row r="909" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F909" s="20"/>
       <c r="G909" s="20"/>
       <c r="H909" s="20"/>
     </row>
-    <row r="910" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F910" s="20"/>
       <c r="G910" s="20"/>
       <c r="H910" s="20"/>
     </row>
-    <row r="911" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F911" s="20"/>
       <c r="G911" s="20"/>
       <c r="H911" s="20"/>
     </row>
-    <row r="912" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F912" s="20"/>
       <c r="G912" s="20"/>
       <c r="H912" s="20"/>
     </row>
-    <row r="913" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F913" s="20"/>
       <c r="G913" s="20"/>
       <c r="H913" s="20"/>
     </row>
-    <row r="914" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F914" s="20"/>
       <c r="G914" s="20"/>
       <c r="H914" s="20"/>
     </row>
-    <row r="915" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F915" s="20"/>
       <c r="G915" s="20"/>
       <c r="H915" s="20"/>
     </row>
-    <row r="916" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F916" s="20"/>
       <c r="G916" s="20"/>
       <c r="H916" s="20"/>
     </row>
-    <row r="917" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F917" s="20"/>
       <c r="G917" s="20"/>
       <c r="H917" s="20"/>
     </row>
-    <row r="918" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F918" s="20"/>
       <c r="G918" s="20"/>
       <c r="H918" s="20"/>
     </row>
-    <row r="919" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F919" s="20"/>
       <c r="G919" s="20"/>
       <c r="H919" s="20"/>
     </row>
-    <row r="920" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F920" s="20"/>
       <c r="G920" s="20"/>
       <c r="H920" s="20"/>
     </row>
-    <row r="921" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F921" s="20"/>
       <c r="G921" s="20"/>
       <c r="H921" s="20"/>
     </row>
-    <row r="922" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F922" s="20"/>
       <c r="G922" s="20"/>
       <c r="H922" s="20"/>
     </row>
-    <row r="923" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F923" s="20"/>
       <c r="G923" s="20"/>
       <c r="H923" s="20"/>
     </row>
-    <row r="924" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F924" s="20"/>
       <c r="G924" s="20"/>
       <c r="H924" s="20"/>
     </row>
-    <row r="925" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F925" s="20"/>
       <c r="G925" s="20"/>
       <c r="H925" s="20"/>
     </row>
-    <row r="926" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F926" s="20"/>
       <c r="G926" s="20"/>
       <c r="H926" s="20"/>
     </row>
-    <row r="927" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F927" s="20"/>
       <c r="G927" s="20"/>
       <c r="H927" s="20"/>
     </row>
-    <row r="928" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F928" s="20"/>
       <c r="G928" s="20"/>
       <c r="H928" s="20"/>
     </row>
-    <row r="929" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F929" s="20"/>
       <c r="G929" s="20"/>
       <c r="H929" s="20"/>
     </row>
-    <row r="930" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F930" s="20"/>
       <c r="G930" s="20"/>
       <c r="H930" s="20"/>
     </row>
-    <row r="931" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F931" s="20"/>
       <c r="G931" s="20"/>
       <c r="H931" s="20"/>
     </row>
-    <row r="932" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F932" s="20"/>
       <c r="G932" s="20"/>
       <c r="H932" s="20"/>
     </row>
-    <row r="933" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F933" s="20"/>
       <c r="G933" s="20"/>
       <c r="H933" s="20"/>
     </row>
-    <row r="934" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F934" s="20"/>
       <c r="G934" s="20"/>
       <c r="H934" s="20"/>
     </row>
-    <row r="935" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F935" s="20"/>
       <c r="G935" s="20"/>
       <c r="H935" s="20"/>
     </row>
-    <row r="936" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F936" s="20"/>
       <c r="G936" s="20"/>
       <c r="H936" s="20"/>
     </row>
-    <row r="937" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F937" s="20"/>
       <c r="G937" s="20"/>
       <c r="H937" s="20"/>
     </row>
-    <row r="938" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F938" s="20"/>
       <c r="G938" s="20"/>
       <c r="H938" s="20"/>
     </row>
-    <row r="939" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F939" s="20"/>
       <c r="G939" s="20"/>
       <c r="H939" s="20"/>
     </row>
-    <row r="940" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F940" s="20"/>
       <c r="G940" s="20"/>
       <c r="H940" s="20"/>
     </row>
-    <row r="941" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F941" s="20"/>
       <c r="G941" s="20"/>
       <c r="H941" s="20"/>
     </row>
-    <row r="942" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F942" s="20"/>
       <c r="G942" s="20"/>
       <c r="H942" s="20"/>
     </row>
-    <row r="943" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F943" s="20"/>
       <c r="G943" s="20"/>
       <c r="H943" s="20"/>
     </row>
-    <row r="944" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F944" s="20"/>
       <c r="G944" s="20"/>
       <c r="H944" s="20"/>
     </row>
-    <row r="945" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F945" s="20"/>
       <c r="G945" s="20"/>
       <c r="H945" s="20"/>
     </row>
-    <row r="946" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F946" s="20"/>
       <c r="G946" s="20"/>
       <c r="H946" s="20"/>
     </row>
-    <row r="947" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F947" s="20"/>
       <c r="G947" s="20"/>
       <c r="H947" s="20"/>
     </row>
-    <row r="948" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F948" s="20"/>
       <c r="G948" s="20"/>
       <c r="H948" s="20"/>
     </row>
-    <row r="949" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F949" s="20"/>
       <c r="G949" s="20"/>
       <c r="H949" s="20"/>
     </row>
-    <row r="950" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F950" s="20"/>
       <c r="G950" s="20"/>
       <c r="H950" s="20"/>
     </row>
-    <row r="951" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F951" s="20"/>
       <c r="G951" s="20"/>
       <c r="H951" s="20"/>
     </row>
-    <row r="952" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F952" s="20"/>
       <c r="G952" s="20"/>
       <c r="H952" s="20"/>
     </row>
-    <row r="953" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F953" s="20"/>
       <c r="G953" s="20"/>
       <c r="H953" s="20"/>
     </row>
-    <row r="954" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F954" s="20"/>
       <c r="G954" s="20"/>
       <c r="H954" s="20"/>
     </row>
-    <row r="955" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F955" s="20"/>
       <c r="G955" s="20"/>
       <c r="H955" s="20"/>
     </row>
-    <row r="956" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F956" s="20"/>
       <c r="G956" s="20"/>
       <c r="H956" s="20"/>
     </row>
-    <row r="957" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F957" s="20"/>
       <c r="G957" s="20"/>
       <c r="H957" s="20"/>
     </row>
-    <row r="958" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F958" s="20"/>
       <c r="G958" s="20"/>
       <c r="H958" s="20"/>
     </row>
-    <row r="959" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F959" s="20"/>
       <c r="G959" s="20"/>
       <c r="H959" s="20"/>
     </row>
-    <row r="960" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F960" s="20"/>
       <c r="G960" s="20"/>
       <c r="H960" s="20"/>
     </row>
-    <row r="961" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F961" s="20"/>
       <c r="G961" s="20"/>
       <c r="H961" s="20"/>
     </row>
-    <row r="962" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F962" s="20"/>
       <c r="G962" s="20"/>
       <c r="H962" s="20"/>
     </row>
-    <row r="963" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F963" s="20"/>
       <c r="G963" s="20"/>
       <c r="H963" s="20"/>
     </row>
-    <row r="964" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F964" s="20"/>
       <c r="G964" s="20"/>
       <c r="H964" s="20"/>
     </row>
-    <row r="965" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F965" s="20"/>
       <c r="G965" s="20"/>
       <c r="H965" s="20"/>
     </row>
-    <row r="966" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F966" s="20"/>
       <c r="G966" s="20"/>
       <c r="H966" s="20"/>
     </row>
-    <row r="967" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F967" s="20"/>
       <c r="G967" s="20"/>
       <c r="H967" s="20"/>
     </row>
-    <row r="968" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F968" s="20"/>
       <c r="G968" s="20"/>
       <c r="H968" s="20"/>
     </row>
-    <row r="969" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F969" s="20"/>
       <c r="G969" s="20"/>
       <c r="H969" s="20"/>
     </row>
-    <row r="970" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F970" s="20"/>
       <c r="G970" s="20"/>
       <c r="H970" s="20"/>
     </row>
-    <row r="971" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F971" s="20"/>
       <c r="G971" s="20"/>
       <c r="H971" s="20"/>
     </row>
-    <row r="972" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F972" s="20"/>
       <c r="G972" s="20"/>
       <c r="H972" s="20"/>
     </row>
-    <row r="973" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F973" s="20"/>
       <c r="G973" s="20"/>
       <c r="H973" s="20"/>
     </row>
-    <row r="974" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F974" s="20"/>
       <c r="G974" s="20"/>
       <c r="H974" s="20"/>
     </row>
-    <row r="975" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F975" s="20"/>
       <c r="G975" s="20"/>
       <c r="H975" s="20"/>
     </row>
-    <row r="976" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F976" s="20"/>
       <c r="G976" s="20"/>
       <c r="H976" s="20"/>
     </row>
-    <row r="977" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F977" s="20"/>
       <c r="G977" s="20"/>
       <c r="H977" s="20"/>
     </row>
-    <row r="978" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F978" s="20"/>
       <c r="G978" s="20"/>
       <c r="H978" s="20"/>
     </row>
-    <row r="979" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F979" s="20"/>
       <c r="G979" s="20"/>
       <c r="H979" s="20"/>
     </row>
-    <row r="980" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F980" s="20"/>
       <c r="G980" s="20"/>
       <c r="H980" s="20"/>
     </row>
-    <row r="981" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F981" s="20"/>
       <c r="G981" s="20"/>
       <c r="H981" s="20"/>
     </row>
-    <row r="982" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F982" s="20"/>
       <c r="G982" s="20"/>
       <c r="H982" s="20"/>
     </row>
-    <row r="983" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F983" s="20"/>
       <c r="G983" s="20"/>
       <c r="H983" s="20"/>
     </row>
-    <row r="984" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F984" s="20"/>
       <c r="G984" s="20"/>
       <c r="H984" s="20"/>
     </row>
-    <row r="985" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F985" s="20"/>
       <c r="G985" s="20"/>
       <c r="H985" s="20"/>
     </row>
-    <row r="986" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F986" s="20"/>
       <c r="G986" s="20"/>
       <c r="H986" s="20"/>
     </row>
-    <row r="987" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F987" s="20"/>
       <c r="G987" s="20"/>
       <c r="H987" s="20"/>
     </row>
-    <row r="988" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F988" s="20"/>
       <c r="G988" s="20"/>
       <c r="H988" s="20"/>
     </row>
-    <row r="989" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F989" s="20"/>
       <c r="G989" s="20"/>
       <c r="H989" s="20"/>
     </row>
-    <row r="990" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F990" s="20"/>
       <c r="G990" s="20"/>
       <c r="H990" s="20"/>
     </row>
-    <row r="991" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F991" s="20"/>
       <c r="G991" s="20"/>
       <c r="H991" s="20"/>
     </row>
-    <row r="992" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F992" s="20"/>
       <c r="G992" s="20"/>
       <c r="H992" s="20"/>
     </row>
-    <row r="993" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F993" s="20"/>
       <c r="G993" s="20"/>
       <c r="H993" s="20"/>
     </row>
-    <row r="994" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F994" s="20"/>
       <c r="G994" s="20"/>
       <c r="H994" s="20"/>
     </row>
-    <row r="995" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F995" s="20"/>
       <c r="G995" s="20"/>
       <c r="H995" s="20"/>
     </row>
-    <row r="996" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F996" s="20"/>
       <c r="G996" s="20"/>
       <c r="H996" s="20"/>
     </row>
-    <row r="997" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F997" s="20"/>
       <c r="G997" s="20"/>
       <c r="H997" s="20"/>
     </row>
-    <row r="998" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F998" s="20"/>
       <c r="G998" s="20"/>
       <c r="H998" s="20"/>
     </row>
-    <row r="999" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F999" s="20"/>
       <c r="G999" s="20"/>
       <c r="H999" s="20"/>
     </row>
-    <row r="1000" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F1000" s="20"/>
       <c r="G1000" s="20"/>
       <c r="H1000" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -8108,11 +8250,19 @@
     <hyperlink ref="I21" r:id="rId53" xr:uid="{A8C95E2A-F697-4CEE-8D42-77F87A017BCB}"/>
     <hyperlink ref="D22" r:id="rId54" xr:uid="{5CE8673B-9500-46B0-90D8-01FFDC2E7EE7}"/>
     <hyperlink ref="E22" r:id="rId55" xr:uid="{619E85E2-0FEA-429B-B9CB-64E4983549A0}"/>
+    <hyperlink ref="D23" r:id="rId56" xr:uid="{91D8EA1D-E5F0-405F-8434-FE2DBC04D902}"/>
+    <hyperlink ref="E24" r:id="rId57" xr:uid="{020E4AA2-549D-4BE7-8F7B-29FC946B5C41}"/>
+    <hyperlink ref="D24" r:id="rId58" xr:uid="{E1CD55C0-FBAB-4D03-A89F-43A9770AB224}"/>
+    <hyperlink ref="I24" r:id="rId59" xr:uid="{8A4AC812-2EFB-438A-9B85-54C2EE72B6ED}"/>
+    <hyperlink ref="D25" r:id="rId60" xr:uid="{4FA83D02-1AC4-4F6B-84BE-13DC96540666}"/>
+    <hyperlink ref="E25" r:id="rId61" xr:uid="{769E5F8F-2EBB-4B21-A881-B7F163501FB8}"/>
+    <hyperlink ref="E23" r:id="rId62" xr:uid="{F4F6B7B5-2688-42E0-9AB7-BB94D40CB244}"/>
+    <hyperlink ref="I25" r:id="rId63" xr:uid="{51CA1651-AC1D-4C11-8B6D-57745837F103}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>
--- a/christmas-markt.xlsx
+++ b/christmas-markt.xlsx
@@ -2580,10 +2580,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2598,7 +2598,7 @@
     <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="145" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="72.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="203" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="261" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="145" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="80.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="80.5" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="92" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="92" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="101.5" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="101.5" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="174" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="101.5" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="19">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="174" x14ac:dyDescent="0.35" outlineLevel="0" r="20">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="21">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="101.5" x14ac:dyDescent="0.35" outlineLevel="0" r="22">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3230,9 +3230,13 @@
       <c r="H22" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="I22" s="22" t="inlineStr">
+        <is>
+          <t>https://vienna-christmas-markets.unmanagedvisio.com/photos/meidling.png</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="23">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3259,7 +3263,7 @@
       </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="101.5" x14ac:dyDescent="0.35" outlineLevel="0" r="24">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="261" x14ac:dyDescent="0.35" outlineLevel="0" r="25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3317,4877 +3321,4877 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="26">
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="27">
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="28">
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="29">
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="30">
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="31">
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="32">
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="33">
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="34">
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="35">
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="36">
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="37">
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="38">
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="39">
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="40">
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="41">
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="42">
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="43">
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="44">
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="45">
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="46">
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="47">
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="48">
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="49">
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="50">
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="51">
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="52">
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="53">
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="54">
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="55">
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="56">
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="57">
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="58">
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="59">
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="60">
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="61">
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="62">
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="63">
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="64">
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="65">
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="66">
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="67">
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="68">
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="69">
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="70">
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="71">
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="72">
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="73">
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="74">
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="75">
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="76">
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="77">
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="78">
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="79">
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="80">
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="81">
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="82">
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="83">
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="84">
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="85">
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="86">
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="87">
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="88">
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="89">
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="90">
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="91">
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="92">
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="93">
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="94">
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="95">
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="96">
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="97">
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="98">
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="99">
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="100">
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="101">
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="102">
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="103">
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="104">
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="105">
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="106">
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="107">
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="108">
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="109">
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="110">
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="111">
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="112">
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="113">
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="114">
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="115">
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="116">
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="117">
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="118">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="119">
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="120">
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="121">
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="122">
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="123">
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="124">
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="125">
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="126">
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="127">
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="128">
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="129">
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="130">
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="131">
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="132">
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="133">
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="134">
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="135">
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="136">
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="137">
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="138">
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="139">
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="140">
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="141">
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
     </row>
-    <row r="142" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="142">
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
-    <row r="143" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="143">
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
     </row>
-    <row r="144" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="144">
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
     </row>
-    <row r="145" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="145">
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
     </row>
-    <row r="146" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="146">
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
     </row>
-    <row r="147" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="147">
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
     </row>
-    <row r="148" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="148">
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
     </row>
-    <row r="149" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="149">
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
     </row>
-    <row r="150" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="150">
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
     </row>
-    <row r="151" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="151">
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
     </row>
-    <row r="152" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="152">
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="153">
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
     </row>
-    <row r="154" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="154">
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
     </row>
-    <row r="155" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="155">
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
     </row>
-    <row r="156" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="156">
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
     </row>
-    <row r="157" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="157">
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
     </row>
-    <row r="158" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="158">
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
     </row>
-    <row r="159" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="159">
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
     </row>
-    <row r="160" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="160">
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
     </row>
-    <row r="161" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="161">
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
     </row>
-    <row r="162" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="162">
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
-    <row r="163" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="163">
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
     </row>
-    <row r="164" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="164">
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
     </row>
-    <row r="165" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="165">
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
     </row>
-    <row r="166" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="166">
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
     </row>
-    <row r="167" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="167">
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
     </row>
-    <row r="168" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="168">
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
     </row>
-    <row r="169" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="169">
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
     </row>
-    <row r="170" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="170">
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
     </row>
-    <row r="171" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="171">
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
     </row>
-    <row r="172" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="172">
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="173">
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
     </row>
-    <row r="174" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="174">
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
       <c r="H174" s="20"/>
     </row>
-    <row r="175" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="175">
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
       <c r="H175" s="20"/>
     </row>
-    <row r="176" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="176">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
     </row>
-    <row r="177" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="177">
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
       <c r="H177" s="20"/>
     </row>
-    <row r="178" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="178">
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
       <c r="H178" s="20"/>
     </row>
-    <row r="179" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="179">
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="H179" s="20"/>
     </row>
-    <row r="180" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="180">
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" s="20"/>
     </row>
-    <row r="181" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="181">
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
     </row>
-    <row r="182" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="182">
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
     </row>
-    <row r="183" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="183">
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
     </row>
-    <row r="184" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="184">
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
       <c r="H184" s="20"/>
     </row>
-    <row r="185" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="185">
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" s="20"/>
     </row>
-    <row r="186" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="186">
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
       <c r="H186" s="20"/>
     </row>
-    <row r="187" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="187">
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
       <c r="H187" s="20"/>
     </row>
-    <row r="188" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="188">
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
     </row>
-    <row r="189" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="189">
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
     </row>
-    <row r="190" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="190">
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" s="20"/>
     </row>
-    <row r="191" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="191">
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
     </row>
-    <row r="192" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="192">
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
     </row>
-    <row r="193" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="193">
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
       <c r="H193" s="20"/>
     </row>
-    <row r="194" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="194">
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
     </row>
-    <row r="195" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="195">
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
     </row>
-    <row r="196" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="196">
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="20"/>
     </row>
-    <row r="197" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="197">
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
       <c r="H197" s="20"/>
     </row>
-    <row r="198" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="198">
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
       <c r="H198" s="20"/>
     </row>
-    <row r="199" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="199">
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
       <c r="H199" s="20"/>
     </row>
-    <row r="200" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="200">
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
     </row>
-    <row r="201" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="201">
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
       <c r="H201" s="20"/>
     </row>
-    <row r="202" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="202">
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
       <c r="H202" s="20"/>
     </row>
-    <row r="203" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="203">
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
       <c r="H203" s="20"/>
     </row>
-    <row r="204" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="204">
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
     </row>
-    <row r="205" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="205">
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
     </row>
-    <row r="206" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="206">
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
     </row>
-    <row r="207" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="207">
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
     </row>
-    <row r="208" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="208">
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
     </row>
-    <row r="209" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="209">
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
       <c r="H209" s="20"/>
     </row>
-    <row r="210" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="210">
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
       <c r="H210" s="20"/>
     </row>
-    <row r="211" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="211">
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
     </row>
-    <row r="212" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="212">
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
       <c r="H212" s="20"/>
     </row>
-    <row r="213" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="213">
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
       <c r="H213" s="20"/>
     </row>
-    <row r="214" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="214">
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
       <c r="H214" s="20"/>
     </row>
-    <row r="215" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="215">
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
       <c r="H215" s="20"/>
     </row>
-    <row r="216" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="216">
       <c r="F216" s="20"/>
       <c r="G216" s="20"/>
       <c r="H216" s="20"/>
     </row>
-    <row r="217" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="217">
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
       <c r="H217" s="20"/>
     </row>
-    <row r="218" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="218">
       <c r="F218" s="20"/>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
     </row>
-    <row r="219" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="219">
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
       <c r="H219" s="20"/>
     </row>
-    <row r="220" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="220">
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
       <c r="H220" s="20"/>
     </row>
-    <row r="221" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="221">
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
       <c r="H221" s="20"/>
     </row>
-    <row r="222" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="222">
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
       <c r="H222" s="20"/>
     </row>
-    <row r="223" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="223">
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
       <c r="H223" s="20"/>
     </row>
-    <row r="224" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="224">
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
       <c r="H224" s="20"/>
     </row>
-    <row r="225" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="225">
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
       <c r="H225" s="20"/>
     </row>
-    <row r="226" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="226">
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
       <c r="H226" s="20"/>
     </row>
-    <row r="227" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="227">
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
       <c r="H227" s="20"/>
     </row>
-    <row r="228" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="228">
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
       <c r="H228" s="20"/>
     </row>
-    <row r="229" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="229">
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
       <c r="H229" s="20"/>
     </row>
-    <row r="230" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="230">
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
       <c r="H230" s="20"/>
     </row>
-    <row r="231" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="231">
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
       <c r="H231" s="20"/>
     </row>
-    <row r="232" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="232">
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
       <c r="H232" s="20"/>
     </row>
-    <row r="233" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="233">
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
       <c r="H233" s="20"/>
     </row>
-    <row r="234" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="234">
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
       <c r="H234" s="20"/>
     </row>
-    <row r="235" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="235">
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
     </row>
-    <row r="236" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="236">
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
       <c r="H236" s="20"/>
     </row>
-    <row r="237" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="237">
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
       <c r="H237" s="20"/>
     </row>
-    <row r="238" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="238">
       <c r="F238" s="20"/>
       <c r="G238" s="20"/>
       <c r="H238" s="20"/>
     </row>
-    <row r="239" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="239">
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
       <c r="H239" s="20"/>
     </row>
-    <row r="240" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="240">
       <c r="F240" s="20"/>
       <c r="G240" s="20"/>
       <c r="H240" s="20"/>
     </row>
-    <row r="241" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="241">
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
       <c r="H241" s="20"/>
     </row>
-    <row r="242" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="242">
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
       <c r="H242" s="20"/>
     </row>
-    <row r="243" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="243">
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
       <c r="H243" s="20"/>
     </row>
-    <row r="244" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="244">
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
       <c r="H244" s="20"/>
     </row>
-    <row r="245" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="245">
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
       <c r="H245" s="20"/>
     </row>
-    <row r="246" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="246">
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
       <c r="H246" s="20"/>
     </row>
-    <row r="247" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="247">
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
       <c r="H247" s="20"/>
     </row>
-    <row r="248" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="248">
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
       <c r="H248" s="20"/>
     </row>
-    <row r="249" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="249">
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
       <c r="H249" s="20"/>
     </row>
-    <row r="250" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="250">
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
       <c r="H250" s="20"/>
     </row>
-    <row r="251" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="251">
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
       <c r="H251" s="20"/>
     </row>
-    <row r="252" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="252">
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
       <c r="H252" s="20"/>
     </row>
-    <row r="253" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="253">
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
       <c r="H253" s="20"/>
     </row>
-    <row r="254" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="254">
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
       <c r="H254" s="20"/>
     </row>
-    <row r="255" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="255">
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
       <c r="H255" s="20"/>
     </row>
-    <row r="256" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="256">
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
       <c r="H256" s="20"/>
     </row>
-    <row r="257" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="257">
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
       <c r="H257" s="20"/>
     </row>
-    <row r="258" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="258">
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
       <c r="H258" s="20"/>
     </row>
-    <row r="259" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="259">
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
       <c r="H259" s="20"/>
     </row>
-    <row r="260" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="260">
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
       <c r="H260" s="20"/>
     </row>
-    <row r="261" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="261">
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
       <c r="H261" s="20"/>
     </row>
-    <row r="262" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="262">
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
       <c r="H262" s="20"/>
     </row>
-    <row r="263" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="263">
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
     </row>
-    <row r="264" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="264">
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
       <c r="H264" s="20"/>
     </row>
-    <row r="265" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="265">
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
       <c r="H265" s="20"/>
     </row>
-    <row r="266" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="266">
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
       <c r="H266" s="20"/>
     </row>
-    <row r="267" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="267">
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
       <c r="H267" s="20"/>
     </row>
-    <row r="268" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="268">
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
       <c r="H268" s="20"/>
     </row>
-    <row r="269" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="269">
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
       <c r="H269" s="20"/>
     </row>
-    <row r="270" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="270">
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
       <c r="H270" s="20"/>
     </row>
-    <row r="271" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="271">
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
       <c r="H271" s="20"/>
     </row>
-    <row r="272" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="272">
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
       <c r="H272" s="20"/>
     </row>
-    <row r="273" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="273">
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
       <c r="H273" s="20"/>
     </row>
-    <row r="274" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="274">
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
       <c r="H274" s="20"/>
     </row>
-    <row r="275" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="275">
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
       <c r="H275" s="20"/>
     </row>
-    <row r="276" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="276">
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
       <c r="H276" s="20"/>
     </row>
-    <row r="277" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="277">
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
       <c r="H277" s="20"/>
     </row>
-    <row r="278" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="278">
       <c r="F278" s="20"/>
       <c r="G278" s="20"/>
       <c r="H278" s="20"/>
     </row>
-    <row r="279" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="279">
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
       <c r="H279" s="20"/>
     </row>
-    <row r="280" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="280">
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
       <c r="H280" s="20"/>
     </row>
-    <row r="281" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="281">
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
       <c r="H281" s="20"/>
     </row>
-    <row r="282" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="282">
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
       <c r="H282" s="20"/>
     </row>
-    <row r="283" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="283">
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
       <c r="H283" s="20"/>
     </row>
-    <row r="284" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="284">
       <c r="F284" s="20"/>
       <c r="G284" s="20"/>
       <c r="H284" s="20"/>
     </row>
-    <row r="285" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="285">
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
       <c r="H285" s="20"/>
     </row>
-    <row r="286" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="286">
       <c r="F286" s="20"/>
       <c r="G286" s="20"/>
       <c r="H286" s="20"/>
     </row>
-    <row r="287" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="287">
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
       <c r="H287" s="20"/>
     </row>
-    <row r="288" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="288">
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
       <c r="H288" s="20"/>
     </row>
-    <row r="289" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="289">
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
       <c r="H289" s="20"/>
     </row>
-    <row r="290" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="290">
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
       <c r="H290" s="20"/>
     </row>
-    <row r="291" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="291">
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
     </row>
-    <row r="292" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="292">
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
       <c r="H292" s="20"/>
     </row>
-    <row r="293" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="293">
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
     </row>
-    <row r="294" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="294">
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
       <c r="H294" s="20"/>
     </row>
-    <row r="295" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="295">
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
     </row>
-    <row r="296" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="296">
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
       <c r="H296" s="20"/>
     </row>
-    <row r="297" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="297">
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
       <c r="H297" s="20"/>
     </row>
-    <row r="298" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="298">
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
       <c r="H298" s="20"/>
     </row>
-    <row r="299" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="299">
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
       <c r="H299" s="20"/>
     </row>
-    <row r="300" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="300">
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
       <c r="H300" s="20"/>
     </row>
-    <row r="301" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="301">
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
       <c r="H301" s="20"/>
     </row>
-    <row r="302" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="302">
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
       <c r="H302" s="20"/>
     </row>
-    <row r="303" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="303">
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
       <c r="H303" s="20"/>
     </row>
-    <row r="304" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="304">
       <c r="F304" s="20"/>
       <c r="G304" s="20"/>
       <c r="H304" s="20"/>
     </row>
-    <row r="305" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="305">
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
       <c r="H305" s="20"/>
     </row>
-    <row r="306" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="306">
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
       <c r="H306" s="20"/>
     </row>
-    <row r="307" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="307">
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
       <c r="H307" s="20"/>
     </row>
-    <row r="308" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="308">
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
       <c r="H308" s="20"/>
     </row>
-    <row r="309" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="309">
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
       <c r="H309" s="20"/>
     </row>
-    <row r="310" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="310">
       <c r="F310" s="20"/>
       <c r="G310" s="20"/>
       <c r="H310" s="20"/>
     </row>
-    <row r="311" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="311">
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
       <c r="H311" s="20"/>
     </row>
-    <row r="312" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="312">
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
       <c r="H312" s="20"/>
     </row>
-    <row r="313" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="313">
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
       <c r="H313" s="20"/>
     </row>
-    <row r="314" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="314">
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
       <c r="H314" s="20"/>
     </row>
-    <row r="315" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="315">
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
       <c r="H315" s="20"/>
     </row>
-    <row r="316" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="316">
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
       <c r="H316" s="20"/>
     </row>
-    <row r="317" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="317">
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
       <c r="H317" s="20"/>
     </row>
-    <row r="318" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="318">
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
       <c r="H318" s="20"/>
     </row>
-    <row r="319" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="319">
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
       <c r="H319" s="20"/>
     </row>
-    <row r="320" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="320">
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
       <c r="H320" s="20"/>
     </row>
-    <row r="321" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="321">
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
     </row>
-    <row r="322" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="322">
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
     </row>
-    <row r="323" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="323">
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
       <c r="H323" s="20"/>
     </row>
-    <row r="324" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="324">
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
       <c r="H324" s="20"/>
     </row>
-    <row r="325" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="325">
       <c r="F325" s="20"/>
       <c r="G325" s="20"/>
       <c r="H325" s="20"/>
     </row>
-    <row r="326" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="326">
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
       <c r="H326" s="20"/>
     </row>
-    <row r="327" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="327">
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
       <c r="H327" s="20"/>
     </row>
-    <row r="328" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="328">
       <c r="F328" s="20"/>
       <c r="G328" s="20"/>
       <c r="H328" s="20"/>
     </row>
-    <row r="329" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="329">
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
       <c r="H329" s="20"/>
     </row>
-    <row r="330" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="330">
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
       <c r="H330" s="20"/>
     </row>
-    <row r="331" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="331">
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
       <c r="H331" s="20"/>
     </row>
-    <row r="332" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="332">
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
       <c r="H332" s="20"/>
     </row>
-    <row r="333" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="333">
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
       <c r="H333" s="20"/>
     </row>
-    <row r="334" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="334">
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
       <c r="H334" s="20"/>
     </row>
-    <row r="335" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="335">
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
       <c r="H335" s="20"/>
     </row>
-    <row r="336" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="336">
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
       <c r="H336" s="20"/>
     </row>
-    <row r="337" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="337">
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
       <c r="H337" s="20"/>
     </row>
-    <row r="338" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="338">
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
       <c r="H338" s="20"/>
     </row>
-    <row r="339" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="339">
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
       <c r="H339" s="20"/>
     </row>
-    <row r="340" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="340">
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
       <c r="H340" s="20"/>
     </row>
-    <row r="341" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="341">
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
       <c r="H341" s="20"/>
     </row>
-    <row r="342" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="342">
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
       <c r="H342" s="20"/>
     </row>
-    <row r="343" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="343">
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
       <c r="H343" s="20"/>
     </row>
-    <row r="344" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="344">
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
       <c r="H344" s="20"/>
     </row>
-    <row r="345" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="345">
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
       <c r="H345" s="20"/>
     </row>
-    <row r="346" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="346">
       <c r="F346" s="20"/>
       <c r="G346" s="20"/>
       <c r="H346" s="20"/>
     </row>
-    <row r="347" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="347">
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
       <c r="H347" s="20"/>
     </row>
-    <row r="348" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="348">
       <c r="F348" s="20"/>
       <c r="G348" s="20"/>
       <c r="H348" s="20"/>
     </row>
-    <row r="349" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="349">
       <c r="F349" s="20"/>
       <c r="G349" s="20"/>
       <c r="H349" s="20"/>
     </row>
-    <row r="350" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="350">
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
       <c r="H350" s="20"/>
     </row>
-    <row r="351" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="351">
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
       <c r="H351" s="20"/>
     </row>
-    <row r="352" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="352">
       <c r="F352" s="20"/>
       <c r="G352" s="20"/>
       <c r="H352" s="20"/>
     </row>
-    <row r="353" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="353">
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
       <c r="H353" s="20"/>
     </row>
-    <row r="354" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="354">
       <c r="F354" s="20"/>
       <c r="G354" s="20"/>
       <c r="H354" s="20"/>
     </row>
-    <row r="355" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="355">
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
       <c r="H355" s="20"/>
     </row>
-    <row r="356" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="356">
       <c r="F356" s="20"/>
       <c r="G356" s="20"/>
       <c r="H356" s="20"/>
     </row>
-    <row r="357" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="357">
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
       <c r="H357" s="20"/>
     </row>
-    <row r="358" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="358">
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
       <c r="H358" s="20"/>
     </row>
-    <row r="359" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="359">
       <c r="F359" s="20"/>
       <c r="G359" s="20"/>
       <c r="H359" s="20"/>
     </row>
-    <row r="360" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="360">
       <c r="F360" s="20"/>
       <c r="G360" s="20"/>
       <c r="H360" s="20"/>
     </row>
-    <row r="361" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="361">
       <c r="F361" s="20"/>
       <c r="G361" s="20"/>
       <c r="H361" s="20"/>
     </row>
-    <row r="362" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="362">
       <c r="F362" s="20"/>
       <c r="G362" s="20"/>
       <c r="H362" s="20"/>
     </row>
-    <row r="363" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="363">
       <c r="F363" s="20"/>
       <c r="G363" s="20"/>
       <c r="H363" s="20"/>
     </row>
-    <row r="364" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="364">
       <c r="F364" s="20"/>
       <c r="G364" s="20"/>
       <c r="H364" s="20"/>
     </row>
-    <row r="365" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="365">
       <c r="F365" s="20"/>
       <c r="G365" s="20"/>
       <c r="H365" s="20"/>
     </row>
-    <row r="366" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="366">
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
       <c r="H366" s="20"/>
     </row>
-    <row r="367" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="367">
       <c r="F367" s="20"/>
       <c r="G367" s="20"/>
       <c r="H367" s="20"/>
     </row>
-    <row r="368" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="368">
       <c r="F368" s="20"/>
       <c r="G368" s="20"/>
       <c r="H368" s="20"/>
     </row>
-    <row r="369" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="369">
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
       <c r="H369" s="20"/>
     </row>
-    <row r="370" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="370">
       <c r="F370" s="20"/>
       <c r="G370" s="20"/>
       <c r="H370" s="20"/>
     </row>
-    <row r="371" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="371">
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
       <c r="H371" s="20"/>
     </row>
-    <row r="372" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="372">
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
       <c r="H372" s="20"/>
     </row>
-    <row r="373" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="373">
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
       <c r="H373" s="20"/>
     </row>
-    <row r="374" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="374">
       <c r="F374" s="20"/>
       <c r="G374" s="20"/>
       <c r="H374" s="20"/>
     </row>
-    <row r="375" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="375">
       <c r="F375" s="20"/>
       <c r="G375" s="20"/>
       <c r="H375" s="20"/>
     </row>
-    <row r="376" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="376">
       <c r="F376" s="20"/>
       <c r="G376" s="20"/>
       <c r="H376" s="20"/>
     </row>
-    <row r="377" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="377">
       <c r="F377" s="20"/>
       <c r="G377" s="20"/>
       <c r="H377" s="20"/>
     </row>
-    <row r="378" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="378">
       <c r="F378" s="20"/>
       <c r="G378" s="20"/>
       <c r="H378" s="20"/>
     </row>
-    <row r="379" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="379">
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
       <c r="H379" s="20"/>
     </row>
-    <row r="380" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="380">
       <c r="F380" s="20"/>
       <c r="G380" s="20"/>
       <c r="H380" s="20"/>
     </row>
-    <row r="381" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="381">
       <c r="F381" s="20"/>
       <c r="G381" s="20"/>
       <c r="H381" s="20"/>
     </row>
-    <row r="382" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="382">
       <c r="F382" s="20"/>
       <c r="G382" s="20"/>
       <c r="H382" s="20"/>
     </row>
-    <row r="383" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="383">
       <c r="F383" s="20"/>
       <c r="G383" s="20"/>
       <c r="H383" s="20"/>
     </row>
-    <row r="384" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="384">
       <c r="F384" s="20"/>
       <c r="G384" s="20"/>
       <c r="H384" s="20"/>
     </row>
-    <row r="385" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="385">
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
       <c r="H385" s="20"/>
     </row>
-    <row r="386" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="386">
       <c r="F386" s="20"/>
       <c r="G386" s="20"/>
       <c r="H386" s="20"/>
     </row>
-    <row r="387" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="387">
       <c r="F387" s="20"/>
       <c r="G387" s="20"/>
       <c r="H387" s="20"/>
     </row>
-    <row r="388" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="388">
       <c r="F388" s="20"/>
       <c r="G388" s="20"/>
       <c r="H388" s="20"/>
     </row>
-    <row r="389" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="389">
       <c r="F389" s="20"/>
       <c r="G389" s="20"/>
       <c r="H389" s="20"/>
     </row>
-    <row r="390" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="390">
       <c r="F390" s="20"/>
       <c r="G390" s="20"/>
       <c r="H390" s="20"/>
     </row>
-    <row r="391" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="391">
       <c r="F391" s="20"/>
       <c r="G391" s="20"/>
       <c r="H391" s="20"/>
     </row>
-    <row r="392" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="392">
       <c r="F392" s="20"/>
       <c r="G392" s="20"/>
       <c r="H392" s="20"/>
     </row>
-    <row r="393" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="393">
       <c r="F393" s="20"/>
       <c r="G393" s="20"/>
       <c r="H393" s="20"/>
     </row>
-    <row r="394" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="394">
       <c r="F394" s="20"/>
       <c r="G394" s="20"/>
       <c r="H394" s="20"/>
     </row>
-    <row r="395" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="395">
       <c r="F395" s="20"/>
       <c r="G395" s="20"/>
       <c r="H395" s="20"/>
     </row>
-    <row r="396" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="396">
       <c r="F396" s="20"/>
       <c r="G396" s="20"/>
       <c r="H396" s="20"/>
     </row>
-    <row r="397" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="397">
       <c r="F397" s="20"/>
       <c r="G397" s="20"/>
       <c r="H397" s="20"/>
     </row>
-    <row r="398" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="398">
       <c r="F398" s="20"/>
       <c r="G398" s="20"/>
       <c r="H398" s="20"/>
     </row>
-    <row r="399" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="399">
       <c r="F399" s="20"/>
       <c r="G399" s="20"/>
       <c r="H399" s="20"/>
     </row>
-    <row r="400" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="400">
       <c r="F400" s="20"/>
       <c r="G400" s="20"/>
       <c r="H400" s="20"/>
     </row>
-    <row r="401" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="401">
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
       <c r="H401" s="20"/>
     </row>
-    <row r="402" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="402">
       <c r="F402" s="20"/>
       <c r="G402" s="20"/>
       <c r="H402" s="20"/>
     </row>
-    <row r="403" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="403">
       <c r="F403" s="20"/>
       <c r="G403" s="20"/>
       <c r="H403" s="20"/>
     </row>
-    <row r="404" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="404">
       <c r="F404" s="20"/>
       <c r="G404" s="20"/>
       <c r="H404" s="20"/>
     </row>
-    <row r="405" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="405">
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
       <c r="H405" s="20"/>
     </row>
-    <row r="406" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="406">
       <c r="F406" s="20"/>
       <c r="G406" s="20"/>
       <c r="H406" s="20"/>
     </row>
-    <row r="407" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="407">
       <c r="F407" s="20"/>
       <c r="G407" s="20"/>
       <c r="H407" s="20"/>
     </row>
-    <row r="408" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="408">
       <c r="F408" s="20"/>
       <c r="G408" s="20"/>
       <c r="H408" s="20"/>
     </row>
-    <row r="409" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="409">
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
       <c r="H409" s="20"/>
     </row>
-    <row r="410" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="410">
       <c r="F410" s="20"/>
       <c r="G410" s="20"/>
       <c r="H410" s="20"/>
     </row>
-    <row r="411" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="411">
       <c r="F411" s="20"/>
       <c r="G411" s="20"/>
       <c r="H411" s="20"/>
     </row>
-    <row r="412" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="412">
       <c r="F412" s="20"/>
       <c r="G412" s="20"/>
       <c r="H412" s="20"/>
     </row>
-    <row r="413" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="413">
       <c r="F413" s="20"/>
       <c r="G413" s="20"/>
       <c r="H413" s="20"/>
     </row>
-    <row r="414" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="414">
       <c r="F414" s="20"/>
       <c r="G414" s="20"/>
       <c r="H414" s="20"/>
     </row>
-    <row r="415" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="415">
       <c r="F415" s="20"/>
       <c r="G415" s="20"/>
       <c r="H415" s="20"/>
     </row>
-    <row r="416" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="416">
       <c r="F416" s="20"/>
       <c r="G416" s="20"/>
       <c r="H416" s="20"/>
     </row>
-    <row r="417" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="417">
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
       <c r="H417" s="20"/>
     </row>
-    <row r="418" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="418">
       <c r="F418" s="20"/>
       <c r="G418" s="20"/>
       <c r="H418" s="20"/>
     </row>
-    <row r="419" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="419">
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
       <c r="H419" s="20"/>
     </row>
-    <row r="420" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="420">
       <c r="F420" s="20"/>
       <c r="G420" s="20"/>
       <c r="H420" s="20"/>
     </row>
-    <row r="421" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="421">
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
       <c r="H421" s="20"/>
     </row>
-    <row r="422" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="422">
       <c r="F422" s="20"/>
       <c r="G422" s="20"/>
       <c r="H422" s="20"/>
     </row>
-    <row r="423" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="423">
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
       <c r="H423" s="20"/>
     </row>
-    <row r="424" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="424">
       <c r="F424" s="20"/>
       <c r="G424" s="20"/>
       <c r="H424" s="20"/>
     </row>
-    <row r="425" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="425">
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
       <c r="H425" s="20"/>
     </row>
-    <row r="426" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="426">
       <c r="F426" s="20"/>
       <c r="G426" s="20"/>
       <c r="H426" s="20"/>
     </row>
-    <row r="427" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="427">
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
       <c r="H427" s="20"/>
     </row>
-    <row r="428" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="428">
       <c r="F428" s="20"/>
       <c r="G428" s="20"/>
       <c r="H428" s="20"/>
     </row>
-    <row r="429" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="429">
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
       <c r="H429" s="20"/>
     </row>
-    <row r="430" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="430">
       <c r="F430" s="20"/>
       <c r="G430" s="20"/>
       <c r="H430" s="20"/>
     </row>
-    <row r="431" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="431">
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
       <c r="H431" s="20"/>
     </row>
-    <row r="432" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="432">
       <c r="F432" s="20"/>
       <c r="G432" s="20"/>
       <c r="H432" s="20"/>
     </row>
-    <row r="433" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="433">
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
       <c r="H433" s="20"/>
     </row>
-    <row r="434" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="434">
       <c r="F434" s="20"/>
       <c r="G434" s="20"/>
       <c r="H434" s="20"/>
     </row>
-    <row r="435" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="435">
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
       <c r="H435" s="20"/>
     </row>
-    <row r="436" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="436">
       <c r="F436" s="20"/>
       <c r="G436" s="20"/>
       <c r="H436" s="20"/>
     </row>
-    <row r="437" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="437">
       <c r="F437" s="20"/>
       <c r="G437" s="20"/>
       <c r="H437" s="20"/>
     </row>
-    <row r="438" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="438">
       <c r="F438" s="20"/>
       <c r="G438" s="20"/>
       <c r="H438" s="20"/>
     </row>
-    <row r="439" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="439">
       <c r="F439" s="20"/>
       <c r="G439" s="20"/>
       <c r="H439" s="20"/>
     </row>
-    <row r="440" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="440">
       <c r="F440" s="20"/>
       <c r="G440" s="20"/>
       <c r="H440" s="20"/>
     </row>
-    <row r="441" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="441">
       <c r="F441" s="20"/>
       <c r="G441" s="20"/>
       <c r="H441" s="20"/>
     </row>
-    <row r="442" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="442">
       <c r="F442" s="20"/>
       <c r="G442" s="20"/>
       <c r="H442" s="20"/>
     </row>
-    <row r="443" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="443">
       <c r="F443" s="20"/>
       <c r="G443" s="20"/>
       <c r="H443" s="20"/>
     </row>
-    <row r="444" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="444">
       <c r="F444" s="20"/>
       <c r="G444" s="20"/>
       <c r="H444" s="20"/>
     </row>
-    <row r="445" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="445">
       <c r="F445" s="20"/>
       <c r="G445" s="20"/>
       <c r="H445" s="20"/>
     </row>
-    <row r="446" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="446">
       <c r="F446" s="20"/>
       <c r="G446" s="20"/>
       <c r="H446" s="20"/>
     </row>
-    <row r="447" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="447">
       <c r="F447" s="20"/>
       <c r="G447" s="20"/>
       <c r="H447" s="20"/>
     </row>
-    <row r="448" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="448">
       <c r="F448" s="20"/>
       <c r="G448" s="20"/>
       <c r="H448" s="20"/>
     </row>
-    <row r="449" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="449">
       <c r="F449" s="20"/>
       <c r="G449" s="20"/>
       <c r="H449" s="20"/>
     </row>
-    <row r="450" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="450">
       <c r="F450" s="20"/>
       <c r="G450" s="20"/>
       <c r="H450" s="20"/>
     </row>
-    <row r="451" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="451">
       <c r="F451" s="20"/>
       <c r="G451" s="20"/>
       <c r="H451" s="20"/>
     </row>
-    <row r="452" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="452">
       <c r="F452" s="20"/>
       <c r="G452" s="20"/>
       <c r="H452" s="20"/>
     </row>
-    <row r="453" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="453">
       <c r="F453" s="20"/>
       <c r="G453" s="20"/>
       <c r="H453" s="20"/>
     </row>
-    <row r="454" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="454">
       <c r="F454" s="20"/>
       <c r="G454" s="20"/>
       <c r="H454" s="20"/>
     </row>
-    <row r="455" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="455">
       <c r="F455" s="20"/>
       <c r="G455" s="20"/>
       <c r="H455" s="20"/>
     </row>
-    <row r="456" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="456">
       <c r="F456" s="20"/>
       <c r="G456" s="20"/>
       <c r="H456" s="20"/>
     </row>
-    <row r="457" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="457">
       <c r="F457" s="20"/>
       <c r="G457" s="20"/>
       <c r="H457" s="20"/>
     </row>
-    <row r="458" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="458">
       <c r="F458" s="20"/>
       <c r="G458" s="20"/>
       <c r="H458" s="20"/>
     </row>
-    <row r="459" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="459">
       <c r="F459" s="20"/>
       <c r="G459" s="20"/>
       <c r="H459" s="20"/>
     </row>
-    <row r="460" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="460">
       <c r="F460" s="20"/>
       <c r="G460" s="20"/>
       <c r="H460" s="20"/>
     </row>
-    <row r="461" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="461">
       <c r="F461" s="20"/>
       <c r="G461" s="20"/>
       <c r="H461" s="20"/>
     </row>
-    <row r="462" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="462">
       <c r="F462" s="20"/>
       <c r="G462" s="20"/>
       <c r="H462" s="20"/>
     </row>
-    <row r="463" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="463">
       <c r="F463" s="20"/>
       <c r="G463" s="20"/>
       <c r="H463" s="20"/>
     </row>
-    <row r="464" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="464">
       <c r="F464" s="20"/>
       <c r="G464" s="20"/>
       <c r="H464" s="20"/>
     </row>
-    <row r="465" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="465">
       <c r="F465" s="20"/>
       <c r="G465" s="20"/>
       <c r="H465" s="20"/>
     </row>
-    <row r="466" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="466">
       <c r="F466" s="20"/>
       <c r="G466" s="20"/>
       <c r="H466" s="20"/>
     </row>
-    <row r="467" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="467">
       <c r="F467" s="20"/>
       <c r="G467" s="20"/>
       <c r="H467" s="20"/>
     </row>
-    <row r="468" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="468">
       <c r="F468" s="20"/>
       <c r="G468" s="20"/>
       <c r="H468" s="20"/>
     </row>
-    <row r="469" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="469">
       <c r="F469" s="20"/>
       <c r="G469" s="20"/>
       <c r="H469" s="20"/>
     </row>
-    <row r="470" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="470">
       <c r="F470" s="20"/>
       <c r="G470" s="20"/>
       <c r="H470" s="20"/>
     </row>
-    <row r="471" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="471">
       <c r="F471" s="20"/>
       <c r="G471" s="20"/>
       <c r="H471" s="20"/>
     </row>
-    <row r="472" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="472">
       <c r="F472" s="20"/>
       <c r="G472" s="20"/>
       <c r="H472" s="20"/>
     </row>
-    <row r="473" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="473">
       <c r="F473" s="20"/>
       <c r="G473" s="20"/>
       <c r="H473" s="20"/>
     </row>
-    <row r="474" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="474">
       <c r="F474" s="20"/>
       <c r="G474" s="20"/>
       <c r="H474" s="20"/>
     </row>
-    <row r="475" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="475">
       <c r="F475" s="20"/>
       <c r="G475" s="20"/>
       <c r="H475" s="20"/>
     </row>
-    <row r="476" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="476">
       <c r="F476" s="20"/>
       <c r="G476" s="20"/>
       <c r="H476" s="20"/>
     </row>
-    <row r="477" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="477">
       <c r="F477" s="20"/>
       <c r="G477" s="20"/>
       <c r="H477" s="20"/>
     </row>
-    <row r="478" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="478">
       <c r="F478" s="20"/>
       <c r="G478" s="20"/>
       <c r="H478" s="20"/>
     </row>
-    <row r="479" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="479">
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
       <c r="H479" s="20"/>
     </row>
-    <row r="480" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="480">
       <c r="F480" s="20"/>
       <c r="G480" s="20"/>
       <c r="H480" s="20"/>
     </row>
-    <row r="481" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="481">
       <c r="F481" s="20"/>
       <c r="G481" s="20"/>
       <c r="H481" s="20"/>
     </row>
-    <row r="482" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="482">
       <c r="F482" s="20"/>
       <c r="G482" s="20"/>
       <c r="H482" s="20"/>
     </row>
-    <row r="483" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="483">
       <c r="F483" s="20"/>
       <c r="G483" s="20"/>
       <c r="H483" s="20"/>
     </row>
-    <row r="484" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="484">
       <c r="F484" s="20"/>
       <c r="G484" s="20"/>
       <c r="H484" s="20"/>
     </row>
-    <row r="485" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="485">
       <c r="F485" s="20"/>
       <c r="G485" s="20"/>
       <c r="H485" s="20"/>
     </row>
-    <row r="486" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="486">
       <c r="F486" s="20"/>
       <c r="G486" s="20"/>
       <c r="H486" s="20"/>
     </row>
-    <row r="487" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="487">
       <c r="F487" s="20"/>
       <c r="G487" s="20"/>
       <c r="H487" s="20"/>
     </row>
-    <row r="488" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="488">
       <c r="F488" s="20"/>
       <c r="G488" s="20"/>
       <c r="H488" s="20"/>
     </row>
-    <row r="489" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="489">
       <c r="F489" s="20"/>
       <c r="G489" s="20"/>
       <c r="H489" s="20"/>
     </row>
-    <row r="490" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="490">
       <c r="F490" s="20"/>
       <c r="G490" s="20"/>
       <c r="H490" s="20"/>
     </row>
-    <row r="491" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="491">
       <c r="F491" s="20"/>
       <c r="G491" s="20"/>
       <c r="H491" s="20"/>
     </row>
-    <row r="492" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="492">
       <c r="F492" s="20"/>
       <c r="G492" s="20"/>
       <c r="H492" s="20"/>
     </row>
-    <row r="493" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="493">
       <c r="F493" s="20"/>
       <c r="G493" s="20"/>
       <c r="H493" s="20"/>
     </row>
-    <row r="494" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="494">
       <c r="F494" s="20"/>
       <c r="G494" s="20"/>
       <c r="H494" s="20"/>
     </row>
-    <row r="495" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="495">
       <c r="F495" s="20"/>
       <c r="G495" s="20"/>
       <c r="H495" s="20"/>
     </row>
-    <row r="496" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="496">
       <c r="F496" s="20"/>
       <c r="G496" s="20"/>
       <c r="H496" s="20"/>
     </row>
-    <row r="497" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="497">
       <c r="F497" s="20"/>
       <c r="G497" s="20"/>
       <c r="H497" s="20"/>
     </row>
-    <row r="498" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="498">
       <c r="F498" s="20"/>
       <c r="G498" s="20"/>
       <c r="H498" s="20"/>
     </row>
-    <row r="499" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="499">
       <c r="F499" s="20"/>
       <c r="G499" s="20"/>
       <c r="H499" s="20"/>
     </row>
-    <row r="500" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="500">
       <c r="F500" s="20"/>
       <c r="G500" s="20"/>
       <c r="H500" s="20"/>
     </row>
-    <row r="501" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="501">
       <c r="F501" s="20"/>
       <c r="G501" s="20"/>
       <c r="H501" s="20"/>
     </row>
-    <row r="502" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="502">
       <c r="F502" s="20"/>
       <c r="G502" s="20"/>
       <c r="H502" s="20"/>
     </row>
-    <row r="503" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="503">
       <c r="F503" s="20"/>
       <c r="G503" s="20"/>
       <c r="H503" s="20"/>
     </row>
-    <row r="504" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="504">
       <c r="F504" s="20"/>
       <c r="G504" s="20"/>
       <c r="H504" s="20"/>
     </row>
-    <row r="505" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="505">
       <c r="F505" s="20"/>
       <c r="G505" s="20"/>
       <c r="H505" s="20"/>
     </row>
-    <row r="506" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="506">
       <c r="F506" s="20"/>
       <c r="G506" s="20"/>
       <c r="H506" s="20"/>
     </row>
-    <row r="507" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="507">
       <c r="F507" s="20"/>
       <c r="G507" s="20"/>
       <c r="H507" s="20"/>
     </row>
-    <row r="508" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="508">
       <c r="F508" s="20"/>
       <c r="G508" s="20"/>
       <c r="H508" s="20"/>
     </row>
-    <row r="509" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="509">
       <c r="F509" s="20"/>
       <c r="G509" s="20"/>
       <c r="H509" s="20"/>
     </row>
-    <row r="510" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="510">
       <c r="F510" s="20"/>
       <c r="G510" s="20"/>
       <c r="H510" s="20"/>
     </row>
-    <row r="511" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="511">
       <c r="F511" s="20"/>
       <c r="G511" s="20"/>
       <c r="H511" s="20"/>
     </row>
-    <row r="512" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="512">
       <c r="F512" s="20"/>
       <c r="G512" s="20"/>
       <c r="H512" s="20"/>
     </row>
-    <row r="513" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="513">
       <c r="F513" s="20"/>
       <c r="G513" s="20"/>
       <c r="H513" s="20"/>
     </row>
-    <row r="514" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="514">
       <c r="F514" s="20"/>
       <c r="G514" s="20"/>
       <c r="H514" s="20"/>
     </row>
-    <row r="515" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="515">
       <c r="F515" s="20"/>
       <c r="G515" s="20"/>
       <c r="H515" s="20"/>
     </row>
-    <row r="516" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="516">
       <c r="F516" s="20"/>
       <c r="G516" s="20"/>
       <c r="H516" s="20"/>
     </row>
-    <row r="517" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="517">
       <c r="F517" s="20"/>
       <c r="G517" s="20"/>
       <c r="H517" s="20"/>
     </row>
-    <row r="518" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="518">
       <c r="F518" s="20"/>
       <c r="G518" s="20"/>
       <c r="H518" s="20"/>
     </row>
-    <row r="519" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="519">
       <c r="F519" s="20"/>
       <c r="G519" s="20"/>
       <c r="H519" s="20"/>
     </row>
-    <row r="520" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="520">
       <c r="F520" s="20"/>
       <c r="G520" s="20"/>
       <c r="H520" s="20"/>
     </row>
-    <row r="521" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="521">
       <c r="F521" s="20"/>
       <c r="G521" s="20"/>
       <c r="H521" s="20"/>
     </row>
-    <row r="522" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="522">
       <c r="F522" s="20"/>
       <c r="G522" s="20"/>
       <c r="H522" s="20"/>
     </row>
-    <row r="523" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="523">
       <c r="F523" s="20"/>
       <c r="G523" s="20"/>
       <c r="H523" s="20"/>
     </row>
-    <row r="524" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="524">
       <c r="F524" s="20"/>
       <c r="G524" s="20"/>
       <c r="H524" s="20"/>
     </row>
-    <row r="525" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="525">
       <c r="F525" s="20"/>
       <c r="G525" s="20"/>
       <c r="H525" s="20"/>
     </row>
-    <row r="526" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="526">
       <c r="F526" s="20"/>
       <c r="G526" s="20"/>
       <c r="H526" s="20"/>
     </row>
-    <row r="527" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="527">
       <c r="F527" s="20"/>
       <c r="G527" s="20"/>
       <c r="H527" s="20"/>
     </row>
-    <row r="528" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="528">
       <c r="F528" s="20"/>
       <c r="G528" s="20"/>
       <c r="H528" s="20"/>
     </row>
-    <row r="529" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="529">
       <c r="F529" s="20"/>
       <c r="G529" s="20"/>
       <c r="H529" s="20"/>
     </row>
-    <row r="530" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="530">
       <c r="F530" s="20"/>
       <c r="G530" s="20"/>
       <c r="H530" s="20"/>
     </row>
-    <row r="531" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="531">
       <c r="F531" s="20"/>
       <c r="G531" s="20"/>
       <c r="H531" s="20"/>
     </row>
-    <row r="532" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="532">
       <c r="F532" s="20"/>
       <c r="G532" s="20"/>
       <c r="H532" s="20"/>
     </row>
-    <row r="533" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="533">
       <c r="F533" s="20"/>
       <c r="G533" s="20"/>
       <c r="H533" s="20"/>
     </row>
-    <row r="534" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="534">
       <c r="F534" s="20"/>
       <c r="G534" s="20"/>
       <c r="H534" s="20"/>
     </row>
-    <row r="535" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="535">
       <c r="F535" s="20"/>
       <c r="G535" s="20"/>
       <c r="H535" s="20"/>
     </row>
-    <row r="536" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="536">
       <c r="F536" s="20"/>
       <c r="G536" s="20"/>
       <c r="H536" s="20"/>
     </row>
-    <row r="537" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="537">
       <c r="F537" s="20"/>
       <c r="G537" s="20"/>
       <c r="H537" s="20"/>
     </row>
-    <row r="538" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="538">
       <c r="F538" s="20"/>
       <c r="G538" s="20"/>
       <c r="H538" s="20"/>
     </row>
-    <row r="539" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="539">
       <c r="F539" s="20"/>
       <c r="G539" s="20"/>
       <c r="H539" s="20"/>
     </row>
-    <row r="540" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="540">
       <c r="F540" s="20"/>
       <c r="G540" s="20"/>
       <c r="H540" s="20"/>
     </row>
-    <row r="541" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="541">
       <c r="F541" s="20"/>
       <c r="G541" s="20"/>
       <c r="H541" s="20"/>
     </row>
-    <row r="542" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="542">
       <c r="F542" s="20"/>
       <c r="G542" s="20"/>
       <c r="H542" s="20"/>
     </row>
-    <row r="543" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="543">
       <c r="F543" s="20"/>
       <c r="G543" s="20"/>
       <c r="H543" s="20"/>
     </row>
-    <row r="544" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="544">
       <c r="F544" s="20"/>
       <c r="G544" s="20"/>
       <c r="H544" s="20"/>
     </row>
-    <row r="545" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="545">
       <c r="F545" s="20"/>
       <c r="G545" s="20"/>
       <c r="H545" s="20"/>
     </row>
-    <row r="546" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="546">
       <c r="F546" s="20"/>
       <c r="G546" s="20"/>
       <c r="H546" s="20"/>
     </row>
-    <row r="547" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="547">
       <c r="F547" s="20"/>
       <c r="G547" s="20"/>
       <c r="H547" s="20"/>
     </row>
-    <row r="548" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="548">
       <c r="F548" s="20"/>
       <c r="G548" s="20"/>
       <c r="H548" s="20"/>
     </row>
-    <row r="549" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="549">
       <c r="F549" s="20"/>
       <c r="G549" s="20"/>
       <c r="H549" s="20"/>
     </row>
-    <row r="550" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="550">
       <c r="F550" s="20"/>
       <c r="G550" s="20"/>
       <c r="H550" s="20"/>
     </row>
-    <row r="551" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="551">
       <c r="F551" s="20"/>
       <c r="G551" s="20"/>
       <c r="H551" s="20"/>
     </row>
-    <row r="552" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="552">
       <c r="F552" s="20"/>
       <c r="G552" s="20"/>
       <c r="H552" s="20"/>
     </row>
-    <row r="553" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="553">
       <c r="F553" s="20"/>
       <c r="G553" s="20"/>
       <c r="H553" s="20"/>
     </row>
-    <row r="554" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="554">
       <c r="F554" s="20"/>
       <c r="G554" s="20"/>
       <c r="H554" s="20"/>
     </row>
-    <row r="555" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="555">
       <c r="F555" s="20"/>
       <c r="G555" s="20"/>
       <c r="H555" s="20"/>
     </row>
-    <row r="556" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="556">
       <c r="F556" s="20"/>
       <c r="G556" s="20"/>
       <c r="H556" s="20"/>
     </row>
-    <row r="557" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="557">
       <c r="F557" s="20"/>
       <c r="G557" s="20"/>
       <c r="H557" s="20"/>
     </row>
-    <row r="558" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="558">
       <c r="F558" s="20"/>
       <c r="G558" s="20"/>
       <c r="H558" s="20"/>
     </row>
-    <row r="559" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="559">
       <c r="F559" s="20"/>
       <c r="G559" s="20"/>
       <c r="H559" s="20"/>
     </row>
-    <row r="560" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="560">
       <c r="F560" s="20"/>
       <c r="G560" s="20"/>
       <c r="H560" s="20"/>
     </row>
-    <row r="561" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="561">
       <c r="F561" s="20"/>
       <c r="G561" s="20"/>
       <c r="H561" s="20"/>
     </row>
-    <row r="562" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="562">
       <c r="F562" s="20"/>
       <c r="G562" s="20"/>
       <c r="H562" s="20"/>
     </row>
-    <row r="563" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="563">
       <c r="F563" s="20"/>
       <c r="G563" s="20"/>
       <c r="H563" s="20"/>
     </row>
-    <row r="564" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="564">
       <c r="F564" s="20"/>
       <c r="G564" s="20"/>
       <c r="H564" s="20"/>
     </row>
-    <row r="565" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="565">
       <c r="F565" s="20"/>
       <c r="G565" s="20"/>
       <c r="H565" s="20"/>
     </row>
-    <row r="566" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="566">
       <c r="F566" s="20"/>
       <c r="G566" s="20"/>
       <c r="H566" s="20"/>
     </row>
-    <row r="567" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="567">
       <c r="F567" s="20"/>
       <c r="G567" s="20"/>
       <c r="H567" s="20"/>
     </row>
-    <row r="568" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="568">
       <c r="F568" s="20"/>
       <c r="G568" s="20"/>
       <c r="H568" s="20"/>
     </row>
-    <row r="569" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="569">
       <c r="F569" s="20"/>
       <c r="G569" s="20"/>
       <c r="H569" s="20"/>
     </row>
-    <row r="570" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="570">
       <c r="F570" s="20"/>
       <c r="G570" s="20"/>
       <c r="H570" s="20"/>
     </row>
-    <row r="571" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="571">
       <c r="F571" s="20"/>
       <c r="G571" s="20"/>
       <c r="H571" s="20"/>
     </row>
-    <row r="572" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="572">
       <c r="F572" s="20"/>
       <c r="G572" s="20"/>
       <c r="H572" s="20"/>
     </row>
-    <row r="573" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="573">
       <c r="F573" s="20"/>
       <c r="G573" s="20"/>
       <c r="H573" s="20"/>
     </row>
-    <row r="574" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="574">
       <c r="F574" s="20"/>
       <c r="G574" s="20"/>
       <c r="H574" s="20"/>
     </row>
-    <row r="575" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="575">
       <c r="F575" s="20"/>
       <c r="G575" s="20"/>
       <c r="H575" s="20"/>
     </row>
-    <row r="576" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="576">
       <c r="F576" s="20"/>
       <c r="G576" s="20"/>
       <c r="H576" s="20"/>
     </row>
-    <row r="577" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="577">
       <c r="F577" s="20"/>
       <c r="G577" s="20"/>
       <c r="H577" s="20"/>
     </row>
-    <row r="578" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="578">
       <c r="F578" s="20"/>
       <c r="G578" s="20"/>
       <c r="H578" s="20"/>
     </row>
-    <row r="579" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="579">
       <c r="F579" s="20"/>
       <c r="G579" s="20"/>
       <c r="H579" s="20"/>
     </row>
-    <row r="580" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="580">
       <c r="F580" s="20"/>
       <c r="G580" s="20"/>
       <c r="H580" s="20"/>
     </row>
-    <row r="581" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="581">
       <c r="F581" s="20"/>
       <c r="G581" s="20"/>
       <c r="H581" s="20"/>
     </row>
-    <row r="582" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="582">
       <c r="F582" s="20"/>
       <c r="G582" s="20"/>
       <c r="H582" s="20"/>
     </row>
-    <row r="583" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="583">
       <c r="F583" s="20"/>
       <c r="G583" s="20"/>
       <c r="H583" s="20"/>
     </row>
-    <row r="584" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="584">
       <c r="F584" s="20"/>
       <c r="G584" s="20"/>
       <c r="H584" s="20"/>
     </row>
-    <row r="585" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="585">
       <c r="F585" s="20"/>
       <c r="G585" s="20"/>
       <c r="H585" s="20"/>
     </row>
-    <row r="586" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="586">
       <c r="F586" s="20"/>
       <c r="G586" s="20"/>
       <c r="H586" s="20"/>
     </row>
-    <row r="587" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="587">
       <c r="F587" s="20"/>
       <c r="G587" s="20"/>
       <c r="H587" s="20"/>
     </row>
-    <row r="588" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="588">
       <c r="F588" s="20"/>
       <c r="G588" s="20"/>
       <c r="H588" s="20"/>
     </row>
-    <row r="589" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="589">
       <c r="F589" s="20"/>
       <c r="G589" s="20"/>
       <c r="H589" s="20"/>
     </row>
-    <row r="590" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="590">
       <c r="F590" s="20"/>
       <c r="G590" s="20"/>
       <c r="H590" s="20"/>
     </row>
-    <row r="591" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="591">
       <c r="F591" s="20"/>
       <c r="G591" s="20"/>
       <c r="H591" s="20"/>
     </row>
-    <row r="592" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="592">
       <c r="F592" s="20"/>
       <c r="G592" s="20"/>
       <c r="H592" s="20"/>
     </row>
-    <row r="593" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="593">
       <c r="F593" s="20"/>
       <c r="G593" s="20"/>
       <c r="H593" s="20"/>
     </row>
-    <row r="594" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="594">
       <c r="F594" s="20"/>
       <c r="G594" s="20"/>
       <c r="H594" s="20"/>
     </row>
-    <row r="595" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="595">
       <c r="F595" s="20"/>
       <c r="G595" s="20"/>
       <c r="H595" s="20"/>
     </row>
-    <row r="596" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="596">
       <c r="F596" s="20"/>
       <c r="G596" s="20"/>
       <c r="H596" s="20"/>
     </row>
-    <row r="597" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="597">
       <c r="F597" s="20"/>
       <c r="G597" s="20"/>
       <c r="H597" s="20"/>
     </row>
-    <row r="598" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="598">
       <c r="F598" s="20"/>
       <c r="G598" s="20"/>
       <c r="H598" s="20"/>
     </row>
-    <row r="599" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="599">
       <c r="F599" s="20"/>
       <c r="G599" s="20"/>
       <c r="H599" s="20"/>
     </row>
-    <row r="600" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="600">
       <c r="F600" s="20"/>
       <c r="G600" s="20"/>
       <c r="H600" s="20"/>
     </row>
-    <row r="601" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="601">
       <c r="F601" s="20"/>
       <c r="G601" s="20"/>
       <c r="H601" s="20"/>
     </row>
-    <row r="602" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="602">
       <c r="F602" s="20"/>
       <c r="G602" s="20"/>
       <c r="H602" s="20"/>
     </row>
-    <row r="603" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="603">
       <c r="F603" s="20"/>
       <c r="G603" s="20"/>
       <c r="H603" s="20"/>
     </row>
-    <row r="604" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="604">
       <c r="F604" s="20"/>
       <c r="G604" s="20"/>
       <c r="H604" s="20"/>
     </row>
-    <row r="605" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="605">
       <c r="F605" s="20"/>
       <c r="G605" s="20"/>
       <c r="H605" s="20"/>
     </row>
-    <row r="606" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="606">
       <c r="F606" s="20"/>
       <c r="G606" s="20"/>
       <c r="H606" s="20"/>
     </row>
-    <row r="607" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="607">
       <c r="F607" s="20"/>
       <c r="G607" s="20"/>
       <c r="H607" s="20"/>
     </row>
-    <row r="608" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="608">
       <c r="F608" s="20"/>
       <c r="G608" s="20"/>
       <c r="H608" s="20"/>
     </row>
-    <row r="609" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="609">
       <c r="F609" s="20"/>
       <c r="G609" s="20"/>
       <c r="H609" s="20"/>
     </row>
-    <row r="610" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="610">
       <c r="F610" s="20"/>
       <c r="G610" s="20"/>
       <c r="H610" s="20"/>
     </row>
-    <row r="611" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="611">
       <c r="F611" s="20"/>
       <c r="G611" s="20"/>
       <c r="H611" s="20"/>
     </row>
-    <row r="612" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="612">
       <c r="F612" s="20"/>
       <c r="G612" s="20"/>
       <c r="H612" s="20"/>
     </row>
-    <row r="613" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="613">
       <c r="F613" s="20"/>
       <c r="G613" s="20"/>
       <c r="H613" s="20"/>
     </row>
-    <row r="614" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="614">
       <c r="F614" s="20"/>
       <c r="G614" s="20"/>
       <c r="H614" s="20"/>
     </row>
-    <row r="615" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="615">
       <c r="F615" s="20"/>
       <c r="G615" s="20"/>
       <c r="H615" s="20"/>
     </row>
-    <row r="616" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="616">
       <c r="F616" s="20"/>
       <c r="G616" s="20"/>
       <c r="H616" s="20"/>
     </row>
-    <row r="617" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="617">
       <c r="F617" s="20"/>
       <c r="G617" s="20"/>
       <c r="H617" s="20"/>
     </row>
-    <row r="618" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="618">
       <c r="F618" s="20"/>
       <c r="G618" s="20"/>
       <c r="H618" s="20"/>
     </row>
-    <row r="619" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="619">
       <c r="F619" s="20"/>
       <c r="G619" s="20"/>
       <c r="H619" s="20"/>
     </row>
-    <row r="620" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="620">
       <c r="F620" s="20"/>
       <c r="G620" s="20"/>
       <c r="H620" s="20"/>
     </row>
-    <row r="621" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="621">
       <c r="F621" s="20"/>
       <c r="G621" s="20"/>
       <c r="H621" s="20"/>
     </row>
-    <row r="622" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="622">
       <c r="F622" s="20"/>
       <c r="G622" s="20"/>
       <c r="H622" s="20"/>
     </row>
-    <row r="623" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="623">
       <c r="F623" s="20"/>
       <c r="G623" s="20"/>
       <c r="H623" s="20"/>
     </row>
-    <row r="624" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="624">
       <c r="F624" s="20"/>
       <c r="G624" s="20"/>
       <c r="H624" s="20"/>
     </row>
-    <row r="625" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="625">
       <c r="F625" s="20"/>
       <c r="G625" s="20"/>
       <c r="H625" s="20"/>
     </row>
-    <row r="626" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="626">
       <c r="F626" s="20"/>
       <c r="G626" s="20"/>
       <c r="H626" s="20"/>
     </row>
-    <row r="627" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="627">
       <c r="F627" s="20"/>
       <c r="G627" s="20"/>
       <c r="H627" s="20"/>
     </row>
-    <row r="628" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="628">
       <c r="F628" s="20"/>
       <c r="G628" s="20"/>
       <c r="H628" s="20"/>
     </row>
-    <row r="629" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="629">
       <c r="F629" s="20"/>
       <c r="G629" s="20"/>
       <c r="H629" s="20"/>
     </row>
-    <row r="630" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="630">
       <c r="F630" s="20"/>
       <c r="G630" s="20"/>
       <c r="H630" s="20"/>
     </row>
-    <row r="631" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="631">
       <c r="F631" s="20"/>
       <c r="G631" s="20"/>
       <c r="H631" s="20"/>
     </row>
-    <row r="632" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="632">
       <c r="F632" s="20"/>
       <c r="G632" s="20"/>
       <c r="H632" s="20"/>
     </row>
-    <row r="633" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="633">
       <c r="F633" s="20"/>
       <c r="G633" s="20"/>
       <c r="H633" s="20"/>
     </row>
-    <row r="634" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="634">
       <c r="F634" s="20"/>
       <c r="G634" s="20"/>
       <c r="H634" s="20"/>
     </row>
-    <row r="635" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="635">
       <c r="F635" s="20"/>
       <c r="G635" s="20"/>
       <c r="H635" s="20"/>
     </row>
-    <row r="636" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="636">
       <c r="F636" s="20"/>
       <c r="G636" s="20"/>
       <c r="H636" s="20"/>
     </row>
-    <row r="637" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="637">
       <c r="F637" s="20"/>
       <c r="G637" s="20"/>
       <c r="H637" s="20"/>
     </row>
-    <row r="638" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="638">
       <c r="F638" s="20"/>
       <c r="G638" s="20"/>
       <c r="H638" s="20"/>
     </row>
-    <row r="639" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="639">
       <c r="F639" s="20"/>
       <c r="G639" s="20"/>
       <c r="H639" s="20"/>
     </row>
-    <row r="640" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="640">
       <c r="F640" s="20"/>
       <c r="G640" s="20"/>
       <c r="H640" s="20"/>
     </row>
-    <row r="641" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="641">
       <c r="F641" s="20"/>
       <c r="G641" s="20"/>
       <c r="H641" s="20"/>
     </row>
-    <row r="642" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="642">
       <c r="F642" s="20"/>
       <c r="G642" s="20"/>
       <c r="H642" s="20"/>
     </row>
-    <row r="643" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="643">
       <c r="F643" s="20"/>
       <c r="G643" s="20"/>
       <c r="H643" s="20"/>
     </row>
-    <row r="644" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="644">
       <c r="F644" s="20"/>
       <c r="G644" s="20"/>
       <c r="H644" s="20"/>
     </row>
-    <row r="645" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="645">
       <c r="F645" s="20"/>
       <c r="G645" s="20"/>
       <c r="H645" s="20"/>
     </row>
-    <row r="646" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="646">
       <c r="F646" s="20"/>
       <c r="G646" s="20"/>
       <c r="H646" s="20"/>
     </row>
-    <row r="647" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="647">
       <c r="F647" s="20"/>
       <c r="G647" s="20"/>
       <c r="H647" s="20"/>
     </row>
-    <row r="648" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="648">
       <c r="F648" s="20"/>
       <c r="G648" s="20"/>
       <c r="H648" s="20"/>
     </row>
-    <row r="649" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="649">
       <c r="F649" s="20"/>
       <c r="G649" s="20"/>
       <c r="H649" s="20"/>
     </row>
-    <row r="650" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="650">
       <c r="F650" s="20"/>
       <c r="G650" s="20"/>
       <c r="H650" s="20"/>
     </row>
-    <row r="651" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="651">
       <c r="F651" s="20"/>
       <c r="G651" s="20"/>
       <c r="H651" s="20"/>
     </row>
-    <row r="652" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="652">
       <c r="F652" s="20"/>
       <c r="G652" s="20"/>
       <c r="H652" s="20"/>
     </row>
-    <row r="653" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="653">
       <c r="F653" s="20"/>
       <c r="G653" s="20"/>
       <c r="H653" s="20"/>
     </row>
-    <row r="654" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="654">
       <c r="F654" s="20"/>
       <c r="G654" s="20"/>
       <c r="H654" s="20"/>
     </row>
-    <row r="655" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="655">
       <c r="F655" s="20"/>
       <c r="G655" s="20"/>
       <c r="H655" s="20"/>
     </row>
-    <row r="656" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="656">
       <c r="F656" s="20"/>
       <c r="G656" s="20"/>
       <c r="H656" s="20"/>
     </row>
-    <row r="657" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="657">
       <c r="F657" s="20"/>
       <c r="G657" s="20"/>
       <c r="H657" s="20"/>
     </row>
-    <row r="658" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="658">
       <c r="F658" s="20"/>
       <c r="G658" s="20"/>
       <c r="H658" s="20"/>
     </row>
-    <row r="659" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="659">
       <c r="F659" s="20"/>
       <c r="G659" s="20"/>
       <c r="H659" s="20"/>
     </row>
-    <row r="660" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="660">
       <c r="F660" s="20"/>
       <c r="G660" s="20"/>
       <c r="H660" s="20"/>
     </row>
-    <row r="661" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="661">
       <c r="F661" s="20"/>
       <c r="G661" s="20"/>
       <c r="H661" s="20"/>
     </row>
-    <row r="662" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="662">
       <c r="F662" s="20"/>
       <c r="G662" s="20"/>
       <c r="H662" s="20"/>
     </row>
-    <row r="663" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="663">
       <c r="F663" s="20"/>
       <c r="G663" s="20"/>
       <c r="H663" s="20"/>
     </row>
-    <row r="664" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="664">
       <c r="F664" s="20"/>
       <c r="G664" s="20"/>
       <c r="H664" s="20"/>
     </row>
-    <row r="665" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="665">
       <c r="F665" s="20"/>
       <c r="G665" s="20"/>
       <c r="H665" s="20"/>
     </row>
-    <row r="666" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="666">
       <c r="F666" s="20"/>
       <c r="G666" s="20"/>
       <c r="H666" s="20"/>
     </row>
-    <row r="667" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="667">
       <c r="F667" s="20"/>
       <c r="G667" s="20"/>
       <c r="H667" s="20"/>
     </row>
-    <row r="668" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="668">
       <c r="F668" s="20"/>
       <c r="G668" s="20"/>
       <c r="H668" s="20"/>
     </row>
-    <row r="669" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="669">
       <c r="F669" s="20"/>
       <c r="G669" s="20"/>
       <c r="H669" s="20"/>
     </row>
-    <row r="670" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="670">
       <c r="F670" s="20"/>
       <c r="G670" s="20"/>
       <c r="H670" s="20"/>
     </row>
-    <row r="671" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="671">
       <c r="F671" s="20"/>
       <c r="G671" s="20"/>
       <c r="H671" s="20"/>
     </row>
-    <row r="672" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="672">
       <c r="F672" s="20"/>
       <c r="G672" s="20"/>
       <c r="H672" s="20"/>
     </row>
-    <row r="673" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="673">
       <c r="F673" s="20"/>
       <c r="G673" s="20"/>
       <c r="H673" s="20"/>
     </row>
-    <row r="674" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="674">
       <c r="F674" s="20"/>
       <c r="G674" s="20"/>
       <c r="H674" s="20"/>
     </row>
-    <row r="675" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="675">
       <c r="F675" s="20"/>
       <c r="G675" s="20"/>
       <c r="H675" s="20"/>
     </row>
-    <row r="676" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="676">
       <c r="F676" s="20"/>
       <c r="G676" s="20"/>
       <c r="H676" s="20"/>
     </row>
-    <row r="677" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="677">
       <c r="F677" s="20"/>
       <c r="G677" s="20"/>
       <c r="H677" s="20"/>
     </row>
-    <row r="678" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="678">
       <c r="F678" s="20"/>
       <c r="G678" s="20"/>
       <c r="H678" s="20"/>
     </row>
-    <row r="679" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="679">
       <c r="F679" s="20"/>
       <c r="G679" s="20"/>
       <c r="H679" s="20"/>
     </row>
-    <row r="680" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="680">
       <c r="F680" s="20"/>
       <c r="G680" s="20"/>
       <c r="H680" s="20"/>
     </row>
-    <row r="681" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="681">
       <c r="F681" s="20"/>
       <c r="G681" s="20"/>
       <c r="H681" s="20"/>
     </row>
-    <row r="682" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="682">
       <c r="F682" s="20"/>
       <c r="G682" s="20"/>
       <c r="H682" s="20"/>
     </row>
-    <row r="683" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="683">
       <c r="F683" s="20"/>
       <c r="G683" s="20"/>
       <c r="H683" s="20"/>
     </row>
-    <row r="684" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="684">
       <c r="F684" s="20"/>
       <c r="G684" s="20"/>
       <c r="H684" s="20"/>
     </row>
-    <row r="685" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="685">
       <c r="F685" s="20"/>
       <c r="G685" s="20"/>
       <c r="H685" s="20"/>
     </row>
-    <row r="686" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="686">
       <c r="F686" s="20"/>
       <c r="G686" s="20"/>
       <c r="H686" s="20"/>
     </row>
-    <row r="687" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="687">
       <c r="F687" s="20"/>
       <c r="G687" s="20"/>
       <c r="H687" s="20"/>
     </row>
-    <row r="688" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="688">
       <c r="F688" s="20"/>
       <c r="G688" s="20"/>
       <c r="H688" s="20"/>
     </row>
-    <row r="689" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="689">
       <c r="F689" s="20"/>
       <c r="G689" s="20"/>
       <c r="H689" s="20"/>
     </row>
-    <row r="690" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="690">
       <c r="F690" s="20"/>
       <c r="G690" s="20"/>
       <c r="H690" s="20"/>
     </row>
-    <row r="691" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="691">
       <c r="F691" s="20"/>
       <c r="G691" s="20"/>
       <c r="H691" s="20"/>
     </row>
-    <row r="692" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="692">
       <c r="F692" s="20"/>
       <c r="G692" s="20"/>
       <c r="H692" s="20"/>
     </row>
-    <row r="693" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="693">
       <c r="F693" s="20"/>
       <c r="G693" s="20"/>
       <c r="H693" s="20"/>
     </row>
-    <row r="694" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="694">
       <c r="F694" s="20"/>
       <c r="G694" s="20"/>
       <c r="H694" s="20"/>
     </row>
-    <row r="695" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="695">
       <c r="F695" s="20"/>
       <c r="G695" s="20"/>
       <c r="H695" s="20"/>
     </row>
-    <row r="696" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="696">
       <c r="F696" s="20"/>
       <c r="G696" s="20"/>
       <c r="H696" s="20"/>
     </row>
-    <row r="697" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="697">
       <c r="F697" s="20"/>
       <c r="G697" s="20"/>
       <c r="H697" s="20"/>
     </row>
-    <row r="698" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="698">
       <c r="F698" s="20"/>
       <c r="G698" s="20"/>
       <c r="H698" s="20"/>
     </row>
-    <row r="699" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="699">
       <c r="F699" s="20"/>
       <c r="G699" s="20"/>
       <c r="H699" s="20"/>
     </row>
-    <row r="700" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="700">
       <c r="F700" s="20"/>
       <c r="G700" s="20"/>
       <c r="H700" s="20"/>
     </row>
-    <row r="701" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="701">
       <c r="F701" s="20"/>
       <c r="G701" s="20"/>
       <c r="H701" s="20"/>
     </row>
-    <row r="702" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="702">
       <c r="F702" s="20"/>
       <c r="G702" s="20"/>
       <c r="H702" s="20"/>
     </row>
-    <row r="703" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="703">
       <c r="F703" s="20"/>
       <c r="G703" s="20"/>
       <c r="H703" s="20"/>
     </row>
-    <row r="704" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="704">
       <c r="F704" s="20"/>
       <c r="G704" s="20"/>
       <c r="H704" s="20"/>
     </row>
-    <row r="705" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="705">
       <c r="F705" s="20"/>
       <c r="G705" s="20"/>
       <c r="H705" s="20"/>
     </row>
-    <row r="706" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="706">
       <c r="F706" s="20"/>
       <c r="G706" s="20"/>
       <c r="H706" s="20"/>
     </row>
-    <row r="707" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="707">
       <c r="F707" s="20"/>
       <c r="G707" s="20"/>
       <c r="H707" s="20"/>
     </row>
-    <row r="708" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="708">
       <c r="F708" s="20"/>
       <c r="G708" s="20"/>
       <c r="H708" s="20"/>
     </row>
-    <row r="709" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="709">
       <c r="F709" s="20"/>
       <c r="G709" s="20"/>
       <c r="H709" s="20"/>
     </row>
-    <row r="710" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="710">
       <c r="F710" s="20"/>
       <c r="G710" s="20"/>
       <c r="H710" s="20"/>
     </row>
-    <row r="711" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="711">
       <c r="F711" s="20"/>
       <c r="G711" s="20"/>
       <c r="H711" s="20"/>
     </row>
-    <row r="712" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="712">
       <c r="F712" s="20"/>
       <c r="G712" s="20"/>
       <c r="H712" s="20"/>
     </row>
-    <row r="713" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="713">
       <c r="F713" s="20"/>
       <c r="G713" s="20"/>
       <c r="H713" s="20"/>
     </row>
-    <row r="714" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="714">
       <c r="F714" s="20"/>
       <c r="G714" s="20"/>
       <c r="H714" s="20"/>
     </row>
-    <row r="715" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="715">
       <c r="F715" s="20"/>
       <c r="G715" s="20"/>
       <c r="H715" s="20"/>
     </row>
-    <row r="716" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="716">
       <c r="F716" s="20"/>
       <c r="G716" s="20"/>
       <c r="H716" s="20"/>
     </row>
-    <row r="717" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="717">
       <c r="F717" s="20"/>
       <c r="G717" s="20"/>
       <c r="H717" s="20"/>
     </row>
-    <row r="718" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="718">
       <c r="F718" s="20"/>
       <c r="G718" s="20"/>
       <c r="H718" s="20"/>
     </row>
-    <row r="719" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="719">
       <c r="F719" s="20"/>
       <c r="G719" s="20"/>
       <c r="H719" s="20"/>
     </row>
-    <row r="720" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="720">
       <c r="F720" s="20"/>
       <c r="G720" s="20"/>
       <c r="H720" s="20"/>
     </row>
-    <row r="721" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="721">
       <c r="F721" s="20"/>
       <c r="G721" s="20"/>
       <c r="H721" s="20"/>
     </row>
-    <row r="722" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="722">
       <c r="F722" s="20"/>
       <c r="G722" s="20"/>
       <c r="H722" s="20"/>
     </row>
-    <row r="723" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="723">
       <c r="F723" s="20"/>
       <c r="G723" s="20"/>
       <c r="H723" s="20"/>
     </row>
-    <row r="724" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="724">
       <c r="F724" s="20"/>
       <c r="G724" s="20"/>
       <c r="H724" s="20"/>
     </row>
-    <row r="725" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="725">
       <c r="F725" s="20"/>
       <c r="G725" s="20"/>
       <c r="H725" s="20"/>
     </row>
-    <row r="726" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="726">
       <c r="F726" s="20"/>
       <c r="G726" s="20"/>
       <c r="H726" s="20"/>
     </row>
-    <row r="727" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="727">
       <c r="F727" s="20"/>
       <c r="G727" s="20"/>
       <c r="H727" s="20"/>
     </row>
-    <row r="728" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="728">
       <c r="F728" s="20"/>
       <c r="G728" s="20"/>
       <c r="H728" s="20"/>
     </row>
-    <row r="729" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="729">
       <c r="F729" s="20"/>
       <c r="G729" s="20"/>
       <c r="H729" s="20"/>
     </row>
-    <row r="730" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="730">
       <c r="F730" s="20"/>
       <c r="G730" s="20"/>
       <c r="H730" s="20"/>
     </row>
-    <row r="731" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="731">
       <c r="F731" s="20"/>
       <c r="G731" s="20"/>
       <c r="H731" s="20"/>
     </row>
-    <row r="732" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="732">
       <c r="F732" s="20"/>
       <c r="G732" s="20"/>
       <c r="H732" s="20"/>
     </row>
-    <row r="733" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="733">
       <c r="F733" s="20"/>
       <c r="G733" s="20"/>
       <c r="H733" s="20"/>
     </row>
-    <row r="734" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="734">
       <c r="F734" s="20"/>
       <c r="G734" s="20"/>
       <c r="H734" s="20"/>
     </row>
-    <row r="735" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="735">
       <c r="F735" s="20"/>
       <c r="G735" s="20"/>
       <c r="H735" s="20"/>
     </row>
-    <row r="736" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="736">
       <c r="F736" s="20"/>
       <c r="G736" s="20"/>
       <c r="H736" s="20"/>
     </row>
-    <row r="737" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="737">
       <c r="F737" s="20"/>
       <c r="G737" s="20"/>
       <c r="H737" s="20"/>
     </row>
-    <row r="738" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="738">
       <c r="F738" s="20"/>
       <c r="G738" s="20"/>
       <c r="H738" s="20"/>
     </row>
-    <row r="739" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="739">
       <c r="F739" s="20"/>
       <c r="G739" s="20"/>
       <c r="H739" s="20"/>
     </row>
-    <row r="740" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="740">
       <c r="F740" s="20"/>
       <c r="G740" s="20"/>
       <c r="H740" s="20"/>
     </row>
-    <row r="741" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="741">
       <c r="F741" s="20"/>
       <c r="G741" s="20"/>
       <c r="H741" s="20"/>
     </row>
-    <row r="742" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="742">
       <c r="F742" s="20"/>
       <c r="G742" s="20"/>
       <c r="H742" s="20"/>
     </row>
-    <row r="743" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="743">
       <c r="F743" s="20"/>
       <c r="G743" s="20"/>
       <c r="H743" s="20"/>
     </row>
-    <row r="744" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="744">
       <c r="F744" s="20"/>
       <c r="G744" s="20"/>
       <c r="H744" s="20"/>
     </row>
-    <row r="745" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="745">
       <c r="F745" s="20"/>
       <c r="G745" s="20"/>
       <c r="H745" s="20"/>
     </row>
-    <row r="746" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="746">
       <c r="F746" s="20"/>
       <c r="G746" s="20"/>
       <c r="H746" s="20"/>
     </row>
-    <row r="747" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="747">
       <c r="F747" s="20"/>
       <c r="G747" s="20"/>
       <c r="H747" s="20"/>
     </row>
-    <row r="748" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="748">
       <c r="F748" s="20"/>
       <c r="G748" s="20"/>
       <c r="H748" s="20"/>
     </row>
-    <row r="749" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="749">
       <c r="F749" s="20"/>
       <c r="G749" s="20"/>
       <c r="H749" s="20"/>
     </row>
-    <row r="750" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="750">
       <c r="F750" s="20"/>
       <c r="G750" s="20"/>
       <c r="H750" s="20"/>
     </row>
-    <row r="751" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="751">
       <c r="F751" s="20"/>
       <c r="G751" s="20"/>
       <c r="H751" s="20"/>
     </row>
-    <row r="752" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="752">
       <c r="F752" s="20"/>
       <c r="G752" s="20"/>
       <c r="H752" s="20"/>
     </row>
-    <row r="753" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="753">
       <c r="F753" s="20"/>
       <c r="G753" s="20"/>
       <c r="H753" s="20"/>
     </row>
-    <row r="754" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="754">
       <c r="F754" s="20"/>
       <c r="G754" s="20"/>
       <c r="H754" s="20"/>
     </row>
-    <row r="755" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="755">
       <c r="F755" s="20"/>
       <c r="G755" s="20"/>
       <c r="H755" s="20"/>
     </row>
-    <row r="756" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="756">
       <c r="F756" s="20"/>
       <c r="G756" s="20"/>
       <c r="H756" s="20"/>
     </row>
-    <row r="757" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="757">
       <c r="F757" s="20"/>
       <c r="G757" s="20"/>
       <c r="H757" s="20"/>
     </row>
-    <row r="758" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="758">
       <c r="F758" s="20"/>
       <c r="G758" s="20"/>
       <c r="H758" s="20"/>
     </row>
-    <row r="759" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="759">
       <c r="F759" s="20"/>
       <c r="G759" s="20"/>
       <c r="H759" s="20"/>
     </row>
-    <row r="760" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="760">
       <c r="F760" s="20"/>
       <c r="G760" s="20"/>
       <c r="H760" s="20"/>
     </row>
-    <row r="761" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="761">
       <c r="F761" s="20"/>
       <c r="G761" s="20"/>
       <c r="H761" s="20"/>
     </row>
-    <row r="762" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="762">
       <c r="F762" s="20"/>
       <c r="G762" s="20"/>
       <c r="H762" s="20"/>
     </row>
-    <row r="763" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="763">
       <c r="F763" s="20"/>
       <c r="G763" s="20"/>
       <c r="H763" s="20"/>
     </row>
-    <row r="764" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="764">
       <c r="F764" s="20"/>
       <c r="G764" s="20"/>
       <c r="H764" s="20"/>
     </row>
-    <row r="765" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="765">
       <c r="F765" s="20"/>
       <c r="G765" s="20"/>
       <c r="H765" s="20"/>
     </row>
-    <row r="766" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="766">
       <c r="F766" s="20"/>
       <c r="G766" s="20"/>
       <c r="H766" s="20"/>
     </row>
-    <row r="767" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="767">
       <c r="F767" s="20"/>
       <c r="G767" s="20"/>
       <c r="H767" s="20"/>
     </row>
-    <row r="768" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="768">
       <c r="F768" s="20"/>
       <c r="G768" s="20"/>
       <c r="H768" s="20"/>
     </row>
-    <row r="769" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="769">
       <c r="F769" s="20"/>
       <c r="G769" s="20"/>
       <c r="H769" s="20"/>
     </row>
-    <row r="770" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="770">
       <c r="F770" s="20"/>
       <c r="G770" s="20"/>
       <c r="H770" s="20"/>
     </row>
-    <row r="771" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="771">
       <c r="F771" s="20"/>
       <c r="G771" s="20"/>
       <c r="H771" s="20"/>
     </row>
-    <row r="772" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="772">
       <c r="F772" s="20"/>
       <c r="G772" s="20"/>
       <c r="H772" s="20"/>
     </row>
-    <row r="773" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="773">
       <c r="F773" s="20"/>
       <c r="G773" s="20"/>
       <c r="H773" s="20"/>
     </row>
-    <row r="774" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="774">
       <c r="F774" s="20"/>
       <c r="G774" s="20"/>
       <c r="H774" s="20"/>
     </row>
-    <row r="775" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="775">
       <c r="F775" s="20"/>
       <c r="G775" s="20"/>
       <c r="H775" s="20"/>
     </row>
-    <row r="776" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="776">
       <c r="F776" s="20"/>
       <c r="G776" s="20"/>
       <c r="H776" s="20"/>
     </row>
-    <row r="777" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="777">
       <c r="F777" s="20"/>
       <c r="G777" s="20"/>
       <c r="H777" s="20"/>
     </row>
-    <row r="778" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="778">
       <c r="F778" s="20"/>
       <c r="G778" s="20"/>
       <c r="H778" s="20"/>
     </row>
-    <row r="779" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="779">
       <c r="F779" s="20"/>
       <c r="G779" s="20"/>
       <c r="H779" s="20"/>
     </row>
-    <row r="780" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="780">
       <c r="F780" s="20"/>
       <c r="G780" s="20"/>
       <c r="H780" s="20"/>
     </row>
-    <row r="781" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="781">
       <c r="F781" s="20"/>
       <c r="G781" s="20"/>
       <c r="H781" s="20"/>
     </row>
-    <row r="782" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="782">
       <c r="F782" s="20"/>
       <c r="G782" s="20"/>
       <c r="H782" s="20"/>
     </row>
-    <row r="783" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="783">
       <c r="F783" s="20"/>
       <c r="G783" s="20"/>
       <c r="H783" s="20"/>
     </row>
-    <row r="784" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="784">
       <c r="F784" s="20"/>
       <c r="G784" s="20"/>
       <c r="H784" s="20"/>
     </row>
-    <row r="785" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="785">
       <c r="F785" s="20"/>
       <c r="G785" s="20"/>
       <c r="H785" s="20"/>
     </row>
-    <row r="786" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="786">
       <c r="F786" s="20"/>
       <c r="G786" s="20"/>
       <c r="H786" s="20"/>
     </row>
-    <row r="787" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="787">
       <c r="F787" s="20"/>
       <c r="G787" s="20"/>
       <c r="H787" s="20"/>
     </row>
-    <row r="788" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="788">
       <c r="F788" s="20"/>
       <c r="G788" s="20"/>
       <c r="H788" s="20"/>
     </row>
-    <row r="789" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="789">
       <c r="F789" s="20"/>
       <c r="G789" s="20"/>
       <c r="H789" s="20"/>
     </row>
-    <row r="790" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="790">
       <c r="F790" s="20"/>
       <c r="G790" s="20"/>
       <c r="H790" s="20"/>
     </row>
-    <row r="791" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="791">
       <c r="F791" s="20"/>
       <c r="G791" s="20"/>
       <c r="H791" s="20"/>
     </row>
-    <row r="792" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="792">
       <c r="F792" s="20"/>
       <c r="G792" s="20"/>
       <c r="H792" s="20"/>
     </row>
-    <row r="793" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="793">
       <c r="F793" s="20"/>
       <c r="G793" s="20"/>
       <c r="H793" s="20"/>
     </row>
-    <row r="794" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="794">
       <c r="F794" s="20"/>
       <c r="G794" s="20"/>
       <c r="H794" s="20"/>
     </row>
-    <row r="795" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="795">
       <c r="F795" s="20"/>
       <c r="G795" s="20"/>
       <c r="H795" s="20"/>
     </row>
-    <row r="796" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="796">
       <c r="F796" s="20"/>
       <c r="G796" s="20"/>
       <c r="H796" s="20"/>
     </row>
-    <row r="797" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="797">
       <c r="F797" s="20"/>
       <c r="G797" s="20"/>
       <c r="H797" s="20"/>
     </row>
-    <row r="798" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="798">
       <c r="F798" s="20"/>
       <c r="G798" s="20"/>
       <c r="H798" s="20"/>
     </row>
-    <row r="799" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="799">
       <c r="F799" s="20"/>
       <c r="G799" s="20"/>
       <c r="H799" s="20"/>
     </row>
-    <row r="800" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="800">
       <c r="F800" s="20"/>
       <c r="G800" s="20"/>
       <c r="H800" s="20"/>
     </row>
-    <row r="801" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="801">
       <c r="F801" s="20"/>
       <c r="G801" s="20"/>
       <c r="H801" s="20"/>
     </row>
-    <row r="802" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="802">
       <c r="F802" s="20"/>
       <c r="G802" s="20"/>
       <c r="H802" s="20"/>
     </row>
-    <row r="803" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="803">
       <c r="F803" s="20"/>
       <c r="G803" s="20"/>
       <c r="H803" s="20"/>
     </row>
-    <row r="804" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="804">
       <c r="F804" s="20"/>
       <c r="G804" s="20"/>
       <c r="H804" s="20"/>
     </row>
-    <row r="805" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="805">
       <c r="F805" s="20"/>
       <c r="G805" s="20"/>
       <c r="H805" s="20"/>
     </row>
-    <row r="806" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="806">
       <c r="F806" s="20"/>
       <c r="G806" s="20"/>
       <c r="H806" s="20"/>
     </row>
-    <row r="807" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="807">
       <c r="F807" s="20"/>
       <c r="G807" s="20"/>
       <c r="H807" s="20"/>
     </row>
-    <row r="808" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="808">
       <c r="F808" s="20"/>
       <c r="G808" s="20"/>
       <c r="H808" s="20"/>
     </row>
-    <row r="809" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="809">
       <c r="F809" s="20"/>
       <c r="G809" s="20"/>
       <c r="H809" s="20"/>
     </row>
-    <row r="810" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="810">
       <c r="F810" s="20"/>
       <c r="G810" s="20"/>
       <c r="H810" s="20"/>
     </row>
-    <row r="811" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="811">
       <c r="F811" s="20"/>
       <c r="G811" s="20"/>
       <c r="H811" s="20"/>
     </row>
-    <row r="812" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="812">
       <c r="F812" s="20"/>
       <c r="G812" s="20"/>
       <c r="H812" s="20"/>
     </row>
-    <row r="813" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="813">
       <c r="F813" s="20"/>
       <c r="G813" s="20"/>
       <c r="H813" s="20"/>
     </row>
-    <row r="814" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="814">
       <c r="F814" s="20"/>
       <c r="G814" s="20"/>
       <c r="H814" s="20"/>
     </row>
-    <row r="815" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="815">
       <c r="F815" s="20"/>
       <c r="G815" s="20"/>
       <c r="H815" s="20"/>
     </row>
-    <row r="816" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="816">
       <c r="F816" s="20"/>
       <c r="G816" s="20"/>
       <c r="H816" s="20"/>
     </row>
-    <row r="817" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="817">
       <c r="F817" s="20"/>
       <c r="G817" s="20"/>
       <c r="H817" s="20"/>
     </row>
-    <row r="818" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="818">
       <c r="F818" s="20"/>
       <c r="G818" s="20"/>
       <c r="H818" s="20"/>
     </row>
-    <row r="819" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="819">
       <c r="F819" s="20"/>
       <c r="G819" s="20"/>
       <c r="H819" s="20"/>
     </row>
-    <row r="820" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="820">
       <c r="F820" s="20"/>
       <c r="G820" s="20"/>
       <c r="H820" s="20"/>
     </row>
-    <row r="821" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="821">
       <c r="F821" s="20"/>
       <c r="G821" s="20"/>
       <c r="H821" s="20"/>
     </row>
-    <row r="822" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="822">
       <c r="F822" s="20"/>
       <c r="G822" s="20"/>
       <c r="H822" s="20"/>
     </row>
-    <row r="823" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="823">
       <c r="F823" s="20"/>
       <c r="G823" s="20"/>
       <c r="H823" s="20"/>
     </row>
-    <row r="824" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="824">
       <c r="F824" s="20"/>
       <c r="G824" s="20"/>
       <c r="H824" s="20"/>
     </row>
-    <row r="825" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="825">
       <c r="F825" s="20"/>
       <c r="G825" s="20"/>
       <c r="H825" s="20"/>
     </row>
-    <row r="826" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="826">
       <c r="F826" s="20"/>
       <c r="G826" s="20"/>
       <c r="H826" s="20"/>
     </row>
-    <row r="827" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="827">
       <c r="F827" s="20"/>
       <c r="G827" s="20"/>
       <c r="H827" s="20"/>
     </row>
-    <row r="828" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="828">
       <c r="F828" s="20"/>
       <c r="G828" s="20"/>
       <c r="H828" s="20"/>
     </row>
-    <row r="829" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="829">
       <c r="F829" s="20"/>
       <c r="G829" s="20"/>
       <c r="H829" s="20"/>
     </row>
-    <row r="830" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="830">
       <c r="F830" s="20"/>
       <c r="G830" s="20"/>
       <c r="H830" s="20"/>
     </row>
-    <row r="831" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="831">
       <c r="F831" s="20"/>
       <c r="G831" s="20"/>
       <c r="H831" s="20"/>
     </row>
-    <row r="832" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="832">
       <c r="F832" s="20"/>
       <c r="G832" s="20"/>
       <c r="H832" s="20"/>
     </row>
-    <row r="833" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="833">
       <c r="F833" s="20"/>
       <c r="G833" s="20"/>
       <c r="H833" s="20"/>
     </row>
-    <row r="834" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="834">
       <c r="F834" s="20"/>
       <c r="G834" s="20"/>
       <c r="H834" s="20"/>
     </row>
-    <row r="835" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="835">
       <c r="F835" s="20"/>
       <c r="G835" s="20"/>
       <c r="H835" s="20"/>
     </row>
-    <row r="836" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="836">
       <c r="F836" s="20"/>
       <c r="G836" s="20"/>
       <c r="H836" s="20"/>
     </row>
-    <row r="837" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="837">
       <c r="F837" s="20"/>
       <c r="G837" s="20"/>
       <c r="H837" s="20"/>
     </row>
-    <row r="838" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="838">
       <c r="F838" s="20"/>
       <c r="G838" s="20"/>
       <c r="H838" s="20"/>
     </row>
-    <row r="839" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="839">
       <c r="F839" s="20"/>
       <c r="G839" s="20"/>
       <c r="H839" s="20"/>
     </row>
-    <row r="840" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="840">
       <c r="F840" s="20"/>
       <c r="G840" s="20"/>
       <c r="H840" s="20"/>
     </row>
-    <row r="841" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="841">
       <c r="F841" s="20"/>
       <c r="G841" s="20"/>
       <c r="H841" s="20"/>
     </row>
-    <row r="842" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="842">
       <c r="F842" s="20"/>
       <c r="G842" s="20"/>
       <c r="H842" s="20"/>
     </row>
-    <row r="843" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="843">
       <c r="F843" s="20"/>
       <c r="G843" s="20"/>
       <c r="H843" s="20"/>
     </row>
-    <row r="844" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="844">
       <c r="F844" s="20"/>
       <c r="G844" s="20"/>
       <c r="H844" s="20"/>
     </row>
-    <row r="845" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="845">
       <c r="F845" s="20"/>
       <c r="G845" s="20"/>
       <c r="H845" s="20"/>
     </row>
-    <row r="846" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="846">
       <c r="F846" s="20"/>
       <c r="G846" s="20"/>
       <c r="H846" s="20"/>
     </row>
-    <row r="847" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="847">
       <c r="F847" s="20"/>
       <c r="G847" s="20"/>
       <c r="H847" s="20"/>
     </row>
-    <row r="848" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="848">
       <c r="F848" s="20"/>
       <c r="G848" s="20"/>
       <c r="H848" s="20"/>
     </row>
-    <row r="849" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="849">
       <c r="F849" s="20"/>
       <c r="G849" s="20"/>
       <c r="H849" s="20"/>
     </row>
-    <row r="850" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="850">
       <c r="F850" s="20"/>
       <c r="G850" s="20"/>
       <c r="H850" s="20"/>
     </row>
-    <row r="851" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="851">
       <c r="F851" s="20"/>
       <c r="G851" s="20"/>
       <c r="H851" s="20"/>
     </row>
-    <row r="852" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="852">
       <c r="F852" s="20"/>
       <c r="G852" s="20"/>
       <c r="H852" s="20"/>
     </row>
-    <row r="853" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="853">
       <c r="F853" s="20"/>
       <c r="G853" s="20"/>
       <c r="H853" s="20"/>
     </row>
-    <row r="854" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="854">
       <c r="F854" s="20"/>
       <c r="G854" s="20"/>
       <c r="H854" s="20"/>
     </row>
-    <row r="855" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="855">
       <c r="F855" s="20"/>
       <c r="G855" s="20"/>
       <c r="H855" s="20"/>
     </row>
-    <row r="856" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="856">
       <c r="F856" s="20"/>
       <c r="G856" s="20"/>
       <c r="H856" s="20"/>
     </row>
-    <row r="857" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="857">
       <c r="F857" s="20"/>
       <c r="G857" s="20"/>
       <c r="H857" s="20"/>
     </row>
-    <row r="858" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="858">
       <c r="F858" s="20"/>
       <c r="G858" s="20"/>
       <c r="H858" s="20"/>
     </row>
-    <row r="859" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="859">
       <c r="F859" s="20"/>
       <c r="G859" s="20"/>
       <c r="H859" s="20"/>
     </row>
-    <row r="860" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="860">
       <c r="F860" s="20"/>
       <c r="G860" s="20"/>
       <c r="H860" s="20"/>
     </row>
-    <row r="861" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="861">
       <c r="F861" s="20"/>
       <c r="G861" s="20"/>
       <c r="H861" s="20"/>
     </row>
-    <row r="862" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="862">
       <c r="F862" s="20"/>
       <c r="G862" s="20"/>
       <c r="H862" s="20"/>
     </row>
-    <row r="863" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="863">
       <c r="F863" s="20"/>
       <c r="G863" s="20"/>
       <c r="H863" s="20"/>
     </row>
-    <row r="864" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="864">
       <c r="F864" s="20"/>
       <c r="G864" s="20"/>
       <c r="H864" s="20"/>
     </row>
-    <row r="865" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="865">
       <c r="F865" s="20"/>
       <c r="G865" s="20"/>
       <c r="H865" s="20"/>
     </row>
-    <row r="866" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="866">
       <c r="F866" s="20"/>
       <c r="G866" s="20"/>
       <c r="H866" s="20"/>
     </row>
-    <row r="867" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="867">
       <c r="F867" s="20"/>
       <c r="G867" s="20"/>
       <c r="H867" s="20"/>
     </row>
-    <row r="868" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="868">
       <c r="F868" s="20"/>
       <c r="G868" s="20"/>
       <c r="H868" s="20"/>
     </row>
-    <row r="869" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="869">
       <c r="F869" s="20"/>
       <c r="G869" s="20"/>
       <c r="H869" s="20"/>
     </row>
-    <row r="870" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="870">
       <c r="F870" s="20"/>
       <c r="G870" s="20"/>
       <c r="H870" s="20"/>
     </row>
-    <row r="871" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="871">
       <c r="F871" s="20"/>
       <c r="G871" s="20"/>
       <c r="H871" s="20"/>
     </row>
-    <row r="872" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="872">
       <c r="F872" s="20"/>
       <c r="G872" s="20"/>
       <c r="H872" s="20"/>
     </row>
-    <row r="873" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="873">
       <c r="F873" s="20"/>
       <c r="G873" s="20"/>
       <c r="H873" s="20"/>
     </row>
-    <row r="874" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="874">
       <c r="F874" s="20"/>
       <c r="G874" s="20"/>
       <c r="H874" s="20"/>
     </row>
-    <row r="875" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="875">
       <c r="F875" s="20"/>
       <c r="G875" s="20"/>
       <c r="H875" s="20"/>
     </row>
-    <row r="876" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="876">
       <c r="F876" s="20"/>
       <c r="G876" s="20"/>
       <c r="H876" s="20"/>
     </row>
-    <row r="877" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="877">
       <c r="F877" s="20"/>
       <c r="G877" s="20"/>
       <c r="H877" s="20"/>
     </row>
-    <row r="878" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="878">
       <c r="F878" s="20"/>
       <c r="G878" s="20"/>
       <c r="H878" s="20"/>
     </row>
-    <row r="879" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="879">
       <c r="F879" s="20"/>
       <c r="G879" s="20"/>
       <c r="H879" s="20"/>
     </row>
-    <row r="880" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="880">
       <c r="F880" s="20"/>
       <c r="G880" s="20"/>
       <c r="H880" s="20"/>
     </row>
-    <row r="881" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="881">
       <c r="F881" s="20"/>
       <c r="G881" s="20"/>
       <c r="H881" s="20"/>
     </row>
-    <row r="882" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="882">
       <c r="F882" s="20"/>
       <c r="G882" s="20"/>
       <c r="H882" s="20"/>
     </row>
-    <row r="883" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="883">
       <c r="F883" s="20"/>
       <c r="G883" s="20"/>
       <c r="H883" s="20"/>
     </row>
-    <row r="884" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="884">
       <c r="F884" s="20"/>
       <c r="G884" s="20"/>
       <c r="H884" s="20"/>
     </row>
-    <row r="885" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="885">
       <c r="F885" s="20"/>
       <c r="G885" s="20"/>
       <c r="H885" s="20"/>
     </row>
-    <row r="886" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="886">
       <c r="F886" s="20"/>
       <c r="G886" s="20"/>
       <c r="H886" s="20"/>
     </row>
-    <row r="887" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="887">
       <c r="F887" s="20"/>
       <c r="G887" s="20"/>
       <c r="H887" s="20"/>
     </row>
-    <row r="888" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="888">
       <c r="F888" s="20"/>
       <c r="G888" s="20"/>
       <c r="H888" s="20"/>
     </row>
-    <row r="889" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="889">
       <c r="F889" s="20"/>
       <c r="G889" s="20"/>
       <c r="H889" s="20"/>
     </row>
-    <row r="890" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="890">
       <c r="F890" s="20"/>
       <c r="G890" s="20"/>
       <c r="H890" s="20"/>
     </row>
-    <row r="891" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="891">
       <c r="F891" s="20"/>
       <c r="G891" s="20"/>
       <c r="H891" s="20"/>
     </row>
-    <row r="892" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="892">
       <c r="F892" s="20"/>
       <c r="G892" s="20"/>
       <c r="H892" s="20"/>
     </row>
-    <row r="893" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="893">
       <c r="F893" s="20"/>
       <c r="G893" s="20"/>
       <c r="H893" s="20"/>
     </row>
-    <row r="894" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="894">
       <c r="F894" s="20"/>
       <c r="G894" s="20"/>
       <c r="H894" s="20"/>
     </row>
-    <row r="895" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="895">
       <c r="F895" s="20"/>
       <c r="G895" s="20"/>
       <c r="H895" s="20"/>
     </row>
-    <row r="896" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="896">
       <c r="F896" s="20"/>
       <c r="G896" s="20"/>
       <c r="H896" s="20"/>
     </row>
-    <row r="897" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="897">
       <c r="F897" s="20"/>
       <c r="G897" s="20"/>
       <c r="H897" s="20"/>
     </row>
-    <row r="898" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="898">
       <c r="F898" s="20"/>
       <c r="G898" s="20"/>
       <c r="H898" s="20"/>
     </row>
-    <row r="899" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="899">
       <c r="F899" s="20"/>
       <c r="G899" s="20"/>
       <c r="H899" s="20"/>
     </row>
-    <row r="900" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="900">
       <c r="F900" s="20"/>
       <c r="G900" s="20"/>
       <c r="H900" s="20"/>
     </row>
-    <row r="901" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="901">
       <c r="F901" s="20"/>
       <c r="G901" s="20"/>
       <c r="H901" s="20"/>
     </row>
-    <row r="902" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="902">
       <c r="F902" s="20"/>
       <c r="G902" s="20"/>
       <c r="H902" s="20"/>
     </row>
-    <row r="903" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="903">
       <c r="F903" s="20"/>
       <c r="G903" s="20"/>
       <c r="H903" s="20"/>
     </row>
-    <row r="904" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="904">
       <c r="F904" s="20"/>
       <c r="G904" s="20"/>
       <c r="H904" s="20"/>
     </row>
-    <row r="905" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="905">
       <c r="F905" s="20"/>
       <c r="G905" s="20"/>
       <c r="H905" s="20"/>
     </row>
-    <row r="906" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="906">
       <c r="F906" s="20"/>
       <c r="G906" s="20"/>
       <c r="H906" s="20"/>
     </row>
-    <row r="907" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="907">
       <c r="F907" s="20"/>
       <c r="G907" s="20"/>
       <c r="H907" s="20"/>
     </row>
-    <row r="908" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="908">
       <c r="F908" s="20"/>
       <c r="G908" s="20"/>
       <c r="H908" s="20"/>
     </row>
-    <row r="909" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="909">
       <c r="F909" s="20"/>
       <c r="G909" s="20"/>
       <c r="H909" s="20"/>
     </row>
-    <row r="910" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="910">
       <c r="F910" s="20"/>
       <c r="G910" s="20"/>
       <c r="H910" s="20"/>
     </row>
-    <row r="911" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="911">
       <c r="F911" s="20"/>
       <c r="G911" s="20"/>
       <c r="H911" s="20"/>
     </row>
-    <row r="912" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="912">
       <c r="F912" s="20"/>
       <c r="G912" s="20"/>
       <c r="H912" s="20"/>
     </row>
-    <row r="913" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="913">
       <c r="F913" s="20"/>
       <c r="G913" s="20"/>
       <c r="H913" s="20"/>
     </row>
-    <row r="914" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="914">
       <c r="F914" s="20"/>
       <c r="G914" s="20"/>
       <c r="H914" s="20"/>
     </row>
-    <row r="915" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="915">
       <c r="F915" s="20"/>
       <c r="G915" s="20"/>
       <c r="H915" s="20"/>
     </row>
-    <row r="916" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="916">
       <c r="F916" s="20"/>
       <c r="G916" s="20"/>
       <c r="H916" s="20"/>
     </row>
-    <row r="917" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="917">
       <c r="F917" s="20"/>
       <c r="G917" s="20"/>
       <c r="H917" s="20"/>
     </row>
-    <row r="918" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="918">
       <c r="F918" s="20"/>
       <c r="G918" s="20"/>
       <c r="H918" s="20"/>
     </row>
-    <row r="919" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="919">
       <c r="F919" s="20"/>
       <c r="G919" s="20"/>
       <c r="H919" s="20"/>
     </row>
-    <row r="920" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="920">
       <c r="F920" s="20"/>
       <c r="G920" s="20"/>
       <c r="H920" s="20"/>
     </row>
-    <row r="921" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="921">
       <c r="F921" s="20"/>
       <c r="G921" s="20"/>
       <c r="H921" s="20"/>
     </row>
-    <row r="922" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="922">
       <c r="F922" s="20"/>
       <c r="G922" s="20"/>
       <c r="H922" s="20"/>
     </row>
-    <row r="923" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="923">
       <c r="F923" s="20"/>
       <c r="G923" s="20"/>
       <c r="H923" s="20"/>
     </row>
-    <row r="924" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="924">
       <c r="F924" s="20"/>
       <c r="G924" s="20"/>
       <c r="H924" s="20"/>
     </row>
-    <row r="925" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="925">
       <c r="F925" s="20"/>
       <c r="G925" s="20"/>
       <c r="H925" s="20"/>
     </row>
-    <row r="926" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="926">
       <c r="F926" s="20"/>
       <c r="G926" s="20"/>
       <c r="H926" s="20"/>
     </row>
-    <row r="927" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="927">
       <c r="F927" s="20"/>
       <c r="G927" s="20"/>
       <c r="H927" s="20"/>
     </row>
-    <row r="928" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="928">
       <c r="F928" s="20"/>
       <c r="G928" s="20"/>
       <c r="H928" s="20"/>
     </row>
-    <row r="929" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="929">
       <c r="F929" s="20"/>
       <c r="G929" s="20"/>
       <c r="H929" s="20"/>
     </row>
-    <row r="930" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="930">
       <c r="F930" s="20"/>
       <c r="G930" s="20"/>
       <c r="H930" s="20"/>
     </row>
-    <row r="931" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="931">
       <c r="F931" s="20"/>
       <c r="G931" s="20"/>
       <c r="H931" s="20"/>
     </row>
-    <row r="932" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="932">
       <c r="F932" s="20"/>
       <c r="G932" s="20"/>
       <c r="H932" s="20"/>
     </row>
-    <row r="933" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="933">
       <c r="F933" s="20"/>
       <c r="G933" s="20"/>
       <c r="H933" s="20"/>
     </row>
-    <row r="934" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="934">
       <c r="F934" s="20"/>
       <c r="G934" s="20"/>
       <c r="H934" s="20"/>
     </row>
-    <row r="935" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="935">
       <c r="F935" s="20"/>
       <c r="G935" s="20"/>
       <c r="H935" s="20"/>
     </row>
-    <row r="936" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="936">
       <c r="F936" s="20"/>
       <c r="G936" s="20"/>
       <c r="H936" s="20"/>
     </row>
-    <row r="937" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="937">
       <c r="F937" s="20"/>
       <c r="G937" s="20"/>
       <c r="H937" s="20"/>
     </row>
-    <row r="938" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="938">
       <c r="F938" s="20"/>
       <c r="G938" s="20"/>
       <c r="H938" s="20"/>
     </row>
-    <row r="939" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="939">
       <c r="F939" s="20"/>
       <c r="G939" s="20"/>
       <c r="H939" s="20"/>
     </row>
-    <row r="940" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="940">
       <c r="F940" s="20"/>
       <c r="G940" s="20"/>
       <c r="H940" s="20"/>
     </row>
-    <row r="941" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="941">
       <c r="F941" s="20"/>
       <c r="G941" s="20"/>
       <c r="H941" s="20"/>
     </row>
-    <row r="942" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="942">
       <c r="F942" s="20"/>
       <c r="G942" s="20"/>
       <c r="H942" s="20"/>
     </row>
-    <row r="943" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="943">
       <c r="F943" s="20"/>
       <c r="G943" s="20"/>
       <c r="H943" s="20"/>
     </row>
-    <row r="944" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="944">
       <c r="F944" s="20"/>
       <c r="G944" s="20"/>
       <c r="H944" s="20"/>
     </row>
-    <row r="945" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="945">
       <c r="F945" s="20"/>
       <c r="G945" s="20"/>
       <c r="H945" s="20"/>
     </row>
-    <row r="946" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="946">
       <c r="F946" s="20"/>
       <c r="G946" s="20"/>
       <c r="H946" s="20"/>
     </row>
-    <row r="947" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="947">
       <c r="F947" s="20"/>
       <c r="G947" s="20"/>
       <c r="H947" s="20"/>
     </row>
-    <row r="948" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="948">
       <c r="F948" s="20"/>
       <c r="G948" s="20"/>
       <c r="H948" s="20"/>
     </row>
-    <row r="949" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="949">
       <c r="F949" s="20"/>
       <c r="G949" s="20"/>
       <c r="H949" s="20"/>
     </row>
-    <row r="950" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="950">
       <c r="F950" s="20"/>
       <c r="G950" s="20"/>
       <c r="H950" s="20"/>
     </row>
-    <row r="951" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="951">
       <c r="F951" s="20"/>
       <c r="G951" s="20"/>
       <c r="H951" s="20"/>
     </row>
-    <row r="952" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="952">
       <c r="F952" s="20"/>
       <c r="G952" s="20"/>
       <c r="H952" s="20"/>
     </row>
-    <row r="953" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="953">
       <c r="F953" s="20"/>
       <c r="G953" s="20"/>
       <c r="H953" s="20"/>
     </row>
-    <row r="954" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="954">
       <c r="F954" s="20"/>
       <c r="G954" s="20"/>
       <c r="H954" s="20"/>
     </row>
-    <row r="955" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="955">
       <c r="F955" s="20"/>
       <c r="G955" s="20"/>
       <c r="H955" s="20"/>
     </row>
-    <row r="956" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="956">
       <c r="F956" s="20"/>
       <c r="G956" s="20"/>
       <c r="H956" s="20"/>
     </row>
-    <row r="957" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="957">
       <c r="F957" s="20"/>
       <c r="G957" s="20"/>
       <c r="H957" s="20"/>
     </row>
-    <row r="958" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="958">
       <c r="F958" s="20"/>
       <c r="G958" s="20"/>
       <c r="H958" s="20"/>
     </row>
-    <row r="959" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="959">
       <c r="F959" s="20"/>
       <c r="G959" s="20"/>
       <c r="H959" s="20"/>
     </row>
-    <row r="960" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="960">
       <c r="F960" s="20"/>
       <c r="G960" s="20"/>
       <c r="H960" s="20"/>
     </row>
-    <row r="961" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="961">
       <c r="F961" s="20"/>
       <c r="G961" s="20"/>
       <c r="H961" s="20"/>
     </row>
-    <row r="962" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="962">
       <c r="F962" s="20"/>
       <c r="G962" s="20"/>
       <c r="H962" s="20"/>
     </row>
-    <row r="963" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="963">
       <c r="F963" s="20"/>
       <c r="G963" s="20"/>
       <c r="H963" s="20"/>
     </row>
-    <row r="964" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="964">
       <c r="F964" s="20"/>
       <c r="G964" s="20"/>
       <c r="H964" s="20"/>
     </row>
-    <row r="965" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="965">
       <c r="F965" s="20"/>
       <c r="G965" s="20"/>
       <c r="H965" s="20"/>
     </row>
-    <row r="966" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="966">
       <c r="F966" s="20"/>
       <c r="G966" s="20"/>
       <c r="H966" s="20"/>
     </row>
-    <row r="967" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="967">
       <c r="F967" s="20"/>
       <c r="G967" s="20"/>
       <c r="H967" s="20"/>
     </row>
-    <row r="968" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="968">
       <c r="F968" s="20"/>
       <c r="G968" s="20"/>
       <c r="H968" s="20"/>
     </row>
-    <row r="969" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="969">
       <c r="F969" s="20"/>
       <c r="G969" s="20"/>
       <c r="H969" s="20"/>
     </row>
-    <row r="970" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="970">
       <c r="F970" s="20"/>
       <c r="G970" s="20"/>
       <c r="H970" s="20"/>
     </row>
-    <row r="971" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="971">
       <c r="F971" s="20"/>
       <c r="G971" s="20"/>
       <c r="H971" s="20"/>
     </row>
-    <row r="972" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="972">
       <c r="F972" s="20"/>
       <c r="G972" s="20"/>
       <c r="H972" s="20"/>
     </row>
-    <row r="973" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="973">
       <c r="F973" s="20"/>
       <c r="G973" s="20"/>
       <c r="H973" s="20"/>
     </row>
-    <row r="974" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="974">
       <c r="F974" s="20"/>
       <c r="G974" s="20"/>
       <c r="H974" s="20"/>
     </row>
-    <row r="975" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="975">
       <c r="F975" s="20"/>
       <c r="G975" s="20"/>
       <c r="H975" s="20"/>
     </row>
-    <row r="976" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="976">
       <c r="F976" s="20"/>
       <c r="G976" s="20"/>
       <c r="H976" s="20"/>
     </row>
-    <row r="977" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="977">
       <c r="F977" s="20"/>
       <c r="G977" s="20"/>
       <c r="H977" s="20"/>
     </row>
-    <row r="978" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="978">
       <c r="F978" s="20"/>
       <c r="G978" s="20"/>
       <c r="H978" s="20"/>
     </row>
-    <row r="979" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="979">
       <c r="F979" s="20"/>
       <c r="G979" s="20"/>
       <c r="H979" s="20"/>
     </row>
-    <row r="980" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="980">
       <c r="F980" s="20"/>
       <c r="G980" s="20"/>
       <c r="H980" s="20"/>
     </row>
-    <row r="981" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="981">
       <c r="F981" s="20"/>
       <c r="G981" s="20"/>
       <c r="H981" s="20"/>
     </row>
-    <row r="982" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="982">
       <c r="F982" s="20"/>
       <c r="G982" s="20"/>
       <c r="H982" s="20"/>
     </row>
-    <row r="983" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="983">
       <c r="F983" s="20"/>
       <c r="G983" s="20"/>
       <c r="H983" s="20"/>
     </row>
-    <row r="984" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="984">
       <c r="F984" s="20"/>
       <c r="G984" s="20"/>
       <c r="H984" s="20"/>
     </row>
-    <row r="985" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="985">
       <c r="F985" s="20"/>
       <c r="G985" s="20"/>
       <c r="H985" s="20"/>
     </row>
-    <row r="986" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="986">
       <c r="F986" s="20"/>
       <c r="G986" s="20"/>
       <c r="H986" s="20"/>
     </row>
-    <row r="987" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="987">
       <c r="F987" s="20"/>
       <c r="G987" s="20"/>
       <c r="H987" s="20"/>
     </row>
-    <row r="988" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="988">
       <c r="F988" s="20"/>
       <c r="G988" s="20"/>
       <c r="H988" s="20"/>
     </row>
-    <row r="989" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="989">
       <c r="F989" s="20"/>
       <c r="G989" s="20"/>
       <c r="H989" s="20"/>
     </row>
-    <row r="990" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="990">
       <c r="F990" s="20"/>
       <c r="G990" s="20"/>
       <c r="H990" s="20"/>
     </row>
-    <row r="991" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="991">
       <c r="F991" s="20"/>
       <c r="G991" s="20"/>
       <c r="H991" s="20"/>
     </row>
-    <row r="992" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="992">
       <c r="F992" s="20"/>
       <c r="G992" s="20"/>
       <c r="H992" s="20"/>
     </row>
-    <row r="993" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="993">
       <c r="F993" s="20"/>
       <c r="G993" s="20"/>
       <c r="H993" s="20"/>
     </row>
-    <row r="994" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="994">
       <c r="F994" s="20"/>
       <c r="G994" s="20"/>
       <c r="H994" s="20"/>
     </row>
-    <row r="995" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="995">
       <c r="F995" s="20"/>
       <c r="G995" s="20"/>
       <c r="H995" s="20"/>
     </row>
-    <row r="996" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="996">
       <c r="F996" s="20"/>
       <c r="G996" s="20"/>
       <c r="H996" s="20"/>
     </row>
-    <row r="997" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="997">
       <c r="F997" s="20"/>
       <c r="G997" s="20"/>
       <c r="H997" s="20"/>
     </row>
-    <row r="998" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="998">
       <c r="F998" s="20"/>
       <c r="G998" s="20"/>
       <c r="H998" s="20"/>
     </row>
-    <row r="999" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="999">
       <c r="F999" s="20"/>
       <c r="G999" s="20"/>
       <c r="H999" s="20"/>
     </row>
-    <row r="1000" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="1000">
       <c r="F1000" s="20"/>
       <c r="G1000" s="20"/>
       <c r="H1000" s="20"/>
